--- a/Cashflow-101_HU.xlsx
+++ b/Cashflow-101_HU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MY PC\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E92A69-B8CC-426E-80BF-C14B1113DC0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0BC1306-B8EA-4B8D-9369-8495782F7D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="142">
   <si>
     <t>Foglalkozás</t>
   </si>
@@ -1044,6 +1044,57 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="165" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1052,13 +1103,45 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1073,158 +1156,75 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1797,37 +1797,37 @@
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="82" t="s">
-        <v>108</v>
-      </c>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
+      <c r="B1" s="109" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
-      <c r="G1" s="80" t="s">
+      <c r="G1" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="80"/>
-      <c r="I1" s="82" t="s">
-        <v>108</v>
-      </c>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="109" t="s">
+        <v>108</v>
+      </c>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
     </row>
     <row r="3" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
@@ -1836,22 +1836,22 @@
       <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="87" t="s">
+      <c r="A4" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="89"/>
-      <c r="G4" s="80" t="s">
+      <c r="B4" s="102"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="103"/>
+      <c r="G4" s="107" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="80"/>
-      <c r="I4" s="82" t="s">
-        <v>108</v>
-      </c>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="109" t="s">
+        <v>108</v>
+      </c>
+      <c r="J4" s="109"/>
+      <c r="K4" s="109"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
@@ -1873,11 +1873,11 @@
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="90">
+      <c r="D6" s="84">
         <f>IFERROR(VLOOKUP(B1,Adatok!B1:C13,2,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E6" s="91"/>
+      <c r="E6" s="85"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
@@ -1887,10 +1887,10 @@
         <v>108</v>
       </c>
       <c r="C7" s="7"/>
-      <c r="D7" s="76" t="s">
-        <v>108</v>
-      </c>
-      <c r="E7" s="77"/>
+      <c r="D7" s="92" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" s="93"/>
     </row>
     <row r="8" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="20"/>
@@ -1898,28 +1898,26 @@
         <v>108</v>
       </c>
       <c r="C8" s="7"/>
-      <c r="D8" s="76" t="s">
-        <v>108</v>
-      </c>
-      <c r="E8" s="77"/>
-      <c r="G8" s="85" t="s">
+      <c r="D8" s="92" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8" s="93"/>
+      <c r="G8" s="111" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="85"/>
-      <c r="I8" s="85"/>
-      <c r="J8" s="85"/>
-      <c r="K8" s="84">
+      <c r="H8" s="111"/>
+      <c r="I8" s="111"/>
+      <c r="J8" s="111"/>
+      <c r="K8" s="81">
         <f>SUM(D7:E20)</f>
         <v>0</v>
       </c>
-      <c r="L8" s="84"/>
-      <c r="M8" s="84"/>
+      <c r="L8" s="81"/>
+      <c r="M8" s="81"/>
       <c r="Q8" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="R8" s="47" t="s">
-        <v>108</v>
-      </c>
+      <c r="R8" s="47"/>
     </row>
     <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
@@ -1927,16 +1925,16 @@
         <v>108</v>
       </c>
       <c r="C9" s="7"/>
-      <c r="D9" s="76" t="s">
-        <v>108</v>
-      </c>
-      <c r="E9" s="77"/>
-      <c r="G9" s="83" t="s">
+      <c r="D9" s="92" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" s="93"/>
+      <c r="G9" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="83"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="83"/>
+      <c r="H9" s="110"/>
+      <c r="I9" s="110"/>
+      <c r="J9" s="110"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
@@ -1944,23 +1942,23 @@
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
-      <c r="D10" s="92"/>
-      <c r="E10" s="93"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="83"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="106"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="110"/>
+      <c r="J10" s="110"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="78" t="s">
-        <v>108</v>
-      </c>
-      <c r="B11" s="79"/>
+      <c r="A11" s="90" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" s="91"/>
       <c r="C11" s="7"/>
-      <c r="D11" s="76" t="s">
-        <v>108</v>
-      </c>
-      <c r="E11" s="77"/>
+      <c r="D11" s="92" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" s="93"/>
       <c r="Q11" s="45" t="s">
         <v>111</v>
       </c>
@@ -1972,13 +1970,13 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="78" t="s">
-        <v>108</v>
-      </c>
-      <c r="B12" s="79"/>
+      <c r="A12" s="90" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" s="91"/>
       <c r="C12" s="7"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="77"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="93"/>
       <c r="Q12" s="46" t="s">
         <v>108</v>
       </c>
@@ -1992,15 +1990,15 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="78" t="s">
-        <v>108</v>
-      </c>
-      <c r="B13" s="79"/>
+      <c r="A13" s="90" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="91"/>
       <c r="C13" s="7"/>
-      <c r="D13" s="76" t="s">
-        <v>108</v>
-      </c>
-      <c r="E13" s="77"/>
+      <c r="D13" s="92" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" s="93"/>
       <c r="Q13" s="46" t="s">
         <v>108</v>
       </c>
@@ -2014,47 +2012,47 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="78" t="s">
-        <v>108</v>
-      </c>
-      <c r="B14" s="79"/>
+      <c r="A14" s="90" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" s="91"/>
       <c r="C14" s="7"/>
-      <c r="D14" s="76" t="s">
-        <v>108</v>
-      </c>
-      <c r="E14" s="77"/>
-      <c r="G14" s="81" t="s">
+      <c r="D14" s="92" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" s="93"/>
+      <c r="G14" s="108" t="s">
         <v>61</v>
       </c>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="81"/>
-      <c r="K14" s="84">
+      <c r="H14" s="108"/>
+      <c r="I14" s="108"/>
+      <c r="J14" s="108"/>
+      <c r="K14" s="81">
         <f>SUM(D6:E20)</f>
         <v>0</v>
       </c>
-      <c r="L14" s="84"/>
-      <c r="M14" s="84"/>
+      <c r="L14" s="81"/>
+      <c r="M14" s="81"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="78" t="s">
-        <v>108</v>
-      </c>
-      <c r="B15" s="79"/>
+      <c r="A15" s="90" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" s="91"/>
       <c r="C15" s="7"/>
-      <c r="D15" s="76" t="s">
-        <v>108</v>
-      </c>
-      <c r="E15" s="77"/>
+      <c r="D15" s="92" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" s="93"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="78" t="s">
-        <v>108</v>
-      </c>
-      <c r="B16" s="79"/>
+      <c r="A16" s="90" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" s="91"/>
       <c r="C16" s="7"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="77"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="93"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
@@ -2064,49 +2062,49 @@
       <c r="M16" s="6"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="78" t="s">
-        <v>108</v>
-      </c>
-      <c r="B17" s="79"/>
+      <c r="A17" s="90" t="s">
+        <v>108</v>
+      </c>
+      <c r="B17" s="91"/>
       <c r="C17" s="7"/>
-      <c r="D17" s="76" t="s">
-        <v>108</v>
-      </c>
-      <c r="E17" s="77"/>
+      <c r="D17" s="92" t="s">
+        <v>108</v>
+      </c>
+      <c r="E17" s="93"/>
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="78" t="s">
-        <v>108</v>
-      </c>
-      <c r="B18" s="79"/>
+      <c r="A18" s="90" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18" s="91"/>
       <c r="C18" s="7"/>
-      <c r="D18" s="76" t="s">
-        <v>108</v>
-      </c>
-      <c r="E18" s="77"/>
-      <c r="G18" s="98" t="s">
+      <c r="D18" s="92" t="s">
+        <v>108</v>
+      </c>
+      <c r="E18" s="93"/>
+      <c r="G18" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="99"/>
-      <c r="I18" s="99"/>
-      <c r="J18" s="102" t="s">
-        <v>108</v>
-      </c>
-      <c r="K18" s="102"/>
+      <c r="H18" s="97"/>
+      <c r="I18" s="97"/>
+      <c r="J18" s="100" t="s">
+        <v>108</v>
+      </c>
+      <c r="K18" s="100"/>
       <c r="L18" s="16"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="78" t="s">
-        <v>108</v>
-      </c>
-      <c r="B19" s="79"/>
+      <c r="A19" s="90" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19" s="91"/>
       <c r="C19" s="7"/>
-      <c r="D19" s="76" t="s">
-        <v>108</v>
-      </c>
-      <c r="E19" s="77"/>
+      <c r="D19" s="92" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" s="93"/>
       <c r="G19" s="10"/>
       <c r="H19" s="23" t="s">
         <v>24</v>
@@ -2117,20 +2115,20 @@
       <c r="L19" s="11"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="78" t="s">
-        <v>108</v>
-      </c>
-      <c r="B20" s="79"/>
+      <c r="A20" s="90" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20" s="91"/>
       <c r="C20" s="7"/>
-      <c r="D20" s="76" t="s">
-        <v>108</v>
-      </c>
-      <c r="E20" s="77"/>
-      <c r="G20" s="100" t="s">
+      <c r="D20" s="92" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" s="93"/>
+      <c r="G20" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="H20" s="101"/>
-      <c r="I20" s="101"/>
+      <c r="H20" s="99"/>
+      <c r="I20" s="99"/>
       <c r="J20" s="38">
         <f>IFERROR(VLOOKUP(B1,Adatok!B1:U13,13,FALSE), 0)</f>
         <v>0</v>
@@ -2141,13 +2139,13 @@
       <c r="L20" s="11"/>
     </row>
     <row r="21" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="87" t="s">
+      <c r="A21" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="88"/>
-      <c r="C21" s="88"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="89"/>
+      <c r="B21" s="102"/>
+      <c r="C21" s="102"/>
+      <c r="D21" s="102"/>
+      <c r="E21" s="103"/>
       <c r="G21" s="24"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
@@ -2187,12 +2185,12 @@
       </c>
       <c r="I23" s="60"/>
       <c r="J23" s="60"/>
-      <c r="K23" s="84">
+      <c r="K23" s="81">
         <f>SUM(D22:E31)</f>
         <v>0</v>
       </c>
-      <c r="L23" s="84"/>
-      <c r="M23" s="84"/>
+      <c r="L23" s="81"/>
+      <c r="M23" s="81"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
@@ -2236,17 +2234,17 @@
         <v>0</v>
       </c>
       <c r="E26" s="95"/>
-      <c r="H26" s="110" t="s">
+      <c r="H26" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="I26" s="110"/>
-      <c r="J26" s="110"/>
-      <c r="K26" s="84">
+      <c r="I26" s="78"/>
+      <c r="J26" s="78"/>
+      <c r="K26" s="81">
         <f>K14-K23</f>
         <v>0</v>
       </c>
-      <c r="L26" s="84"/>
-      <c r="M26" s="84"/>
+      <c r="L26" s="81"/>
+      <c r="M26" s="81"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
@@ -2297,11 +2295,11 @@
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
-      <c r="D30" s="84">
+      <c r="D30" s="81">
         <f>IFERROR(I53/10, 0)</f>
         <v>0</v>
       </c>
-      <c r="E30" s="108"/>
+      <c r="E30" s="104"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="51" t="s">
@@ -2309,11 +2307,11 @@
       </c>
       <c r="B31" s="51"/>
       <c r="C31" s="6"/>
-      <c r="D31" s="84">
+      <c r="D31" s="81">
         <f>IF(Q12="Hajó",S12,0)</f>
         <v>0</v>
       </c>
-      <c r="E31" s="108"/>
+      <c r="E31" s="104"/>
     </row>
     <row r="32" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A32" s="25" t="s">
@@ -2360,12 +2358,12 @@
       <c r="H34" s="52"/>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
-      <c r="K34" s="90">
+      <c r="K34" s="84">
         <f>IFERROR(VLOOKUP(B1,Adatok!B1:U13,16,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="L34" s="90"/>
-      <c r="M34" s="91"/>
+      <c r="L34" s="84"/>
+      <c r="M34" s="85"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="65" t="s">
@@ -2386,12 +2384,12 @@
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
-      <c r="K35" s="96">
+      <c r="K35" s="76">
         <f>IFERROR(VLOOKUP(B1,Adatok!B1:U13,17,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="L35" s="96"/>
-      <c r="M35" s="97"/>
+      <c r="L35" s="76"/>
+      <c r="M35" s="77"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="35" t="s">
@@ -2412,12 +2410,12 @@
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
-      <c r="K36" s="96">
+      <c r="K36" s="76">
         <f>IFERROR(VLOOKUP(B1,Adatok!B1:U13,18,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="L36" s="96"/>
-      <c r="M36" s="97"/>
+      <c r="L36" s="76"/>
+      <c r="M36" s="77"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="35" t="s">
@@ -2438,12 +2436,12 @@
       <c r="H37" s="52"/>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
-      <c r="K37" s="96">
+      <c r="K37" s="76">
         <f>IFERROR(VLOOKUP(B1,Adatok!B1:U13,19,FALSE)+IF(Q13="Nagy TV",R13,0), 0)</f>
         <v>0</v>
       </c>
-      <c r="L37" s="96"/>
-      <c r="M37" s="97"/>
+      <c r="L37" s="76"/>
+      <c r="M37" s="77"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="35" t="s">
@@ -2464,12 +2462,12 @@
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
-      <c r="K38" s="96">
+      <c r="K38" s="76">
         <f>IFERROR(VLOOKUP(B1,Adatok!B1:U13,20,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="L38" s="96"/>
-      <c r="M38" s="97"/>
+      <c r="L38" s="76"/>
+      <c r="M38" s="77"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="35" t="s">
@@ -2483,18 +2481,18 @@
       <c r="E39" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="G39" s="111" t="s">
+      <c r="G39" s="79" t="s">
         <v>110</v>
       </c>
-      <c r="H39" s="112"/>
-      <c r="I39" s="112"/>
-      <c r="J39" s="112"/>
-      <c r="K39" s="96">
+      <c r="H39" s="80"/>
+      <c r="I39" s="80"/>
+      <c r="J39" s="80"/>
+      <c r="K39" s="76">
         <f>IF(Q12="Hajó",R12,0)</f>
         <v>0</v>
       </c>
-      <c r="L39" s="96"/>
-      <c r="M39" s="97"/>
+      <c r="L39" s="76"/>
+      <c r="M39" s="77"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="35" t="s">
@@ -2541,11 +2539,11 @@
       <c r="H42" s="51"/>
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
-      <c r="K42" s="104" t="s">
+      <c r="K42" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="L42" s="104"/>
-      <c r="M42" s="109"/>
+      <c r="L42" s="82"/>
+      <c r="M42" s="83"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="33" t="str">
@@ -2561,19 +2559,19 @@
         <v>108</v>
       </c>
       <c r="F43" s="8"/>
-      <c r="G43" s="105" t="str">
+      <c r="G43" s="87" t="str">
         <f t="shared" ref="G43:G47" si="1">A43</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H43" s="106"/>
-      <c r="I43" s="106"/>
+      <c r="H43" s="88"/>
+      <c r="I43" s="88"/>
       <c r="J43" s="48"/>
-      <c r="K43" s="96">
+      <c r="K43" s="76">
         <f t="shared" ref="K43:K52" si="2">IFERROR(E43-C43, 0)</f>
         <v>0</v>
       </c>
-      <c r="L43" s="96"/>
-      <c r="M43" s="97"/>
+      <c r="L43" s="76"/>
+      <c r="M43" s="77"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="33" t="str">
@@ -2589,19 +2587,19 @@
         <v>108</v>
       </c>
       <c r="F44" s="8"/>
-      <c r="G44" s="105" t="str">
+      <c r="G44" s="87" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H44" s="106"/>
-      <c r="I44" s="106"/>
+      <c r="H44" s="88"/>
+      <c r="I44" s="88"/>
       <c r="J44" s="48"/>
-      <c r="K44" s="96">
+      <c r="K44" s="76">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L44" s="96"/>
-      <c r="M44" s="97"/>
+      <c r="L44" s="76"/>
+      <c r="M44" s="77"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="33" t="str">
@@ -2617,19 +2615,19 @@
         <v>108</v>
       </c>
       <c r="F45" s="8"/>
-      <c r="G45" s="105" t="str">
+      <c r="G45" s="87" t="str">
         <f t="shared" ref="G45" si="3">A45</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H45" s="106"/>
-      <c r="I45" s="106"/>
+      <c r="H45" s="88"/>
+      <c r="I45" s="88"/>
       <c r="J45" s="48"/>
-      <c r="K45" s="96">
+      <c r="K45" s="76">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L45" s="96"/>
-      <c r="M45" s="97"/>
+      <c r="L45" s="76"/>
+      <c r="M45" s="77"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="33" t="str">
@@ -2645,19 +2643,19 @@
         <v>108</v>
       </c>
       <c r="F46" s="8"/>
-      <c r="G46" s="105" t="str">
+      <c r="G46" s="87" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H46" s="106"/>
-      <c r="I46" s="106"/>
+      <c r="H46" s="88"/>
+      <c r="I46" s="88"/>
       <c r="J46" s="48"/>
-      <c r="K46" s="96">
+      <c r="K46" s="76">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L46" s="96"/>
-      <c r="M46" s="97"/>
+      <c r="L46" s="76"/>
+      <c r="M46" s="77"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="33" t="str">
@@ -2673,19 +2671,19 @@
         <v>108</v>
       </c>
       <c r="F47" s="8"/>
-      <c r="G47" s="105" t="str">
+      <c r="G47" s="87" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H47" s="106"/>
-      <c r="I47" s="106"/>
+      <c r="H47" s="88"/>
+      <c r="I47" s="88"/>
       <c r="J47" s="48"/>
-      <c r="K47" s="96">
+      <c r="K47" s="76">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L47" s="96"/>
-      <c r="M47" s="97"/>
+      <c r="L47" s="76"/>
+      <c r="M47" s="77"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="33" t="str">
@@ -2701,19 +2699,19 @@
         <v>108</v>
       </c>
       <c r="F48" s="8"/>
-      <c r="G48" s="105" t="str">
+      <c r="G48" s="87" t="str">
         <f>A48</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H48" s="106"/>
-      <c r="I48" s="106"/>
+      <c r="H48" s="88"/>
+      <c r="I48" s="88"/>
       <c r="J48" s="48"/>
-      <c r="K48" s="96">
+      <c r="K48" s="76">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L48" s="96"/>
-      <c r="M48" s="97"/>
+      <c r="L48" s="76"/>
+      <c r="M48" s="77"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="33" t="str">
@@ -2729,19 +2727,19 @@
         <v>108</v>
       </c>
       <c r="F49" s="11"/>
-      <c r="G49" s="105" t="str">
+      <c r="G49" s="87" t="str">
         <f t="shared" ref="G49:G51" si="5">A49</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H49" s="106"/>
-      <c r="I49" s="106"/>
+      <c r="H49" s="88"/>
+      <c r="I49" s="88"/>
       <c r="J49" s="48"/>
-      <c r="K49" s="96">
+      <c r="K49" s="76">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L49" s="96"/>
-      <c r="M49" s="97"/>
+      <c r="L49" s="76"/>
+      <c r="M49" s="77"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="33" t="str">
@@ -2756,19 +2754,19 @@
       <c r="E50" s="73" t="s">
         <v>108</v>
       </c>
-      <c r="G50" s="105" t="str">
+      <c r="G50" s="87" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H50" s="106"/>
-      <c r="I50" s="106"/>
+      <c r="H50" s="88"/>
+      <c r="I50" s="88"/>
       <c r="J50" s="48"/>
-      <c r="K50" s="96">
+      <c r="K50" s="76">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L50" s="96"/>
-      <c r="M50" s="97"/>
+      <c r="L50" s="76"/>
+      <c r="M50" s="77"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="33" t="str">
@@ -2783,19 +2781,19 @@
       <c r="E51" s="73" t="s">
         <v>108</v>
       </c>
-      <c r="G51" s="105" t="str">
+      <c r="G51" s="87" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H51" s="106"/>
-      <c r="I51" s="106"/>
+      <c r="H51" s="88"/>
+      <c r="I51" s="88"/>
       <c r="J51" s="48"/>
-      <c r="K51" s="96">
+      <c r="K51" s="76">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L51" s="96"/>
-      <c r="M51" s="97"/>
+      <c r="L51" s="76"/>
+      <c r="M51" s="77"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="33" t="str">
@@ -2810,32 +2808,32 @@
       <c r="E52" s="73" t="s">
         <v>108</v>
       </c>
-      <c r="G52" s="105" t="str">
+      <c r="G52" s="87" t="str">
         <f>A52</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H52" s="106"/>
-      <c r="I52" s="106"/>
+      <c r="H52" s="88"/>
+      <c r="I52" s="88"/>
       <c r="J52" s="48"/>
-      <c r="K52" s="96">
+      <c r="K52" s="76">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L52" s="96"/>
-      <c r="M52" s="97"/>
+      <c r="L52" s="76"/>
+      <c r="M52" s="77"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G53" s="103" t="s">
+      <c r="G53" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="H53" s="104"/>
-      <c r="I53" s="107" t="s">
-        <v>108</v>
-      </c>
-      <c r="J53" s="107"/>
-      <c r="K53" s="107"/>
-      <c r="L53" s="107"/>
-      <c r="M53" s="107"/>
+      <c r="H53" s="82"/>
+      <c r="I53" s="89" t="s">
+        <v>108</v>
+      </c>
+      <c r="J53" s="89"/>
+      <c r="K53" s="89"/>
+      <c r="L53" s="89"/>
+      <c r="M53" s="89"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" selectLockedCells="1"/>
@@ -2843,21 +2841,59 @@
     <protectedRange sqref="B1 I1 I4 B7:B9 D7:E9 D11:E20 R8 Q12:Q13 J18 A36:A41 C36:C41 E36:E41 C43:C52 E43:E52 J53 A11:B20" name="data"/>
   </protectedRanges>
   <mergeCells count="84">
-    <mergeCell ref="K45:M45"/>
-    <mergeCell ref="K46:M46"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="K42:M42"/>
-    <mergeCell ref="K38:M38"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="K43:M43"/>
-    <mergeCell ref="K44:M44"/>
-    <mergeCell ref="K48:M48"/>
-    <mergeCell ref="K49:M49"/>
-    <mergeCell ref="K50:M50"/>
-    <mergeCell ref="K51:M51"/>
-    <mergeCell ref="K52:M52"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="G9:J10"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="K35:M35"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="D17:E17"/>
     <mergeCell ref="G53:H53"/>
     <mergeCell ref="K36:M36"/>
     <mergeCell ref="K37:M37"/>
@@ -2874,59 +2910,21 @@
     <mergeCell ref="G52:I52"/>
     <mergeCell ref="I53:M53"/>
     <mergeCell ref="K47:M47"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="K35:M35"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="G9:J10"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="K48:M48"/>
+    <mergeCell ref="K49:M49"/>
+    <mergeCell ref="K50:M50"/>
+    <mergeCell ref="K51:M51"/>
+    <mergeCell ref="K52:M52"/>
+    <mergeCell ref="K45:M45"/>
+    <mergeCell ref="K46:M46"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="G39:J39"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="K42:M42"/>
+    <mergeCell ref="K38:M38"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="K43:M43"/>
+    <mergeCell ref="K44:M44"/>
   </mergeCells>
   <conditionalFormatting sqref="K8:M8">
     <cfRule type="expression" dxfId="45" priority="36">
@@ -3168,7 +3166,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A14" workbookViewId="0">
       <selection activeCell="A33" sqref="A33:D33"/>
     </sheetView>
   </sheetViews>
@@ -3194,17 +3192,17 @@
       <c r="A1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="118" t="s">
+      <c r="F1" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="118"/>
-      <c r="H1" s="117" t="str">
+      <c r="G1" s="129"/>
+      <c r="H1" s="115" t="str">
         <f>Mókuskerék!I1</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="117"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -3217,103 +3215,103 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="120" t="s">
+      <c r="A4" s="131" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
+      <c r="B4" s="131"/>
+      <c r="C4" s="131"/>
+      <c r="D4" s="131"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="118" t="s">
+      <c r="F4" s="129" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="118"/>
-      <c r="H4" s="117" t="str">
+      <c r="G4" s="129"/>
+      <c r="H4" s="115" t="str">
         <f>Mókuskerék!I4</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="I4" s="117"/>
-      <c r="J4" s="117"/>
-      <c r="K4" s="117"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="115"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="120"/>
-      <c r="B5" s="120"/>
-      <c r="C5" s="120"/>
-      <c r="D5" s="120"/>
+      <c r="A5" s="131"/>
+      <c r="B5" s="131"/>
+      <c r="C5" s="131"/>
+      <c r="D5" s="131"/>
       <c r="E5" s="3"/>
       <c r="H5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="120"/>
-      <c r="B6" s="120"/>
-      <c r="C6" s="120"/>
-      <c r="D6" s="120"/>
+      <c r="A6" s="131"/>
+      <c r="B6" s="131"/>
+      <c r="C6" s="131"/>
+      <c r="D6" s="131"/>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="120" t="s">
+      <c r="A7" s="131" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="120"/>
-      <c r="C7" s="120"/>
-      <c r="D7" s="120"/>
+      <c r="B7" s="131"/>
+      <c r="C7" s="131"/>
+      <c r="D7" s="131"/>
       <c r="E7" s="3"/>
       <c r="L7" s="6"/>
     </row>
     <row r="8" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="120"/>
-      <c r="B8" s="120"/>
-      <c r="C8" s="120"/>
-      <c r="D8" s="120"/>
-      <c r="F8" s="119" t="s">
+      <c r="A8" s="131"/>
+      <c r="B8" s="131"/>
+      <c r="C8" s="131"/>
+      <c r="D8" s="131"/>
+      <c r="F8" s="130" t="s">
         <v>46</v>
       </c>
-      <c r="G8" s="119"/>
-      <c r="H8" s="119"/>
-      <c r="I8" s="119"/>
-      <c r="J8" s="119"/>
+      <c r="G8" s="130"/>
+      <c r="H8" s="130"/>
+      <c r="I8" s="130"/>
+      <c r="J8" s="130"/>
       <c r="K8" s="13"/>
       <c r="M8" s="10"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="120"/>
-      <c r="B9" s="120"/>
-      <c r="C9" s="120"/>
-      <c r="D9" s="120"/>
+      <c r="A9" s="131"/>
+      <c r="B9" s="131"/>
+      <c r="C9" s="131"/>
+      <c r="D9" s="131"/>
       <c r="F9" s="10" t="s">
         <v>51</v>
       </c>
       <c r="M9" s="10"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="113" t="s">
+      <c r="A10" s="125" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="113"/>
-      <c r="C10" s="113"/>
+      <c r="B10" s="125"/>
+      <c r="C10" s="125"/>
       <c r="F10" s="10"/>
       <c r="G10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J10" s="84">
+      <c r="J10" s="81">
         <f>_xlfn.FLOOR.MATH(Mókuskerék!K8,10)</f>
         <v>0</v>
       </c>
-      <c r="K10" s="84"/>
-      <c r="L10" s="84"/>
+      <c r="K10" s="81"/>
+      <c r="L10" s="81"/>
       <c r="M10" s="10"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="114" t="s">
+      <c r="A11" s="126" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="114"/>
-      <c r="C11" s="114"/>
-      <c r="D11" s="114"/>
-      <c r="E11" s="114"/>
+      <c r="B11" s="126"/>
+      <c r="C11" s="126"/>
+      <c r="D11" s="126"/>
+      <c r="E11" s="126"/>
       <c r="F11" s="10"/>
       <c r="H11" s="1" t="s">
         <v>47</v>
@@ -3337,21 +3335,21 @@
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
-      <c r="J12" s="84">
+      <c r="J12" s="81">
         <f>J10*L11</f>
         <v>0</v>
       </c>
-      <c r="K12" s="84"/>
-      <c r="L12" s="84"/>
+      <c r="K12" s="81"/>
+      <c r="L12" s="81"/>
       <c r="M12" s="10"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="121" t="s">
+      <c r="A13" s="132" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="121"/>
-      <c r="C13" s="121"/>
-      <c r="D13" s="121"/>
+      <c r="B13" s="132"/>
+      <c r="C13" s="132"/>
+      <c r="D13" s="132"/>
       <c r="F13" s="12"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
@@ -3361,33 +3359,33 @@
       <c r="L13" s="19"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="121"/>
-      <c r="B14" s="121"/>
-      <c r="C14" s="121"/>
-      <c r="D14" s="121"/>
+      <c r="A14" s="132"/>
+      <c r="B14" s="132"/>
+      <c r="C14" s="132"/>
+      <c r="D14" s="132"/>
       <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="121"/>
-      <c r="B15" s="121"/>
-      <c r="C15" s="121"/>
-      <c r="D15" s="121"/>
+      <c r="A15" s="132"/>
+      <c r="B15" s="132"/>
+      <c r="C15" s="132"/>
+      <c r="D15" s="132"/>
       <c r="E15" s="8"/>
-      <c r="F15" s="126" t="s">
+      <c r="F15" s="123" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="127"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="127"/>
-      <c r="J15" s="127"/>
-      <c r="K15" s="127"/>
-      <c r="L15" s="127"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="124"/>
+      <c r="I15" s="124"/>
+      <c r="J15" s="124"/>
+      <c r="K15" s="124"/>
+      <c r="L15" s="124"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="121"/>
-      <c r="B16" s="121"/>
-      <c r="C16" s="121"/>
-      <c r="D16" s="121"/>
+      <c r="A16" s="132"/>
+      <c r="B16" s="132"/>
+      <c r="C16" s="132"/>
+      <c r="D16" s="132"/>
       <c r="F16" s="15"/>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
@@ -3397,30 +3395,30 @@
       <c r="L16" s="16"/>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="122" t="s">
+      <c r="A17" s="133" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="122"/>
-      <c r="C17" s="122"/>
-      <c r="D17" s="122"/>
+      <c r="B17" s="133"/>
+      <c r="C17" s="133"/>
+      <c r="D17" s="133"/>
       <c r="F17" s="10" t="s">
         <v>48</v>
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
-      <c r="J17" s="84">
+      <c r="J17" s="81">
         <f>J12</f>
         <v>0</v>
       </c>
-      <c r="K17" s="84"/>
-      <c r="L17" s="84"/>
+      <c r="K17" s="81"/>
+      <c r="L17" s="81"/>
     </row>
     <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="122"/>
-      <c r="B18" s="122"/>
-      <c r="C18" s="122"/>
-      <c r="D18" s="122"/>
+      <c r="A18" s="133"/>
+      <c r="B18" s="133"/>
+      <c r="C18" s="133"/>
+      <c r="D18" s="133"/>
       <c r="F18" s="10"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
@@ -3430,40 +3428,40 @@
       <c r="L18" s="11"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="122"/>
-      <c r="B19" s="122"/>
-      <c r="C19" s="122"/>
-      <c r="D19" s="122"/>
-      <c r="F19" s="123" t="s">
+      <c r="A19" s="133"/>
+      <c r="B19" s="133"/>
+      <c r="C19" s="133"/>
+      <c r="D19" s="133"/>
+      <c r="F19" s="120" t="s">
         <v>106</v>
       </c>
-      <c r="G19" s="124"/>
-      <c r="H19" s="124"/>
-      <c r="I19" s="124"/>
+      <c r="G19" s="121"/>
+      <c r="H19" s="121"/>
+      <c r="I19" s="121"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="11"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="122"/>
-      <c r="B20" s="122"/>
-      <c r="C20" s="122"/>
-      <c r="D20" s="122"/>
-      <c r="F20" s="123"/>
-      <c r="G20" s="124"/>
-      <c r="H20" s="124"/>
-      <c r="I20" s="124"/>
-      <c r="J20" s="84">
+      <c r="A20" s="133"/>
+      <c r="B20" s="133"/>
+      <c r="C20" s="133"/>
+      <c r="D20" s="133"/>
+      <c r="F20" s="120"/>
+      <c r="G20" s="121"/>
+      <c r="H20" s="121"/>
+      <c r="I20" s="121"/>
+      <c r="J20" s="81">
         <v>50000</v>
       </c>
-      <c r="K20" s="84"/>
-      <c r="L20" s="84"/>
+      <c r="K20" s="81"/>
+      <c r="L20" s="81"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="122"/>
-      <c r="B21" s="122"/>
-      <c r="C21" s="122"/>
-      <c r="D21" s="122"/>
+      <c r="A21" s="133"/>
+      <c r="B21" s="133"/>
+      <c r="C21" s="133"/>
+      <c r="D21" s="133"/>
       <c r="F21" s="17"/>
       <c r="G21" s="18"/>
       <c r="H21" s="18"/>
@@ -3473,41 +3471,41 @@
       <c r="L21" s="11"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="122"/>
-      <c r="B22" s="122"/>
-      <c r="C22" s="122"/>
-      <c r="D22" s="122"/>
-      <c r="F22" s="115" t="s">
+      <c r="A22" s="133"/>
+      <c r="B22" s="133"/>
+      <c r="C22" s="133"/>
+      <c r="D22" s="133"/>
+      <c r="F22" s="127" t="s">
         <v>52</v>
       </c>
-      <c r="G22" s="116"/>
-      <c r="H22" s="116"/>
-      <c r="I22" s="116"/>
+      <c r="G22" s="128"/>
+      <c r="H22" s="128"/>
+      <c r="I22" s="128"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="11"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="122"/>
-      <c r="B23" s="122"/>
-      <c r="C23" s="122"/>
-      <c r="D23" s="122"/>
-      <c r="F23" s="115"/>
-      <c r="G23" s="116"/>
-      <c r="H23" s="116"/>
-      <c r="I23" s="116"/>
-      <c r="J23" s="84">
+      <c r="A23" s="133"/>
+      <c r="B23" s="133"/>
+      <c r="C23" s="133"/>
+      <c r="D23" s="133"/>
+      <c r="F23" s="127"/>
+      <c r="G23" s="128"/>
+      <c r="H23" s="128"/>
+      <c r="I23" s="128"/>
+      <c r="J23" s="81">
         <f>J17+J20</f>
         <v>50000</v>
       </c>
-      <c r="K23" s="84"/>
-      <c r="L23" s="84"/>
+      <c r="K23" s="81"/>
+      <c r="L23" s="81"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="122"/>
-      <c r="B24" s="122"/>
-      <c r="C24" s="122"/>
-      <c r="D24" s="122"/>
+      <c r="A24" s="133"/>
+      <c r="B24" s="133"/>
+      <c r="C24" s="133"/>
+      <c r="D24" s="133"/>
       <c r="F24" s="12"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
@@ -3517,29 +3515,29 @@
       <c r="L24" s="19"/>
     </row>
     <row r="27" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="130" t="s">
+      <c r="A27" s="117" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="131"/>
-      <c r="C27" s="131"/>
-      <c r="D27" s="131"/>
-      <c r="E27" s="131"/>
-      <c r="F27" s="131"/>
-      <c r="G27" s="131"/>
-      <c r="H27" s="131"/>
-      <c r="I27" s="131"/>
-      <c r="J27" s="131"/>
-      <c r="K27" s="131"/>
-      <c r="L27" s="132"/>
+      <c r="B27" s="118"/>
+      <c r="C27" s="118"/>
+      <c r="D27" s="118"/>
+      <c r="E27" s="118"/>
+      <c r="F27" s="118"/>
+      <c r="G27" s="118"/>
+      <c r="H27" s="118"/>
+      <c r="I27" s="118"/>
+      <c r="J27" s="118"/>
+      <c r="K27" s="118"/>
+      <c r="L27" s="119"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="123" t="s">
+      <c r="A28" s="120" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="124"/>
-      <c r="C28" s="124"/>
-      <c r="D28" s="124"/>
-      <c r="E28" s="124"/>
+      <c r="B28" s="121"/>
+      <c r="C28" s="121"/>
+      <c r="D28" s="121"/>
+      <c r="E28" s="121"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
@@ -3549,30 +3547,30 @@
       <c r="L28" s="11"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="123"/>
-      <c r="B29" s="124"/>
-      <c r="C29" s="124"/>
-      <c r="D29" s="124"/>
-      <c r="E29" s="124"/>
-      <c r="F29" s="125" t="s">
+      <c r="A29" s="120"/>
+      <c r="B29" s="121"/>
+      <c r="C29" s="121"/>
+      <c r="D29" s="121"/>
+      <c r="E29" s="121"/>
+      <c r="F29" s="122" t="s">
         <v>104</v>
       </c>
-      <c r="G29" s="125"/>
-      <c r="H29" s="125"/>
-      <c r="I29" s="125"/>
-      <c r="J29" s="84">
-        <f>SUM(J33:L54)</f>
-        <v>0</v>
-      </c>
-      <c r="K29" s="84"/>
-      <c r="L29" s="108"/>
+      <c r="G29" s="122"/>
+      <c r="H29" s="122"/>
+      <c r="I29" s="122"/>
+      <c r="J29" s="81">
+        <f>SUM(J33:L54)+J17</f>
+        <v>0</v>
+      </c>
+      <c r="K29" s="81"/>
+      <c r="L29" s="104"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="123"/>
-      <c r="B30" s="124"/>
-      <c r="C30" s="124"/>
-      <c r="D30" s="124"/>
-      <c r="E30" s="124"/>
+      <c r="A30" s="120"/>
+      <c r="B30" s="121"/>
+      <c r="C30" s="121"/>
+      <c r="D30" s="121"/>
+      <c r="E30" s="121"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
@@ -3596,423 +3594,474 @@
       <c r="L31" s="11"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="128" t="s">
+      <c r="A32" s="114" t="s">
         <v>55</v>
       </c>
-      <c r="B32" s="117"/>
-      <c r="C32" s="117"/>
-      <c r="D32" s="117"/>
-      <c r="E32" s="117"/>
+      <c r="B32" s="115"/>
+      <c r="C32" s="115"/>
+      <c r="D32" s="115"/>
+      <c r="E32" s="115"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
-      <c r="J32" s="117" t="s">
+      <c r="J32" s="115" t="s">
         <v>56</v>
       </c>
-      <c r="K32" s="117"/>
-      <c r="L32" s="129"/>
+      <c r="K32" s="115"/>
+      <c r="L32" s="116"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="78" t="s">
-        <v>108</v>
-      </c>
-      <c r="B33" s="79"/>
-      <c r="C33" s="79"/>
-      <c r="D33" s="79"/>
+      <c r="A33" s="90" t="s">
+        <v>108</v>
+      </c>
+      <c r="B33" s="91"/>
+      <c r="C33" s="91"/>
+      <c r="D33" s="91"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
-      <c r="J33" s="107" t="s">
-        <v>108</v>
-      </c>
-      <c r="K33" s="107"/>
-      <c r="L33" s="133"/>
+      <c r="J33" s="89"/>
+      <c r="K33" s="89"/>
+      <c r="L33" s="113"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="78" t="s">
-        <v>108</v>
-      </c>
-      <c r="B34" s="79"/>
-      <c r="C34" s="79"/>
-      <c r="D34" s="79"/>
+      <c r="A34" s="90" t="s">
+        <v>108</v>
+      </c>
+      <c r="B34" s="91"/>
+      <c r="C34" s="91"/>
+      <c r="D34" s="91"/>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
-      <c r="J34" s="107" t="s">
-        <v>108</v>
-      </c>
-      <c r="K34" s="107"/>
-      <c r="L34" s="133"/>
+      <c r="J34" s="89" t="s">
+        <v>108</v>
+      </c>
+      <c r="K34" s="89"/>
+      <c r="L34" s="113"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="78" t="s">
-        <v>108</v>
-      </c>
-      <c r="B35" s="79"/>
-      <c r="C35" s="79"/>
-      <c r="D35" s="79"/>
+      <c r="A35" s="90" t="s">
+        <v>108</v>
+      </c>
+      <c r="B35" s="91"/>
+      <c r="C35" s="91"/>
+      <c r="D35" s="91"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
-      <c r="J35" s="107" t="s">
-        <v>108</v>
-      </c>
-      <c r="K35" s="107"/>
-      <c r="L35" s="133"/>
+      <c r="J35" s="89" t="s">
+        <v>108</v>
+      </c>
+      <c r="K35" s="89"/>
+      <c r="L35" s="113"/>
       <c r="O35" s="75"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="78" t="s">
-        <v>108</v>
-      </c>
-      <c r="B36" s="79"/>
-      <c r="C36" s="79"/>
-      <c r="D36" s="79"/>
+      <c r="A36" s="90" t="s">
+        <v>108</v>
+      </c>
+      <c r="B36" s="91"/>
+      <c r="C36" s="91"/>
+      <c r="D36" s="91"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
-      <c r="J36" s="107" t="s">
-        <v>108</v>
-      </c>
-      <c r="K36" s="107"/>
-      <c r="L36" s="133"/>
+      <c r="J36" s="89" t="s">
+        <v>108</v>
+      </c>
+      <c r="K36" s="89"/>
+      <c r="L36" s="113"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="78" t="s">
-        <v>108</v>
-      </c>
-      <c r="B37" s="79"/>
-      <c r="C37" s="79"/>
-      <c r="D37" s="79"/>
+      <c r="A37" s="90" t="s">
+        <v>108</v>
+      </c>
+      <c r="B37" s="91"/>
+      <c r="C37" s="91"/>
+      <c r="D37" s="91"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
-      <c r="J37" s="107" t="s">
-        <v>108</v>
-      </c>
-      <c r="K37" s="107"/>
-      <c r="L37" s="133"/>
+      <c r="J37" s="89" t="s">
+        <v>108</v>
+      </c>
+      <c r="K37" s="89"/>
+      <c r="L37" s="113"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="78" t="s">
-        <v>108</v>
-      </c>
-      <c r="B38" s="79"/>
-      <c r="C38" s="79"/>
-      <c r="D38" s="79"/>
+      <c r="A38" s="90" t="s">
+        <v>108</v>
+      </c>
+      <c r="B38" s="91"/>
+      <c r="C38" s="91"/>
+      <c r="D38" s="91"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
-      <c r="J38" s="107" t="s">
-        <v>108</v>
-      </c>
-      <c r="K38" s="107"/>
-      <c r="L38" s="133"/>
+      <c r="J38" s="89" t="s">
+        <v>108</v>
+      </c>
+      <c r="K38" s="89"/>
+      <c r="L38" s="113"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="78" t="s">
-        <v>108</v>
-      </c>
-      <c r="B39" s="79"/>
-      <c r="C39" s="79"/>
-      <c r="D39" s="79"/>
+      <c r="A39" s="90" t="s">
+        <v>108</v>
+      </c>
+      <c r="B39" s="91"/>
+      <c r="C39" s="91"/>
+      <c r="D39" s="91"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
-      <c r="J39" s="107" t="s">
-        <v>108</v>
-      </c>
-      <c r="K39" s="107"/>
-      <c r="L39" s="133"/>
+      <c r="J39" s="89" t="s">
+        <v>108</v>
+      </c>
+      <c r="K39" s="89"/>
+      <c r="L39" s="113"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="78" t="s">
-        <v>108</v>
-      </c>
-      <c r="B40" s="79"/>
-      <c r="C40" s="79"/>
-      <c r="D40" s="79"/>
+      <c r="A40" s="90" t="s">
+        <v>108</v>
+      </c>
+      <c r="B40" s="91"/>
+      <c r="C40" s="91"/>
+      <c r="D40" s="91"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
-      <c r="J40" s="107" t="s">
-        <v>108</v>
-      </c>
-      <c r="K40" s="107"/>
-      <c r="L40" s="133"/>
+      <c r="J40" s="89" t="s">
+        <v>108</v>
+      </c>
+      <c r="K40" s="89"/>
+      <c r="L40" s="113"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="78" t="s">
-        <v>108</v>
-      </c>
-      <c r="B41" s="79"/>
-      <c r="C41" s="79"/>
-      <c r="D41" s="79"/>
+      <c r="A41" s="90" t="s">
+        <v>108</v>
+      </c>
+      <c r="B41" s="91"/>
+      <c r="C41" s="91"/>
+      <c r="D41" s="91"/>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
-      <c r="J41" s="107" t="s">
-        <v>108</v>
-      </c>
-      <c r="K41" s="107"/>
-      <c r="L41" s="133"/>
+      <c r="J41" s="89" t="s">
+        <v>108</v>
+      </c>
+      <c r="K41" s="89"/>
+      <c r="L41" s="113"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="78" t="s">
-        <v>108</v>
-      </c>
-      <c r="B42" s="79"/>
-      <c r="C42" s="79"/>
-      <c r="D42" s="79"/>
+      <c r="A42" s="90" t="s">
+        <v>108</v>
+      </c>
+      <c r="B42" s="91"/>
+      <c r="C42" s="91"/>
+      <c r="D42" s="91"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
-      <c r="J42" s="107" t="s">
-        <v>108</v>
-      </c>
-      <c r="K42" s="107"/>
-      <c r="L42" s="133"/>
+      <c r="J42" s="89" t="s">
+        <v>108</v>
+      </c>
+      <c r="K42" s="89"/>
+      <c r="L42" s="113"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="78" t="s">
-        <v>108</v>
-      </c>
-      <c r="B43" s="79"/>
-      <c r="C43" s="79"/>
-      <c r="D43" s="79"/>
+      <c r="A43" s="90" t="s">
+        <v>108</v>
+      </c>
+      <c r="B43" s="91"/>
+      <c r="C43" s="91"/>
+      <c r="D43" s="91"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
-      <c r="J43" s="107" t="s">
-        <v>108</v>
-      </c>
-      <c r="K43" s="107"/>
-      <c r="L43" s="133"/>
+      <c r="J43" s="89" t="s">
+        <v>108</v>
+      </c>
+      <c r="K43" s="89"/>
+      <c r="L43" s="113"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="78" t="s">
-        <v>108</v>
-      </c>
-      <c r="B44" s="79"/>
-      <c r="C44" s="79"/>
-      <c r="D44" s="79"/>
+      <c r="A44" s="90" t="s">
+        <v>108</v>
+      </c>
+      <c r="B44" s="91"/>
+      <c r="C44" s="91"/>
+      <c r="D44" s="91"/>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
-      <c r="J44" s="107" t="s">
-        <v>108</v>
-      </c>
-      <c r="K44" s="107"/>
-      <c r="L44" s="133"/>
+      <c r="J44" s="89" t="s">
+        <v>108</v>
+      </c>
+      <c r="K44" s="89"/>
+      <c r="L44" s="113"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="78" t="s">
-        <v>108</v>
-      </c>
-      <c r="B45" s="79"/>
-      <c r="C45" s="79"/>
-      <c r="D45" s="79"/>
+      <c r="A45" s="90" t="s">
+        <v>108</v>
+      </c>
+      <c r="B45" s="91"/>
+      <c r="C45" s="91"/>
+      <c r="D45" s="91"/>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
-      <c r="J45" s="107" t="s">
-        <v>108</v>
-      </c>
-      <c r="K45" s="107"/>
-      <c r="L45" s="133"/>
+      <c r="J45" s="89" t="s">
+        <v>108</v>
+      </c>
+      <c r="K45" s="89"/>
+      <c r="L45" s="113"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" s="78" t="s">
-        <v>108</v>
-      </c>
-      <c r="B46" s="79"/>
-      <c r="C46" s="79"/>
-      <c r="D46" s="79"/>
+      <c r="A46" s="90" t="s">
+        <v>108</v>
+      </c>
+      <c r="B46" s="91"/>
+      <c r="C46" s="91"/>
+      <c r="D46" s="91"/>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
-      <c r="J46" s="107" t="s">
-        <v>108</v>
-      </c>
-      <c r="K46" s="107"/>
-      <c r="L46" s="133"/>
+      <c r="J46" s="89" t="s">
+        <v>108</v>
+      </c>
+      <c r="K46" s="89"/>
+      <c r="L46" s="113"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" s="78" t="s">
-        <v>108</v>
-      </c>
-      <c r="B47" s="79"/>
-      <c r="C47" s="79"/>
-      <c r="D47" s="79"/>
+      <c r="A47" s="90" t="s">
+        <v>108</v>
+      </c>
+      <c r="B47" s="91"/>
+      <c r="C47" s="91"/>
+      <c r="D47" s="91"/>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
-      <c r="J47" s="107" t="s">
-        <v>108</v>
-      </c>
-      <c r="K47" s="107"/>
-      <c r="L47" s="133"/>
+      <c r="J47" s="89" t="s">
+        <v>108</v>
+      </c>
+      <c r="K47" s="89"/>
+      <c r="L47" s="113"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="78" t="s">
-        <v>108</v>
-      </c>
-      <c r="B48" s="79"/>
-      <c r="C48" s="79"/>
-      <c r="D48" s="79"/>
+      <c r="A48" s="90" t="s">
+        <v>108</v>
+      </c>
+      <c r="B48" s="91"/>
+      <c r="C48" s="91"/>
+      <c r="D48" s="91"/>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
-      <c r="J48" s="107" t="s">
-        <v>108</v>
-      </c>
-      <c r="K48" s="107"/>
-      <c r="L48" s="133"/>
+      <c r="J48" s="89" t="s">
+        <v>108</v>
+      </c>
+      <c r="K48" s="89"/>
+      <c r="L48" s="113"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="78" t="s">
-        <v>108</v>
-      </c>
-      <c r="B49" s="79"/>
-      <c r="C49" s="79"/>
-      <c r="D49" s="79"/>
+      <c r="A49" s="90" t="s">
+        <v>108</v>
+      </c>
+      <c r="B49" s="91"/>
+      <c r="C49" s="91"/>
+      <c r="D49" s="91"/>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
-      <c r="J49" s="107" t="s">
-        <v>108</v>
-      </c>
-      <c r="K49" s="107"/>
-      <c r="L49" s="133"/>
+      <c r="J49" s="89" t="s">
+        <v>108</v>
+      </c>
+      <c r="K49" s="89"/>
+      <c r="L49" s="113"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="78" t="s">
-        <v>108</v>
-      </c>
-      <c r="B50" s="79"/>
-      <c r="C50" s="79"/>
-      <c r="D50" s="79"/>
+      <c r="A50" s="90" t="s">
+        <v>108</v>
+      </c>
+      <c r="B50" s="91"/>
+      <c r="C50" s="91"/>
+      <c r="D50" s="91"/>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
-      <c r="J50" s="107" t="s">
-        <v>108</v>
-      </c>
-      <c r="K50" s="107"/>
-      <c r="L50" s="133"/>
+      <c r="J50" s="89" t="s">
+        <v>108</v>
+      </c>
+      <c r="K50" s="89"/>
+      <c r="L50" s="113"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="78" t="s">
-        <v>108</v>
-      </c>
-      <c r="B51" s="79"/>
-      <c r="C51" s="79"/>
-      <c r="D51" s="79"/>
+      <c r="A51" s="90" t="s">
+        <v>108</v>
+      </c>
+      <c r="B51" s="91"/>
+      <c r="C51" s="91"/>
+      <c r="D51" s="91"/>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
       <c r="I51" s="7"/>
-      <c r="J51" s="107" t="s">
-        <v>108</v>
-      </c>
-      <c r="K51" s="107"/>
-      <c r="L51" s="133"/>
+      <c r="J51" s="89" t="s">
+        <v>108</v>
+      </c>
+      <c r="K51" s="89"/>
+      <c r="L51" s="113"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="78" t="s">
-        <v>108</v>
-      </c>
-      <c r="B52" s="79"/>
-      <c r="C52" s="79"/>
-      <c r="D52" s="79"/>
+      <c r="A52" s="90" t="s">
+        <v>108</v>
+      </c>
+      <c r="B52" s="91"/>
+      <c r="C52" s="91"/>
+      <c r="D52" s="91"/>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
-      <c r="J52" s="107" t="s">
-        <v>108</v>
-      </c>
-      <c r="K52" s="107"/>
-      <c r="L52" s="133"/>
+      <c r="J52" s="89" t="s">
+        <v>108</v>
+      </c>
+      <c r="K52" s="89"/>
+      <c r="L52" s="113"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="78" t="s">
-        <v>108</v>
-      </c>
-      <c r="B53" s="79"/>
-      <c r="C53" s="79"/>
-      <c r="D53" s="79"/>
+      <c r="A53" s="90" t="s">
+        <v>108</v>
+      </c>
+      <c r="B53" s="91"/>
+      <c r="C53" s="91"/>
+      <c r="D53" s="91"/>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
       <c r="I53" s="7"/>
-      <c r="J53" s="107" t="s">
-        <v>108</v>
-      </c>
-      <c r="K53" s="107"/>
-      <c r="L53" s="133"/>
+      <c r="J53" s="89" t="s">
+        <v>108</v>
+      </c>
+      <c r="K53" s="89"/>
+      <c r="L53" s="113"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="78" t="s">
-        <v>108</v>
-      </c>
-      <c r="B54" s="79"/>
-      <c r="C54" s="79"/>
-      <c r="D54" s="79"/>
+      <c r="A54" s="90" t="s">
+        <v>108</v>
+      </c>
+      <c r="B54" s="91"/>
+      <c r="C54" s="91"/>
+      <c r="D54" s="91"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
-      <c r="J54" s="107" t="s">
-        <v>108</v>
-      </c>
-      <c r="K54" s="107"/>
-      <c r="L54" s="133"/>
+      <c r="J54" s="89" t="s">
+        <v>108</v>
+      </c>
+      <c r="K54" s="89"/>
+      <c r="L54" s="113"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="69">
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="F22:I23"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="A4:D6"/>
+    <mergeCell ref="A7:D9"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="A13:D16"/>
+    <mergeCell ref="A17:D24"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="A28:E30"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="F19:I20"/>
+    <mergeCell ref="F15:L15"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="A27:L27"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="J43:L43"/>
+    <mergeCell ref="J44:L44"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A45:D45"/>
     <mergeCell ref="A54:D54"/>
     <mergeCell ref="J54:L54"/>
     <mergeCell ref="A52:D52"/>
@@ -4029,59 +4078,6 @@
     <mergeCell ref="J49:L49"/>
     <mergeCell ref="J50:L50"/>
     <mergeCell ref="J45:L45"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="J46:L46"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="J42:L42"/>
-    <mergeCell ref="J43:L43"/>
-    <mergeCell ref="J44:L44"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="A27:L27"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="A28:E30"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="F19:I20"/>
-    <mergeCell ref="F15:L15"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="F22:I23"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="A4:D6"/>
-    <mergeCell ref="A7:D9"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="A13:D16"/>
-    <mergeCell ref="A17:D24"/>
-    <mergeCell ref="J17:L17"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:K1">
     <cfRule type="expression" dxfId="7" priority="10">

--- a/Cashflow-101_HU.xlsx
+++ b/Cashflow-101_HU.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MY PC\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MY PC\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0BC1306-B8EA-4B8D-9369-8495782F7D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF53A89-8ECB-4BE9-BC4A-E4568CDE4AC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -376,9 +376,6 @@
     <t>3.</t>
   </si>
   <si>
-    <t>Repülő pilóta</t>
-  </si>
-  <si>
     <t>Adók</t>
   </si>
   <si>
@@ -439,15 +436,9 @@
     <t>Üzleti menedzser</t>
   </si>
   <si>
-    <t>Doktor</t>
-  </si>
-  <si>
     <t>Mérnök</t>
   </si>
   <si>
-    <t>Gondnok</t>
-  </si>
-  <si>
     <t>Ügyvéd</t>
   </si>
   <si>
@@ -466,9 +457,6 @@
     <t>Tanár</t>
   </si>
   <si>
-    <t>Kamionsofőr</t>
-  </si>
-  <si>
     <t>Részvények</t>
   </si>
   <si>
@@ -599,6 +587,18 @@
   </si>
   <si>
     <t xml:space="preserve">Duplex </t>
+  </si>
+  <si>
+    <t>Portás</t>
+  </si>
+  <si>
+    <t>Orvos</t>
+  </si>
+  <si>
+    <t>Teherautó sofőr</t>
+  </si>
+  <si>
+    <t>Pilóta</t>
   </si>
 </sst>
 </file>
@@ -1044,37 +1044,100 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1087,144 +1150,81 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1797,37 +1797,37 @@
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="109" t="s">
-        <v>108</v>
-      </c>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
+      <c r="B1" s="82" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
-      <c r="G1" s="107" t="s">
+      <c r="G1" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="107"/>
-      <c r="I1" s="109" t="s">
-        <v>108</v>
-      </c>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="82" t="s">
+        <v>104</v>
+      </c>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
     </row>
     <row r="3" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
@@ -1836,22 +1836,22 @@
       <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="101" t="s">
+      <c r="A4" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="102"/>
-      <c r="C4" s="102"/>
-      <c r="D4" s="102"/>
-      <c r="E4" s="103"/>
-      <c r="G4" s="107" t="s">
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="89"/>
+      <c r="G4" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="107"/>
-      <c r="I4" s="109" t="s">
-        <v>108</v>
-      </c>
-      <c r="J4" s="109"/>
-      <c r="K4" s="109"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="82" t="s">
+        <v>104</v>
+      </c>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
@@ -1873,68 +1873,68 @@
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="84">
+      <c r="D6" s="90">
         <f>IFERROR(VLOOKUP(B1,Adatok!B1:C13,2,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E6" s="85"/>
+      <c r="E6" s="91"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C7" s="7"/>
-      <c r="D7" s="92" t="s">
-        <v>108</v>
-      </c>
-      <c r="E7" s="93"/>
+      <c r="D7" s="76" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" s="77"/>
     </row>
     <row r="8" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="20"/>
       <c r="B8" s="34" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C8" s="7"/>
-      <c r="D8" s="92" t="s">
-        <v>108</v>
-      </c>
-      <c r="E8" s="93"/>
-      <c r="G8" s="111" t="s">
+      <c r="D8" s="76" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="77"/>
+      <c r="G8" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="111"/>
-      <c r="I8" s="111"/>
-      <c r="J8" s="111"/>
-      <c r="K8" s="81">
+      <c r="H8" s="85"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="84">
         <f>SUM(D7:E20)</f>
         <v>0</v>
       </c>
-      <c r="L8" s="81"/>
-      <c r="M8" s="81"/>
+      <c r="L8" s="84"/>
+      <c r="M8" s="84"/>
       <c r="Q8" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="R8" s="47"/>
     </row>
     <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
       <c r="B9" s="34" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C9" s="7"/>
-      <c r="D9" s="92" t="s">
-        <v>108</v>
-      </c>
-      <c r="E9" s="93"/>
-      <c r="G9" s="110" t="s">
+      <c r="D9" s="76" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" s="77"/>
+      <c r="G9" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="110"/>
-      <c r="I9" s="110"/>
-      <c r="J9" s="110"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="83"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
@@ -1942,43 +1942,43 @@
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="106"/>
-      <c r="G10" s="110"/>
-      <c r="H10" s="110"/>
-      <c r="I10" s="110"/>
-      <c r="J10" s="110"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="93"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="83"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="90" t="s">
-        <v>108</v>
-      </c>
-      <c r="B11" s="91"/>
+      <c r="A11" s="78" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" s="79"/>
       <c r="C11" s="7"/>
-      <c r="D11" s="92" t="s">
-        <v>108</v>
-      </c>
-      <c r="E11" s="93"/>
+      <c r="D11" s="76" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" s="77"/>
       <c r="Q11" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="R11" s="43" t="s">
         <v>111</v>
-      </c>
-      <c r="R11" s="43" t="s">
-        <v>115</v>
       </c>
       <c r="S11" s="43" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="90" t="s">
-        <v>108</v>
-      </c>
-      <c r="B12" s="91"/>
+      <c r="A12" s="78" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" s="79"/>
       <c r="C12" s="7"/>
-      <c r="D12" s="92"/>
-      <c r="E12" s="93"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="77"/>
       <c r="Q12" s="46" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="R12" s="44">
         <f>_xlfn.IFNA(VLOOKUP(Q12,Adatok!G18:I20,2,FALSE),0)</f>
@@ -1990,17 +1990,17 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="90" t="s">
-        <v>108</v>
-      </c>
-      <c r="B13" s="91"/>
+      <c r="A13" s="78" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="79"/>
       <c r="C13" s="7"/>
-      <c r="D13" s="92" t="s">
-        <v>108</v>
-      </c>
-      <c r="E13" s="93"/>
+      <c r="D13" s="76" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" s="77"/>
       <c r="Q13" s="46" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="R13" s="44">
         <f>_xlfn.IFNA(VLOOKUP(Q13,Adatok!G19:I21,2,FALSE),0)</f>
@@ -2012,47 +2012,47 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="90" t="s">
-        <v>108</v>
-      </c>
-      <c r="B14" s="91"/>
+      <c r="A14" s="78" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" s="79"/>
       <c r="C14" s="7"/>
-      <c r="D14" s="92" t="s">
-        <v>108</v>
-      </c>
-      <c r="E14" s="93"/>
-      <c r="G14" s="108" t="s">
+      <c r="D14" s="76" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" s="77"/>
+      <c r="G14" s="81" t="s">
         <v>61</v>
       </c>
-      <c r="H14" s="108"/>
-      <c r="I14" s="108"/>
-      <c r="J14" s="108"/>
-      <c r="K14" s="81">
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="81"/>
+      <c r="K14" s="84">
         <f>SUM(D6:E20)</f>
         <v>0</v>
       </c>
-      <c r="L14" s="81"/>
-      <c r="M14" s="81"/>
+      <c r="L14" s="84"/>
+      <c r="M14" s="84"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="90" t="s">
-        <v>108</v>
-      </c>
-      <c r="B15" s="91"/>
+      <c r="A15" s="78" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" s="79"/>
       <c r="C15" s="7"/>
-      <c r="D15" s="92" t="s">
-        <v>108</v>
-      </c>
-      <c r="E15" s="93"/>
+      <c r="D15" s="76" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" s="77"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="90" t="s">
-        <v>108</v>
-      </c>
-      <c r="B16" s="91"/>
+      <c r="A16" s="78" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" s="79"/>
       <c r="C16" s="7"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="93"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="77"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
@@ -2062,49 +2062,49 @@
       <c r="M16" s="6"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="90" t="s">
-        <v>108</v>
-      </c>
-      <c r="B17" s="91"/>
+      <c r="A17" s="78" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" s="79"/>
       <c r="C17" s="7"/>
-      <c r="D17" s="92" t="s">
-        <v>108</v>
-      </c>
-      <c r="E17" s="93"/>
+      <c r="D17" s="76" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17" s="77"/>
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="90" t="s">
-        <v>108</v>
-      </c>
-      <c r="B18" s="91"/>
+      <c r="A18" s="78" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" s="79"/>
       <c r="C18" s="7"/>
-      <c r="D18" s="92" t="s">
-        <v>108</v>
-      </c>
-      <c r="E18" s="93"/>
-      <c r="G18" s="96" t="s">
+      <c r="D18" s="76" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" s="77"/>
+      <c r="G18" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="97"/>
-      <c r="I18" s="97"/>
-      <c r="J18" s="100" t="s">
-        <v>108</v>
-      </c>
-      <c r="K18" s="100"/>
+      <c r="H18" s="99"/>
+      <c r="I18" s="99"/>
+      <c r="J18" s="102" t="s">
+        <v>104</v>
+      </c>
+      <c r="K18" s="102"/>
       <c r="L18" s="16"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="90" t="s">
-        <v>108</v>
-      </c>
-      <c r="B19" s="91"/>
+      <c r="A19" s="78" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" s="79"/>
       <c r="C19" s="7"/>
-      <c r="D19" s="92" t="s">
-        <v>108</v>
-      </c>
-      <c r="E19" s="93"/>
+      <c r="D19" s="76" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19" s="77"/>
       <c r="G19" s="10"/>
       <c r="H19" s="23" t="s">
         <v>24</v>
@@ -2115,20 +2115,20 @@
       <c r="L19" s="11"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="90" t="s">
-        <v>108</v>
-      </c>
-      <c r="B20" s="91"/>
+      <c r="A20" s="78" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20" s="79"/>
       <c r="C20" s="7"/>
-      <c r="D20" s="92" t="s">
-        <v>108</v>
-      </c>
-      <c r="E20" s="93"/>
-      <c r="G20" s="98" t="s">
+      <c r="D20" s="76" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" s="77"/>
+      <c r="G20" s="100" t="s">
         <v>25</v>
       </c>
-      <c r="H20" s="99"/>
-      <c r="I20" s="99"/>
+      <c r="H20" s="101"/>
+      <c r="I20" s="101"/>
       <c r="J20" s="38">
         <f>IFERROR(VLOOKUP(B1,Adatok!B1:U13,13,FALSE), 0)</f>
         <v>0</v>
@@ -2139,13 +2139,13 @@
       <c r="L20" s="11"/>
     </row>
     <row r="21" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="101" t="s">
+      <c r="A21" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="102"/>
-      <c r="C21" s="102"/>
-      <c r="D21" s="102"/>
-      <c r="E21" s="103"/>
+      <c r="B21" s="88"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="89"/>
       <c r="G21" s="24"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
@@ -2185,12 +2185,12 @@
       </c>
       <c r="I23" s="60"/>
       <c r="J23" s="60"/>
-      <c r="K23" s="81">
+      <c r="K23" s="84">
         <f>SUM(D22:E31)</f>
         <v>0</v>
       </c>
-      <c r="L23" s="81"/>
-      <c r="M23" s="81"/>
+      <c r="L23" s="84"/>
+      <c r="M23" s="84"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
@@ -2234,17 +2234,17 @@
         <v>0</v>
       </c>
       <c r="E26" s="95"/>
-      <c r="H26" s="78" t="s">
+      <c r="H26" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="I26" s="78"/>
-      <c r="J26" s="78"/>
-      <c r="K26" s="81">
+      <c r="I26" s="109"/>
+      <c r="J26" s="109"/>
+      <c r="K26" s="84">
         <f>K14-K23</f>
         <v>0</v>
       </c>
-      <c r="L26" s="81"/>
-      <c r="M26" s="81"/>
+      <c r="L26" s="84"/>
+      <c r="M26" s="84"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
@@ -2295,35 +2295,35 @@
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
-      <c r="D30" s="81">
+      <c r="D30" s="84">
         <f>IFERROR(I53/10, 0)</f>
         <v>0</v>
       </c>
-      <c r="E30" s="104"/>
+      <c r="E30" s="103"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="51" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B31" s="51"/>
       <c r="C31" s="6"/>
-      <c r="D31" s="81">
+      <c r="D31" s="84">
         <f>IF(Q12="Hajó",S12,0)</f>
         <v>0</v>
       </c>
-      <c r="E31" s="104"/>
+      <c r="E31" s="103"/>
     </row>
     <row r="32" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A32" s="25" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="66" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B33" s="67"/>
       <c r="C33" s="67"/>
@@ -2342,7 +2342,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="63" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B34" s="61"/>
       <c r="C34" s="61"/>
@@ -2358,24 +2358,24 @@
       <c r="H34" s="52"/>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
-      <c r="K34" s="84">
+      <c r="K34" s="90">
         <f>IFERROR(VLOOKUP(B1,Adatok!B1:U13,16,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="L34" s="84"/>
-      <c r="M34" s="85"/>
+      <c r="L34" s="90"/>
+      <c r="M34" s="91"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="65" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B35" s="62"/>
       <c r="C35" s="62" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D35" s="62"/>
       <c r="E35" s="64" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F35" s="11"/>
       <c r="G35" s="7" t="s">
@@ -2384,24 +2384,24 @@
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
-      <c r="K35" s="76">
+      <c r="K35" s="96">
         <f>IFERROR(VLOOKUP(B1,Adatok!B1:U13,17,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="L35" s="76"/>
-      <c r="M35" s="77"/>
+      <c r="L35" s="96"/>
+      <c r="M35" s="97"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="35" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="36" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D36" s="31"/>
       <c r="E36" s="37" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F36" s="11"/>
       <c r="G36" s="7" t="s">
@@ -2410,24 +2410,24 @@
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
-      <c r="K36" s="76">
+      <c r="K36" s="96">
         <f>IFERROR(VLOOKUP(B1,Adatok!B1:U13,18,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="L36" s="76"/>
-      <c r="M36" s="77"/>
+      <c r="L36" s="96"/>
+      <c r="M36" s="97"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="35" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="36" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D37" s="31"/>
       <c r="E37" s="37" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F37" s="11"/>
       <c r="G37" s="52" t="s">
@@ -2436,24 +2436,24 @@
       <c r="H37" s="52"/>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
-      <c r="K37" s="76">
+      <c r="K37" s="96">
         <f>IFERROR(VLOOKUP(B1,Adatok!B1:U13,19,FALSE)+IF(Q13="Nagy TV",R13,0), 0)</f>
         <v>0</v>
       </c>
-      <c r="L37" s="76"/>
-      <c r="M37" s="77"/>
+      <c r="L37" s="96"/>
+      <c r="M37" s="97"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="35" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="36" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D38" s="31"/>
       <c r="E38" s="37" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F38" s="11"/>
       <c r="G38" s="7" t="s">
@@ -2462,62 +2462,62 @@
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
-      <c r="K38" s="76">
+      <c r="K38" s="96">
         <f>IFERROR(VLOOKUP(B1,Adatok!B1:U13,20,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="L38" s="76"/>
-      <c r="M38" s="77"/>
+      <c r="L38" s="96"/>
+      <c r="M38" s="97"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="35" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="36" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D39" s="31"/>
       <c r="E39" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="G39" s="79" t="s">
-        <v>110</v>
-      </c>
-      <c r="H39" s="80"/>
-      <c r="I39" s="80"/>
-      <c r="J39" s="80"/>
-      <c r="K39" s="76">
+        <v>104</v>
+      </c>
+      <c r="G39" s="110" t="s">
+        <v>106</v>
+      </c>
+      <c r="H39" s="111"/>
+      <c r="I39" s="111"/>
+      <c r="J39" s="111"/>
+      <c r="K39" s="96">
         <f>IF(Q12="Hajó",R12,0)</f>
         <v>0</v>
       </c>
-      <c r="L39" s="76"/>
-      <c r="M39" s="77"/>
+      <c r="L39" s="96"/>
+      <c r="M39" s="97"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="35" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="36" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D40" s="31"/>
       <c r="E40" s="37" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="35" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B41" s="6"/>
       <c r="C41" s="36" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D41" s="31"/>
       <c r="E41" s="37" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -2526,11 +2526,11 @@
       </c>
       <c r="B42" s="7"/>
       <c r="C42" s="62" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D42" s="62"/>
       <c r="E42" s="64" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F42" s="11"/>
       <c r="G42" s="51" t="s">
@@ -2539,11 +2539,11 @@
       <c r="H42" s="51"/>
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
-      <c r="K42" s="82" t="s">
+      <c r="K42" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="L42" s="82"/>
-      <c r="M42" s="83"/>
+      <c r="L42" s="105"/>
+      <c r="M42" s="112"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="33" t="str">
@@ -2552,26 +2552,26 @@
       </c>
       <c r="B43" s="31"/>
       <c r="C43" s="49" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="73" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F43" s="8"/>
-      <c r="G43" s="87" t="str">
+      <c r="G43" s="106" t="str">
         <f t="shared" ref="G43:G47" si="1">A43</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H43" s="88"/>
-      <c r="I43" s="88"/>
+      <c r="H43" s="107"/>
+      <c r="I43" s="107"/>
       <c r="J43" s="48"/>
-      <c r="K43" s="76">
+      <c r="K43" s="96">
         <f t="shared" ref="K43:K52" si="2">IFERROR(E43-C43, 0)</f>
         <v>0</v>
       </c>
-      <c r="L43" s="76"/>
-      <c r="M43" s="77"/>
+      <c r="L43" s="96"/>
+      <c r="M43" s="97"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="33" t="str">
@@ -2580,26 +2580,26 @@
       </c>
       <c r="B44" s="31"/>
       <c r="C44" s="49" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="73" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F44" s="8"/>
-      <c r="G44" s="87" t="str">
+      <c r="G44" s="106" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H44" s="88"/>
-      <c r="I44" s="88"/>
+      <c r="H44" s="107"/>
+      <c r="I44" s="107"/>
       <c r="J44" s="48"/>
-      <c r="K44" s="76">
+      <c r="K44" s="96">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L44" s="76"/>
-      <c r="M44" s="77"/>
+      <c r="L44" s="96"/>
+      <c r="M44" s="97"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="33" t="str">
@@ -2608,26 +2608,26 @@
       </c>
       <c r="B45" s="31"/>
       <c r="C45" s="49" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="73" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F45" s="8"/>
-      <c r="G45" s="87" t="str">
+      <c r="G45" s="106" t="str">
         <f t="shared" ref="G45" si="3">A45</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H45" s="88"/>
-      <c r="I45" s="88"/>
+      <c r="H45" s="107"/>
+      <c r="I45" s="107"/>
       <c r="J45" s="48"/>
-      <c r="K45" s="76">
+      <c r="K45" s="96">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L45" s="76"/>
-      <c r="M45" s="77"/>
+      <c r="L45" s="96"/>
+      <c r="M45" s="97"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="33" t="str">
@@ -2636,26 +2636,26 @@
       </c>
       <c r="B46" s="31"/>
       <c r="C46" s="49" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D46" s="6"/>
       <c r="E46" s="73" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F46" s="8"/>
-      <c r="G46" s="87" t="str">
+      <c r="G46" s="106" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H46" s="88"/>
-      <c r="I46" s="88"/>
+      <c r="H46" s="107"/>
+      <c r="I46" s="107"/>
       <c r="J46" s="48"/>
-      <c r="K46" s="76">
+      <c r="K46" s="96">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L46" s="76"/>
-      <c r="M46" s="77"/>
+      <c r="L46" s="96"/>
+      <c r="M46" s="97"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="33" t="str">
@@ -2664,26 +2664,26 @@
       </c>
       <c r="B47" s="31"/>
       <c r="C47" s="49" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D47" s="6"/>
       <c r="E47" s="73" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F47" s="8"/>
-      <c r="G47" s="87" t="str">
+      <c r="G47" s="106" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H47" s="88"/>
-      <c r="I47" s="88"/>
+      <c r="H47" s="107"/>
+      <c r="I47" s="107"/>
       <c r="J47" s="48"/>
-      <c r="K47" s="76">
+      <c r="K47" s="96">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L47" s="76"/>
-      <c r="M47" s="77"/>
+      <c r="L47" s="96"/>
+      <c r="M47" s="97"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="33" t="str">
@@ -2692,26 +2692,26 @@
       </c>
       <c r="B48" s="31"/>
       <c r="C48" s="49" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D48" s="6"/>
       <c r="E48" s="73" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F48" s="8"/>
-      <c r="G48" s="87" t="str">
+      <c r="G48" s="106" t="str">
         <f>A48</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H48" s="88"/>
-      <c r="I48" s="88"/>
+      <c r="H48" s="107"/>
+      <c r="I48" s="107"/>
       <c r="J48" s="48"/>
-      <c r="K48" s="76">
+      <c r="K48" s="96">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L48" s="76"/>
-      <c r="M48" s="77"/>
+      <c r="L48" s="96"/>
+      <c r="M48" s="97"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="33" t="str">
@@ -2720,26 +2720,26 @@
       </c>
       <c r="B49" s="31"/>
       <c r="C49" s="49" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="73" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F49" s="11"/>
-      <c r="G49" s="87" t="str">
+      <c r="G49" s="106" t="str">
         <f t="shared" ref="G49:G51" si="5">A49</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H49" s="88"/>
-      <c r="I49" s="88"/>
+      <c r="H49" s="107"/>
+      <c r="I49" s="107"/>
       <c r="J49" s="48"/>
-      <c r="K49" s="76">
+      <c r="K49" s="96">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L49" s="76"/>
-      <c r="M49" s="77"/>
+      <c r="L49" s="96"/>
+      <c r="M49" s="97"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="33" t="str">
@@ -2748,25 +2748,25 @@
       </c>
       <c r="B50" s="31"/>
       <c r="C50" s="49" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D50" s="6"/>
       <c r="E50" s="73" t="s">
-        <v>108</v>
-      </c>
-      <c r="G50" s="87" t="str">
+        <v>104</v>
+      </c>
+      <c r="G50" s="106" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H50" s="88"/>
-      <c r="I50" s="88"/>
+      <c r="H50" s="107"/>
+      <c r="I50" s="107"/>
       <c r="J50" s="48"/>
-      <c r="K50" s="76">
+      <c r="K50" s="96">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L50" s="76"/>
-      <c r="M50" s="77"/>
+      <c r="L50" s="96"/>
+      <c r="M50" s="97"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="33" t="str">
@@ -2775,25 +2775,25 @@
       </c>
       <c r="B51" s="31"/>
       <c r="C51" s="49" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D51" s="6"/>
       <c r="E51" s="73" t="s">
-        <v>108</v>
-      </c>
-      <c r="G51" s="87" t="str">
+        <v>104</v>
+      </c>
+      <c r="G51" s="106" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H51" s="88"/>
-      <c r="I51" s="88"/>
+      <c r="H51" s="107"/>
+      <c r="I51" s="107"/>
       <c r="J51" s="48"/>
-      <c r="K51" s="76">
+      <c r="K51" s="96">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L51" s="76"/>
-      <c r="M51" s="77"/>
+      <c r="L51" s="96"/>
+      <c r="M51" s="97"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="33" t="str">
@@ -2802,38 +2802,38 @@
       </c>
       <c r="B52" s="31"/>
       <c r="C52" s="49" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D52" s="6"/>
       <c r="E52" s="73" t="s">
-        <v>108</v>
-      </c>
-      <c r="G52" s="87" t="str">
+        <v>104</v>
+      </c>
+      <c r="G52" s="106" t="str">
         <f>A52</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H52" s="88"/>
-      <c r="I52" s="88"/>
+      <c r="H52" s="107"/>
+      <c r="I52" s="107"/>
       <c r="J52" s="48"/>
-      <c r="K52" s="76">
+      <c r="K52" s="96">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L52" s="76"/>
-      <c r="M52" s="77"/>
+      <c r="L52" s="96"/>
+      <c r="M52" s="97"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G53" s="86" t="s">
+      <c r="G53" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="H53" s="82"/>
-      <c r="I53" s="89" t="s">
-        <v>108</v>
-      </c>
-      <c r="J53" s="89"/>
-      <c r="K53" s="89"/>
-      <c r="L53" s="89"/>
-      <c r="M53" s="89"/>
+      <c r="H53" s="105"/>
+      <c r="I53" s="108" t="s">
+        <v>104</v>
+      </c>
+      <c r="J53" s="108"/>
+      <c r="K53" s="108"/>
+      <c r="L53" s="108"/>
+      <c r="M53" s="108"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" selectLockedCells="1"/>
@@ -2841,12 +2841,68 @@
     <protectedRange sqref="B1 I1 I4 B7:B9 D7:E9 D11:E20 R8 Q12:Q13 J18 A36:A41 C36:C41 E36:E41 C43:C52 E43:E52 J53 A11:B20" name="data"/>
   </protectedRanges>
   <mergeCells count="84">
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="K45:M45"/>
+    <mergeCell ref="K46:M46"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="G39:J39"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="K42:M42"/>
+    <mergeCell ref="K38:M38"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="K43:M43"/>
+    <mergeCell ref="K44:M44"/>
+    <mergeCell ref="K48:M48"/>
+    <mergeCell ref="K49:M49"/>
+    <mergeCell ref="K50:M50"/>
+    <mergeCell ref="K51:M51"/>
+    <mergeCell ref="K52:M52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="K37:M37"/>
+    <mergeCell ref="K39:M39"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="I53:M53"/>
+    <mergeCell ref="K47:M47"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="K35:M35"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D14:E14"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="G14:J14"/>
     <mergeCell ref="D20:E20"/>
@@ -2863,68 +2919,12 @@
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="K35:M35"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="K37:M37"/>
-    <mergeCell ref="K39:M39"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="I53:M53"/>
-    <mergeCell ref="K47:M47"/>
-    <mergeCell ref="K48:M48"/>
-    <mergeCell ref="K49:M49"/>
-    <mergeCell ref="K50:M50"/>
-    <mergeCell ref="K51:M51"/>
-    <mergeCell ref="K52:M52"/>
-    <mergeCell ref="K45:M45"/>
-    <mergeCell ref="K46:M46"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="K42:M42"/>
-    <mergeCell ref="K38:M38"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="K43:M43"/>
-    <mergeCell ref="K44:M44"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
   </mergeCells>
   <conditionalFormatting sqref="K8:M8">
     <cfRule type="expression" dxfId="45" priority="36">
@@ -3192,17 +3192,17 @@
       <c r="A1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="129" t="s">
+      <c r="F1" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="129"/>
-      <c r="H1" s="115" t="str">
+      <c r="G1" s="118"/>
+      <c r="H1" s="117" t="str">
         <f>Mókuskerék!I1</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="117"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -3215,110 +3215,110 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="131" t="s">
+      <c r="A4" s="120" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="131"/>
-      <c r="C4" s="131"/>
-      <c r="D4" s="131"/>
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="129" t="s">
+      <c r="F4" s="118" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="129"/>
-      <c r="H4" s="115" t="str">
+      <c r="G4" s="118"/>
+      <c r="H4" s="117" t="str">
         <f>Mókuskerék!I4</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="I4" s="115"/>
-      <c r="J4" s="115"/>
-      <c r="K4" s="115"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="117"/>
+      <c r="K4" s="117"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="131"/>
-      <c r="B5" s="131"/>
-      <c r="C5" s="131"/>
-      <c r="D5" s="131"/>
+      <c r="A5" s="120"/>
+      <c r="B5" s="120"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="120"/>
       <c r="E5" s="3"/>
       <c r="H5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="131"/>
-      <c r="B6" s="131"/>
-      <c r="C6" s="131"/>
-      <c r="D6" s="131"/>
+      <c r="A6" s="120"/>
+      <c r="B6" s="120"/>
+      <c r="C6" s="120"/>
+      <c r="D6" s="120"/>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="131" t="s">
+      <c r="A7" s="120" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="131"/>
-      <c r="C7" s="131"/>
-      <c r="D7" s="131"/>
+      <c r="B7" s="120"/>
+      <c r="C7" s="120"/>
+      <c r="D7" s="120"/>
       <c r="E7" s="3"/>
       <c r="L7" s="6"/>
     </row>
     <row r="8" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="131"/>
-      <c r="B8" s="131"/>
-      <c r="C8" s="131"/>
-      <c r="D8" s="131"/>
-      <c r="F8" s="130" t="s">
+      <c r="A8" s="120"/>
+      <c r="B8" s="120"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="120"/>
+      <c r="F8" s="119" t="s">
         <v>46</v>
       </c>
-      <c r="G8" s="130"/>
-      <c r="H8" s="130"/>
-      <c r="I8" s="130"/>
-      <c r="J8" s="130"/>
+      <c r="G8" s="119"/>
+      <c r="H8" s="119"/>
+      <c r="I8" s="119"/>
+      <c r="J8" s="119"/>
       <c r="K8" s="13"/>
       <c r="M8" s="10"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="131"/>
-      <c r="B9" s="131"/>
-      <c r="C9" s="131"/>
-      <c r="D9" s="131"/>
+      <c r="A9" s="120"/>
+      <c r="B9" s="120"/>
+      <c r="C9" s="120"/>
+      <c r="D9" s="120"/>
       <c r="F9" s="10" t="s">
         <v>51</v>
       </c>
       <c r="M9" s="10"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="125" t="s">
+      <c r="A10" s="113" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="125"/>
-      <c r="C10" s="125"/>
+      <c r="B10" s="113"/>
+      <c r="C10" s="113"/>
       <c r="F10" s="10"/>
       <c r="G10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J10" s="81">
+      <c r="J10" s="84">
         <f>_xlfn.FLOOR.MATH(Mókuskerék!K8,10)</f>
         <v>0</v>
       </c>
-      <c r="K10" s="81"/>
-      <c r="L10" s="81"/>
+      <c r="K10" s="84"/>
+      <c r="L10" s="84"/>
       <c r="M10" s="10"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="126" t="s">
+      <c r="A11" s="114" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="126"/>
-      <c r="C11" s="126"/>
-      <c r="D11" s="126"/>
-      <c r="E11" s="126"/>
+      <c r="B11" s="114"/>
+      <c r="C11" s="114"/>
+      <c r="D11" s="114"/>
+      <c r="E11" s="114"/>
       <c r="F11" s="10"/>
       <c r="H11" s="1" t="s">
         <v>47</v>
       </c>
       <c r="J11" s="8"/>
       <c r="K11" s="30" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L11" s="32">
         <v>100</v>
@@ -3335,21 +3335,21 @@
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
-      <c r="J12" s="81">
+      <c r="J12" s="84">
         <f>J10*L11</f>
         <v>0</v>
       </c>
-      <c r="K12" s="81"/>
-      <c r="L12" s="81"/>
+      <c r="K12" s="84"/>
+      <c r="L12" s="84"/>
       <c r="M12" s="10"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="132" t="s">
+      <c r="A13" s="121" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="132"/>
-      <c r="C13" s="132"/>
-      <c r="D13" s="132"/>
+      <c r="B13" s="121"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121"/>
       <c r="F13" s="12"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
@@ -3359,33 +3359,33 @@
       <c r="L13" s="19"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="132"/>
-      <c r="B14" s="132"/>
-      <c r="C14" s="132"/>
-      <c r="D14" s="132"/>
+      <c r="A14" s="121"/>
+      <c r="B14" s="121"/>
+      <c r="C14" s="121"/>
+      <c r="D14" s="121"/>
       <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="132"/>
-      <c r="B15" s="132"/>
-      <c r="C15" s="132"/>
-      <c r="D15" s="132"/>
+      <c r="A15" s="121"/>
+      <c r="B15" s="121"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="121"/>
       <c r="E15" s="8"/>
-      <c r="F15" s="123" t="s">
+      <c r="F15" s="126" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="124"/>
-      <c r="H15" s="124"/>
-      <c r="I15" s="124"/>
-      <c r="J15" s="124"/>
-      <c r="K15" s="124"/>
-      <c r="L15" s="124"/>
+      <c r="G15" s="127"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="127"/>
+      <c r="J15" s="127"/>
+      <c r="K15" s="127"/>
+      <c r="L15" s="127"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="132"/>
-      <c r="B16" s="132"/>
-      <c r="C16" s="132"/>
-      <c r="D16" s="132"/>
+      <c r="A16" s="121"/>
+      <c r="B16" s="121"/>
+      <c r="C16" s="121"/>
+      <c r="D16" s="121"/>
       <c r="F16" s="15"/>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
@@ -3395,30 +3395,30 @@
       <c r="L16" s="16"/>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="133" t="s">
+      <c r="A17" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="133"/>
-      <c r="C17" s="133"/>
-      <c r="D17" s="133"/>
+      <c r="B17" s="122"/>
+      <c r="C17" s="122"/>
+      <c r="D17" s="122"/>
       <c r="F17" s="10" t="s">
         <v>48</v>
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
-      <c r="J17" s="81">
+      <c r="J17" s="84">
         <f>J12</f>
         <v>0</v>
       </c>
-      <c r="K17" s="81"/>
-      <c r="L17" s="81"/>
+      <c r="K17" s="84"/>
+      <c r="L17" s="84"/>
     </row>
     <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="133"/>
-      <c r="B18" s="133"/>
-      <c r="C18" s="133"/>
-      <c r="D18" s="133"/>
+      <c r="A18" s="122"/>
+      <c r="B18" s="122"/>
+      <c r="C18" s="122"/>
+      <c r="D18" s="122"/>
       <c r="F18" s="10"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
@@ -3428,40 +3428,40 @@
       <c r="L18" s="11"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="133"/>
-      <c r="B19" s="133"/>
-      <c r="C19" s="133"/>
-      <c r="D19" s="133"/>
-      <c r="F19" s="120" t="s">
-        <v>106</v>
-      </c>
-      <c r="G19" s="121"/>
-      <c r="H19" s="121"/>
-      <c r="I19" s="121"/>
+      <c r="A19" s="122"/>
+      <c r="B19" s="122"/>
+      <c r="C19" s="122"/>
+      <c r="D19" s="122"/>
+      <c r="F19" s="123" t="s">
+        <v>102</v>
+      </c>
+      <c r="G19" s="124"/>
+      <c r="H19" s="124"/>
+      <c r="I19" s="124"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="11"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="133"/>
-      <c r="B20" s="133"/>
-      <c r="C20" s="133"/>
-      <c r="D20" s="133"/>
-      <c r="F20" s="120"/>
-      <c r="G20" s="121"/>
-      <c r="H20" s="121"/>
-      <c r="I20" s="121"/>
-      <c r="J20" s="81">
+      <c r="A20" s="122"/>
+      <c r="B20" s="122"/>
+      <c r="C20" s="122"/>
+      <c r="D20" s="122"/>
+      <c r="F20" s="123"/>
+      <c r="G20" s="124"/>
+      <c r="H20" s="124"/>
+      <c r="I20" s="124"/>
+      <c r="J20" s="84">
         <v>50000</v>
       </c>
-      <c r="K20" s="81"/>
-      <c r="L20" s="81"/>
+      <c r="K20" s="84"/>
+      <c r="L20" s="84"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="133"/>
-      <c r="B21" s="133"/>
-      <c r="C21" s="133"/>
-      <c r="D21" s="133"/>
+      <c r="A21" s="122"/>
+      <c r="B21" s="122"/>
+      <c r="C21" s="122"/>
+      <c r="D21" s="122"/>
       <c r="F21" s="17"/>
       <c r="G21" s="18"/>
       <c r="H21" s="18"/>
@@ -3471,41 +3471,41 @@
       <c r="L21" s="11"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="133"/>
-      <c r="B22" s="133"/>
-      <c r="C22" s="133"/>
-      <c r="D22" s="133"/>
-      <c r="F22" s="127" t="s">
+      <c r="A22" s="122"/>
+      <c r="B22" s="122"/>
+      <c r="C22" s="122"/>
+      <c r="D22" s="122"/>
+      <c r="F22" s="115" t="s">
         <v>52</v>
       </c>
-      <c r="G22" s="128"/>
-      <c r="H22" s="128"/>
-      <c r="I22" s="128"/>
+      <c r="G22" s="116"/>
+      <c r="H22" s="116"/>
+      <c r="I22" s="116"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="11"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="133"/>
-      <c r="B23" s="133"/>
-      <c r="C23" s="133"/>
-      <c r="D23" s="133"/>
-      <c r="F23" s="127"/>
-      <c r="G23" s="128"/>
-      <c r="H23" s="128"/>
-      <c r="I23" s="128"/>
-      <c r="J23" s="81">
+      <c r="A23" s="122"/>
+      <c r="B23" s="122"/>
+      <c r="C23" s="122"/>
+      <c r="D23" s="122"/>
+      <c r="F23" s="115"/>
+      <c r="G23" s="116"/>
+      <c r="H23" s="116"/>
+      <c r="I23" s="116"/>
+      <c r="J23" s="84">
         <f>J17+J20</f>
         <v>50000</v>
       </c>
-      <c r="K23" s="81"/>
-      <c r="L23" s="81"/>
+      <c r="K23" s="84"/>
+      <c r="L23" s="84"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="133"/>
-      <c r="B24" s="133"/>
-      <c r="C24" s="133"/>
-      <c r="D24" s="133"/>
+      <c r="A24" s="122"/>
+      <c r="B24" s="122"/>
+      <c r="C24" s="122"/>
+      <c r="D24" s="122"/>
       <c r="F24" s="12"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
@@ -3515,29 +3515,29 @@
       <c r="L24" s="19"/>
     </row>
     <row r="27" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="117" t="s">
+      <c r="A27" s="130" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="118"/>
-      <c r="C27" s="118"/>
-      <c r="D27" s="118"/>
-      <c r="E27" s="118"/>
-      <c r="F27" s="118"/>
-      <c r="G27" s="118"/>
-      <c r="H27" s="118"/>
-      <c r="I27" s="118"/>
-      <c r="J27" s="118"/>
-      <c r="K27" s="118"/>
-      <c r="L27" s="119"/>
+      <c r="B27" s="131"/>
+      <c r="C27" s="131"/>
+      <c r="D27" s="131"/>
+      <c r="E27" s="131"/>
+      <c r="F27" s="131"/>
+      <c r="G27" s="131"/>
+      <c r="H27" s="131"/>
+      <c r="I27" s="131"/>
+      <c r="J27" s="131"/>
+      <c r="K27" s="131"/>
+      <c r="L27" s="132"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="120" t="s">
+      <c r="A28" s="123" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="121"/>
-      <c r="C28" s="121"/>
-      <c r="D28" s="121"/>
-      <c r="E28" s="121"/>
+      <c r="B28" s="124"/>
+      <c r="C28" s="124"/>
+      <c r="D28" s="124"/>
+      <c r="E28" s="124"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
@@ -3547,30 +3547,30 @@
       <c r="L28" s="11"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="120"/>
-      <c r="B29" s="121"/>
-      <c r="C29" s="121"/>
-      <c r="D29" s="121"/>
-      <c r="E29" s="121"/>
-      <c r="F29" s="122" t="s">
-        <v>104</v>
-      </c>
-      <c r="G29" s="122"/>
-      <c r="H29" s="122"/>
-      <c r="I29" s="122"/>
-      <c r="J29" s="81">
+      <c r="A29" s="123"/>
+      <c r="B29" s="124"/>
+      <c r="C29" s="124"/>
+      <c r="D29" s="124"/>
+      <c r="E29" s="124"/>
+      <c r="F29" s="125" t="s">
+        <v>100</v>
+      </c>
+      <c r="G29" s="125"/>
+      <c r="H29" s="125"/>
+      <c r="I29" s="125"/>
+      <c r="J29" s="84">
         <f>SUM(J33:L54)+J17</f>
         <v>0</v>
       </c>
-      <c r="K29" s="81"/>
-      <c r="L29" s="104"/>
+      <c r="K29" s="84"/>
+      <c r="L29" s="103"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="120"/>
-      <c r="B30" s="121"/>
-      <c r="C30" s="121"/>
-      <c r="D30" s="121"/>
-      <c r="E30" s="121"/>
+      <c r="A30" s="123"/>
+      <c r="B30" s="124"/>
+      <c r="C30" s="124"/>
+      <c r="D30" s="124"/>
+      <c r="E30" s="124"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
@@ -3594,441 +3594,454 @@
       <c r="L31" s="11"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="114" t="s">
+      <c r="A32" s="128" t="s">
         <v>55</v>
       </c>
-      <c r="B32" s="115"/>
-      <c r="C32" s="115"/>
-      <c r="D32" s="115"/>
-      <c r="E32" s="115"/>
+      <c r="B32" s="117"/>
+      <c r="C32" s="117"/>
+      <c r="D32" s="117"/>
+      <c r="E32" s="117"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
-      <c r="J32" s="115" t="s">
+      <c r="J32" s="117" t="s">
         <v>56</v>
       </c>
-      <c r="K32" s="115"/>
-      <c r="L32" s="116"/>
+      <c r="K32" s="117"/>
+      <c r="L32" s="129"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="90" t="s">
-        <v>108</v>
-      </c>
-      <c r="B33" s="91"/>
-      <c r="C33" s="91"/>
-      <c r="D33" s="91"/>
+      <c r="A33" s="78" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" s="79"/>
+      <c r="C33" s="79"/>
+      <c r="D33" s="79"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
-      <c r="J33" s="89"/>
-      <c r="K33" s="89"/>
-      <c r="L33" s="113"/>
+      <c r="J33" s="108"/>
+      <c r="K33" s="108"/>
+      <c r="L33" s="133"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="90" t="s">
-        <v>108</v>
-      </c>
-      <c r="B34" s="91"/>
-      <c r="C34" s="91"/>
-      <c r="D34" s="91"/>
+      <c r="A34" s="78" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" s="79"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="79"/>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
-      <c r="J34" s="89" t="s">
-        <v>108</v>
-      </c>
-      <c r="K34" s="89"/>
-      <c r="L34" s="113"/>
+      <c r="J34" s="108" t="s">
+        <v>104</v>
+      </c>
+      <c r="K34" s="108"/>
+      <c r="L34" s="133"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="90" t="s">
-        <v>108</v>
-      </c>
-      <c r="B35" s="91"/>
-      <c r="C35" s="91"/>
-      <c r="D35" s="91"/>
+      <c r="A35" s="78" t="s">
+        <v>104</v>
+      </c>
+      <c r="B35" s="79"/>
+      <c r="C35" s="79"/>
+      <c r="D35" s="79"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
-      <c r="J35" s="89" t="s">
-        <v>108</v>
-      </c>
-      <c r="K35" s="89"/>
-      <c r="L35" s="113"/>
+      <c r="J35" s="108" t="s">
+        <v>104</v>
+      </c>
+      <c r="K35" s="108"/>
+      <c r="L35" s="133"/>
       <c r="O35" s="75"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="90" t="s">
-        <v>108</v>
-      </c>
-      <c r="B36" s="91"/>
-      <c r="C36" s="91"/>
-      <c r="D36" s="91"/>
+      <c r="A36" s="78" t="s">
+        <v>104</v>
+      </c>
+      <c r="B36" s="79"/>
+      <c r="C36" s="79"/>
+      <c r="D36" s="79"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
-      <c r="J36" s="89" t="s">
-        <v>108</v>
-      </c>
-      <c r="K36" s="89"/>
-      <c r="L36" s="113"/>
+      <c r="J36" s="108" t="s">
+        <v>104</v>
+      </c>
+      <c r="K36" s="108"/>
+      <c r="L36" s="133"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="90" t="s">
-        <v>108</v>
-      </c>
-      <c r="B37" s="91"/>
-      <c r="C37" s="91"/>
-      <c r="D37" s="91"/>
+      <c r="A37" s="78" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37" s="79"/>
+      <c r="C37" s="79"/>
+      <c r="D37" s="79"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
-      <c r="J37" s="89" t="s">
-        <v>108</v>
-      </c>
-      <c r="K37" s="89"/>
-      <c r="L37" s="113"/>
+      <c r="J37" s="108" t="s">
+        <v>104</v>
+      </c>
+      <c r="K37" s="108"/>
+      <c r="L37" s="133"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="90" t="s">
-        <v>108</v>
-      </c>
-      <c r="B38" s="91"/>
-      <c r="C38" s="91"/>
-      <c r="D38" s="91"/>
+      <c r="A38" s="78" t="s">
+        <v>104</v>
+      </c>
+      <c r="B38" s="79"/>
+      <c r="C38" s="79"/>
+      <c r="D38" s="79"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
-      <c r="J38" s="89" t="s">
-        <v>108</v>
-      </c>
-      <c r="K38" s="89"/>
-      <c r="L38" s="113"/>
+      <c r="J38" s="108" t="s">
+        <v>104</v>
+      </c>
+      <c r="K38" s="108"/>
+      <c r="L38" s="133"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="90" t="s">
-        <v>108</v>
-      </c>
-      <c r="B39" s="91"/>
-      <c r="C39" s="91"/>
-      <c r="D39" s="91"/>
+      <c r="A39" s="78" t="s">
+        <v>104</v>
+      </c>
+      <c r="B39" s="79"/>
+      <c r="C39" s="79"/>
+      <c r="D39" s="79"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
-      <c r="J39" s="89" t="s">
-        <v>108</v>
-      </c>
-      <c r="K39" s="89"/>
-      <c r="L39" s="113"/>
+      <c r="J39" s="108" t="s">
+        <v>104</v>
+      </c>
+      <c r="K39" s="108"/>
+      <c r="L39" s="133"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="90" t="s">
-        <v>108</v>
-      </c>
-      <c r="B40" s="91"/>
-      <c r="C40" s="91"/>
-      <c r="D40" s="91"/>
+      <c r="A40" s="78" t="s">
+        <v>104</v>
+      </c>
+      <c r="B40" s="79"/>
+      <c r="C40" s="79"/>
+      <c r="D40" s="79"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
-      <c r="J40" s="89" t="s">
-        <v>108</v>
-      </c>
-      <c r="K40" s="89"/>
-      <c r="L40" s="113"/>
+      <c r="J40" s="108" t="s">
+        <v>104</v>
+      </c>
+      <c r="K40" s="108"/>
+      <c r="L40" s="133"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="90" t="s">
-        <v>108</v>
-      </c>
-      <c r="B41" s="91"/>
-      <c r="C41" s="91"/>
-      <c r="D41" s="91"/>
+      <c r="A41" s="78" t="s">
+        <v>104</v>
+      </c>
+      <c r="B41" s="79"/>
+      <c r="C41" s="79"/>
+      <c r="D41" s="79"/>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
-      <c r="J41" s="89" t="s">
-        <v>108</v>
-      </c>
-      <c r="K41" s="89"/>
-      <c r="L41" s="113"/>
+      <c r="J41" s="108" t="s">
+        <v>104</v>
+      </c>
+      <c r="K41" s="108"/>
+      <c r="L41" s="133"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="90" t="s">
-        <v>108</v>
-      </c>
-      <c r="B42" s="91"/>
-      <c r="C42" s="91"/>
-      <c r="D42" s="91"/>
+      <c r="A42" s="78" t="s">
+        <v>104</v>
+      </c>
+      <c r="B42" s="79"/>
+      <c r="C42" s="79"/>
+      <c r="D42" s="79"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
-      <c r="J42" s="89" t="s">
-        <v>108</v>
-      </c>
-      <c r="K42" s="89"/>
-      <c r="L42" s="113"/>
+      <c r="J42" s="108" t="s">
+        <v>104</v>
+      </c>
+      <c r="K42" s="108"/>
+      <c r="L42" s="133"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="90" t="s">
-        <v>108</v>
-      </c>
-      <c r="B43" s="91"/>
-      <c r="C43" s="91"/>
-      <c r="D43" s="91"/>
+      <c r="A43" s="78" t="s">
+        <v>104</v>
+      </c>
+      <c r="B43" s="79"/>
+      <c r="C43" s="79"/>
+      <c r="D43" s="79"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
-      <c r="J43" s="89" t="s">
-        <v>108</v>
-      </c>
-      <c r="K43" s="89"/>
-      <c r="L43" s="113"/>
+      <c r="J43" s="108" t="s">
+        <v>104</v>
+      </c>
+      <c r="K43" s="108"/>
+      <c r="L43" s="133"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="90" t="s">
-        <v>108</v>
-      </c>
-      <c r="B44" s="91"/>
-      <c r="C44" s="91"/>
-      <c r="D44" s="91"/>
+      <c r="A44" s="78" t="s">
+        <v>104</v>
+      </c>
+      <c r="B44" s="79"/>
+      <c r="C44" s="79"/>
+      <c r="D44" s="79"/>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
-      <c r="J44" s="89" t="s">
-        <v>108</v>
-      </c>
-      <c r="K44" s="89"/>
-      <c r="L44" s="113"/>
+      <c r="J44" s="108" t="s">
+        <v>104</v>
+      </c>
+      <c r="K44" s="108"/>
+      <c r="L44" s="133"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="90" t="s">
-        <v>108</v>
-      </c>
-      <c r="B45" s="91"/>
-      <c r="C45" s="91"/>
-      <c r="D45" s="91"/>
+      <c r="A45" s="78" t="s">
+        <v>104</v>
+      </c>
+      <c r="B45" s="79"/>
+      <c r="C45" s="79"/>
+      <c r="D45" s="79"/>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
-      <c r="J45" s="89" t="s">
-        <v>108</v>
-      </c>
-      <c r="K45" s="89"/>
-      <c r="L45" s="113"/>
+      <c r="J45" s="108" t="s">
+        <v>104</v>
+      </c>
+      <c r="K45" s="108"/>
+      <c r="L45" s="133"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" s="90" t="s">
-        <v>108</v>
-      </c>
-      <c r="B46" s="91"/>
-      <c r="C46" s="91"/>
-      <c r="D46" s="91"/>
+      <c r="A46" s="78" t="s">
+        <v>104</v>
+      </c>
+      <c r="B46" s="79"/>
+      <c r="C46" s="79"/>
+      <c r="D46" s="79"/>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
-      <c r="J46" s="89" t="s">
-        <v>108</v>
-      </c>
-      <c r="K46" s="89"/>
-      <c r="L46" s="113"/>
+      <c r="J46" s="108" t="s">
+        <v>104</v>
+      </c>
+      <c r="K46" s="108"/>
+      <c r="L46" s="133"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" s="90" t="s">
-        <v>108</v>
-      </c>
-      <c r="B47" s="91"/>
-      <c r="C47" s="91"/>
-      <c r="D47" s="91"/>
+      <c r="A47" s="78" t="s">
+        <v>104</v>
+      </c>
+      <c r="B47" s="79"/>
+      <c r="C47" s="79"/>
+      <c r="D47" s="79"/>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
-      <c r="J47" s="89" t="s">
-        <v>108</v>
-      </c>
-      <c r="K47" s="89"/>
-      <c r="L47" s="113"/>
+      <c r="J47" s="108" t="s">
+        <v>104</v>
+      </c>
+      <c r="K47" s="108"/>
+      <c r="L47" s="133"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="90" t="s">
-        <v>108</v>
-      </c>
-      <c r="B48" s="91"/>
-      <c r="C48" s="91"/>
-      <c r="D48" s="91"/>
+      <c r="A48" s="78" t="s">
+        <v>104</v>
+      </c>
+      <c r="B48" s="79"/>
+      <c r="C48" s="79"/>
+      <c r="D48" s="79"/>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
-      <c r="J48" s="89" t="s">
-        <v>108</v>
-      </c>
-      <c r="K48" s="89"/>
-      <c r="L48" s="113"/>
+      <c r="J48" s="108" t="s">
+        <v>104</v>
+      </c>
+      <c r="K48" s="108"/>
+      <c r="L48" s="133"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="90" t="s">
-        <v>108</v>
-      </c>
-      <c r="B49" s="91"/>
-      <c r="C49" s="91"/>
-      <c r="D49" s="91"/>
+      <c r="A49" s="78" t="s">
+        <v>104</v>
+      </c>
+      <c r="B49" s="79"/>
+      <c r="C49" s="79"/>
+      <c r="D49" s="79"/>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
-      <c r="J49" s="89" t="s">
-        <v>108</v>
-      </c>
-      <c r="K49" s="89"/>
-      <c r="L49" s="113"/>
+      <c r="J49" s="108" t="s">
+        <v>104</v>
+      </c>
+      <c r="K49" s="108"/>
+      <c r="L49" s="133"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="90" t="s">
-        <v>108</v>
-      </c>
-      <c r="B50" s="91"/>
-      <c r="C50" s="91"/>
-      <c r="D50" s="91"/>
+      <c r="A50" s="78" t="s">
+        <v>104</v>
+      </c>
+      <c r="B50" s="79"/>
+      <c r="C50" s="79"/>
+      <c r="D50" s="79"/>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
-      <c r="J50" s="89" t="s">
-        <v>108</v>
-      </c>
-      <c r="K50" s="89"/>
-      <c r="L50" s="113"/>
+      <c r="J50" s="108" t="s">
+        <v>104</v>
+      </c>
+      <c r="K50" s="108"/>
+      <c r="L50" s="133"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="90" t="s">
-        <v>108</v>
-      </c>
-      <c r="B51" s="91"/>
-      <c r="C51" s="91"/>
-      <c r="D51" s="91"/>
+      <c r="A51" s="78" t="s">
+        <v>104</v>
+      </c>
+      <c r="B51" s="79"/>
+      <c r="C51" s="79"/>
+      <c r="D51" s="79"/>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
       <c r="I51" s="7"/>
-      <c r="J51" s="89" t="s">
-        <v>108</v>
-      </c>
-      <c r="K51" s="89"/>
-      <c r="L51" s="113"/>
+      <c r="J51" s="108" t="s">
+        <v>104</v>
+      </c>
+      <c r="K51" s="108"/>
+      <c r="L51" s="133"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="90" t="s">
-        <v>108</v>
-      </c>
-      <c r="B52" s="91"/>
-      <c r="C52" s="91"/>
-      <c r="D52" s="91"/>
+      <c r="A52" s="78" t="s">
+        <v>104</v>
+      </c>
+      <c r="B52" s="79"/>
+      <c r="C52" s="79"/>
+      <c r="D52" s="79"/>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
-      <c r="J52" s="89" t="s">
-        <v>108</v>
-      </c>
-      <c r="K52" s="89"/>
-      <c r="L52" s="113"/>
+      <c r="J52" s="108" t="s">
+        <v>104</v>
+      </c>
+      <c r="K52" s="108"/>
+      <c r="L52" s="133"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="90" t="s">
-        <v>108</v>
-      </c>
-      <c r="B53" s="91"/>
-      <c r="C53" s="91"/>
-      <c r="D53" s="91"/>
+      <c r="A53" s="78" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" s="79"/>
+      <c r="C53" s="79"/>
+      <c r="D53" s="79"/>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
       <c r="I53" s="7"/>
-      <c r="J53" s="89" t="s">
-        <v>108</v>
-      </c>
-      <c r="K53" s="89"/>
-      <c r="L53" s="113"/>
+      <c r="J53" s="108" t="s">
+        <v>104</v>
+      </c>
+      <c r="K53" s="108"/>
+      <c r="L53" s="133"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="90" t="s">
-        <v>108</v>
-      </c>
-      <c r="B54" s="91"/>
-      <c r="C54" s="91"/>
-      <c r="D54" s="91"/>
+      <c r="A54" s="78" t="s">
+        <v>104</v>
+      </c>
+      <c r="B54" s="79"/>
+      <c r="C54" s="79"/>
+      <c r="D54" s="79"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
-      <c r="J54" s="89" t="s">
-        <v>108</v>
-      </c>
-      <c r="K54" s="89"/>
-      <c r="L54" s="113"/>
+      <c r="J54" s="108" t="s">
+        <v>104</v>
+      </c>
+      <c r="K54" s="108"/>
+      <c r="L54" s="133"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="69">
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="F22:I23"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="A4:D6"/>
-    <mergeCell ref="A7:D9"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="A13:D16"/>
-    <mergeCell ref="A17:D24"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="A28:E30"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="F19:I20"/>
-    <mergeCell ref="F15:L15"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="J54:L54"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="J51:L51"/>
+    <mergeCell ref="J52:L52"/>
+    <mergeCell ref="J53:L53"/>
+    <mergeCell ref="J48:L48"/>
+    <mergeCell ref="J49:L49"/>
+    <mergeCell ref="J50:L50"/>
+    <mergeCell ref="J45:L45"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="J43:L43"/>
+    <mergeCell ref="J44:L44"/>
     <mergeCell ref="A39:D39"/>
     <mergeCell ref="A32:E32"/>
     <mergeCell ref="J32:L32"/>
@@ -4045,39 +4058,26 @@
     <mergeCell ref="J34:L34"/>
     <mergeCell ref="J35:L35"/>
     <mergeCell ref="J36:L36"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="J46:L46"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="J42:L42"/>
-    <mergeCell ref="J43:L43"/>
-    <mergeCell ref="J44:L44"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="J54:L54"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="J51:L51"/>
-    <mergeCell ref="J52:L52"/>
-    <mergeCell ref="J53:L53"/>
-    <mergeCell ref="J48:L48"/>
-    <mergeCell ref="J49:L49"/>
-    <mergeCell ref="J50:L50"/>
-    <mergeCell ref="J45:L45"/>
+    <mergeCell ref="A28:E30"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="F19:I20"/>
+    <mergeCell ref="F15:L15"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="F22:I23"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="A4:D6"/>
+    <mergeCell ref="A7:D9"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="A13:D16"/>
+    <mergeCell ref="A17:D24"/>
+    <mergeCell ref="J17:L17"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:K1">
     <cfRule type="expression" dxfId="7" priority="10">
@@ -4122,8 +4122,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:U65"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView topLeftCell="A20" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4167,10 +4167,10 @@
         <v>8</v>
       </c>
       <c r="F1" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="39" t="s">
         <v>68</v>
-      </c>
-      <c r="G1" s="39" t="s">
-        <v>69</v>
       </c>
       <c r="H1" s="39" t="s">
         <v>13</v>
@@ -4191,28 +4191,28 @@
         <v>18</v>
       </c>
       <c r="N1" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="O1" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="O1" s="39" t="s">
+      <c r="P1" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="P1" s="39" t="s">
+      <c r="Q1" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="Q1" s="39" t="s">
+      <c r="R1" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="R1" s="39" t="s">
+      <c r="S1" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="T1" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="S1" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="T1" s="39" t="s">
+      <c r="U1" s="39" t="s">
         <v>76</v>
-      </c>
-      <c r="U1" s="39" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -4220,7 +4220,7 @@
         <v>64</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>67</v>
+        <v>141</v>
       </c>
       <c r="C2" s="41">
         <v>9500</v>
@@ -4285,7 +4285,7 @@
         <v>65</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C3" s="41">
         <v>4600</v>
@@ -4350,7 +4350,7 @@
         <v>66</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>88</v>
+        <v>139</v>
       </c>
       <c r="C4" s="41">
         <v>13200</v>
@@ -4412,10 +4412,10 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C5" s="41">
         <v>4900</v>
@@ -4477,10 +4477,10 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>90</v>
+        <v>138</v>
       </c>
       <c r="C6" s="41">
         <v>1600</v>
@@ -4542,10 +4542,10 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C7" s="41">
         <v>7500</v>
@@ -4607,10 +4607,10 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C8" s="41">
         <v>2000</v>
@@ -4672,10 +4672,10 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="39" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C9" s="41">
         <v>3100</v>
@@ -4737,10 +4737,10 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B10" s="39" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C10" s="41">
         <v>3000</v>
@@ -4802,10 +4802,10 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C11" s="41">
         <v>2500</v>
@@ -4867,10 +4867,10 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C12" s="41">
         <v>3300</v>
@@ -4932,10 +4932,10 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="39" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="C13" s="41">
         <v>2500</v>
@@ -4997,16 +4997,16 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="39" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C18" s="39" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G18" s="39" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H18" s="39" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="I18" s="39" t="s">
         <v>26</v>
@@ -5014,14 +5014,14 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="39" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B19" s="41"/>
       <c r="C19" s="39">
         <v>0</v>
       </c>
       <c r="G19" s="39" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H19" s="39">
         <v>17000</v>
@@ -5032,13 +5032,13 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="39" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C20" s="39">
         <v>1</v>
       </c>
       <c r="G20" s="39" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H20" s="39">
         <v>4000</v>
@@ -5049,7 +5049,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="39" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C21" s="39">
         <v>2</v>
@@ -5057,7 +5057,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="39" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C22" s="39">
         <v>3</v>
@@ -5065,29 +5065,29 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="39" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="B25" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="D25" s="74" t="s">
+        <v>114</v>
+      </c>
+      <c r="E25" s="39" t="s">
         <v>116</v>
-      </c>
-      <c r="B25" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="C25" s="39" t="s">
-        <v>119</v>
-      </c>
-      <c r="D25" s="74" t="s">
-        <v>118</v>
-      </c>
-      <c r="E25" s="39" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="57" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B26" s="57">
         <v>20000</v>
@@ -5102,12 +5102,12 @@
         <v>0</v>
       </c>
       <c r="G26" s="57" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="53" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B27" s="53">
         <v>80000</v>
@@ -5122,12 +5122,12 @@
         <v>400</v>
       </c>
       <c r="G27" s="69" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="53" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B28" s="53">
         <v>140000</v>
@@ -5142,12 +5142,12 @@
         <v>2000</v>
       </c>
       <c r="G28" s="69" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="53" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B29" s="53">
         <v>100000</v>
@@ -5162,12 +5162,12 @@
         <v>800</v>
       </c>
       <c r="G29" s="69" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="53" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B30" s="53">
         <v>80000</v>
@@ -5182,12 +5182,12 @@
         <v>750</v>
       </c>
       <c r="G30" s="69" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="53" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B31" s="53">
         <v>90000</v>
@@ -5202,12 +5202,12 @@
         <v>500</v>
       </c>
       <c r="G31" s="69" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="53" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B32" s="53">
         <v>125000</v>
@@ -5222,12 +5222,12 @@
         <v>600</v>
       </c>
       <c r="G32" s="70" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="58" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B33" s="58">
         <v>220000</v>
@@ -5242,12 +5242,12 @@
         <v>1700</v>
       </c>
       <c r="G33" s="70" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="53" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B34" s="53">
         <v>160000</v>
@@ -5262,12 +5262,12 @@
         <v>1700</v>
       </c>
       <c r="G34" s="70" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="53" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B35" s="53">
         <v>200000</v>
@@ -5282,12 +5282,12 @@
         <v>1600</v>
       </c>
       <c r="G35" s="70" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="53" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B36" s="53">
         <v>240000</v>
@@ -5302,12 +5302,12 @@
         <v>950</v>
       </c>
       <c r="G36" s="70" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="53" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B37" s="53">
         <v>1200000</v>
@@ -5322,12 +5322,12 @@
         <v>11000</v>
       </c>
       <c r="G37" s="72" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="53" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B38" s="53">
         <v>350000</v>
@@ -5342,12 +5342,12 @@
         <v>2400</v>
       </c>
       <c r="G38" s="70" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="53" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B39" s="53">
         <v>550000</v>
@@ -5362,12 +5362,12 @@
         <v>2800</v>
       </c>
       <c r="G39" s="72" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="53" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B40" s="53">
         <v>575000</v>
@@ -5384,7 +5384,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="54" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B41" s="53">
         <v>100000</v>
@@ -5401,7 +5401,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="54" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B42" s="53">
         <v>125000</v>
@@ -5418,7 +5418,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="54" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B43" s="53">
         <v>200000</v>
@@ -5435,7 +5435,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="53" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B44" s="53">
         <v>150000</v>
@@ -5452,7 +5452,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="54" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B45" s="54">
         <v>150000</v>
@@ -5469,7 +5469,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="54" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B46" s="54">
         <v>350000</v>
@@ -5486,7 +5486,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="54" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B47" s="54">
         <v>60000</v>
@@ -5503,7 +5503,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="54" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B48" s="54">
         <v>60000</v>
@@ -5520,7 +5520,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="54" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B49" s="54">
         <v>50000</v>
@@ -5537,7 +5537,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="54" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B50" s="54">
         <v>45000</v>
@@ -5554,7 +5554,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="54" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B51" s="54">
         <v>70000</v>
@@ -5571,7 +5571,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="54" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B52" s="54">
         <v>65000</v>
@@ -5588,7 +5588,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="54" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B53" s="54">
         <v>75000</v>
@@ -5605,7 +5605,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="54" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B54" s="54">
         <v>115000</v>
@@ -5622,7 +5622,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="54" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B55" s="54">
         <v>65000</v>
@@ -5639,7 +5639,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="54" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B56" s="54">
         <v>125000</v>
@@ -5657,7 +5657,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="54" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B57" s="54">
         <v>70000</v>
@@ -5675,7 +5675,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="54" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B58" s="54">
         <v>67000</v>
@@ -5693,7 +5693,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="54" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B59" s="54">
         <v>70000</v>
@@ -5711,7 +5711,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="54" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B60" s="54">
         <v>30000</v>
@@ -5729,7 +5729,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="54" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B61" s="54">
         <v>30000</v>
@@ -5747,7 +5747,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="56" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B62" s="54">
         <v>25000</v>
@@ -5765,7 +5765,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="56" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B63" s="54">
         <v>20000</v>
@@ -5782,7 +5782,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="54" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B64" s="54">
         <v>500000</v>
@@ -5799,7 +5799,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="56" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B65" s="70">
         <v>50000</v>

--- a/Cashflow-101_HU.xlsx
+++ b/Cashflow-101_HU.xlsx
@@ -5,17 +5,17 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MY PC\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MY PC\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF53A89-8ECB-4BE9-BC4A-E4568CDE4AC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB210DBF-B64E-4CF8-9A85-5D19D7BBF7C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mókuskerék" sheetId="1" r:id="rId1"/>
     <sheet name="Gyorsító sáv" sheetId="2" r:id="rId2"/>
-    <sheet name="Adatok" sheetId="3" state="hidden" r:id="rId3"/>
+    <sheet name="Adatok" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Adatok!$G$26:$G$62</definedName>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="153">
   <si>
     <t>Foglalkozás</t>
   </si>
@@ -442,15 +442,9 @@
     <t>Ügyvéd</t>
   </si>
   <si>
-    <t>Szerelő</t>
-  </si>
-  <si>
     <t>Ápoló</t>
   </si>
   <si>
-    <t>Rendőr</t>
-  </si>
-  <si>
     <t>Titkár</t>
   </si>
   <si>
@@ -595,10 +589,49 @@
     <t>Orvos</t>
   </si>
   <si>
-    <t>Teherautó sofőr</t>
-  </si>
-  <si>
     <t>Pilóta</t>
+  </si>
+  <si>
+    <t>Műszerész</t>
+  </si>
+  <si>
+    <t>Teherautó vezető</t>
+  </si>
+  <si>
+    <t>Rendőrtiszt</t>
+  </si>
+  <si>
+    <t>Kétlakásos ház</t>
+  </si>
+  <si>
+    <t>Családi ház 3H/2F</t>
+  </si>
+  <si>
+    <t>Kis bevásárló csarnok</t>
+  </si>
+  <si>
+    <t>Négy lakásos ház</t>
+  </si>
+  <si>
+    <t>Nyolc lakásos ház</t>
+  </si>
+  <si>
+    <t>Automata üzlet</t>
+  </si>
+  <si>
+    <t>Csendestárs</t>
+  </si>
+  <si>
+    <t>Kis panzió</t>
+  </si>
+  <si>
+    <t>8 HA földterület</t>
+  </si>
+  <si>
+    <t>Apartman komplexum</t>
+  </si>
+  <si>
+    <t>Autómosó</t>
   </si>
 </sst>
 </file>
@@ -1044,6 +1077,57 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="165" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1052,13 +1136,45 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1073,158 +1189,75 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1769,7 +1802,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:S53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
@@ -1797,37 +1830,37 @@
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="82" t="s">
-        <v>104</v>
-      </c>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
+      <c r="B1" s="109" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
-      <c r="G1" s="80" t="s">
+      <c r="G1" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="80"/>
-      <c r="I1" s="82" t="s">
-        <v>104</v>
-      </c>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="109" t="s">
+        <v>102</v>
+      </c>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
     </row>
     <row r="3" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
@@ -1836,22 +1869,22 @@
       <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="87" t="s">
+      <c r="A4" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="89"/>
-      <c r="G4" s="80" t="s">
+      <c r="B4" s="102"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="103"/>
+      <c r="G4" s="107" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="80"/>
-      <c r="I4" s="82" t="s">
-        <v>104</v>
-      </c>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="109" t="s">
+        <v>102</v>
+      </c>
+      <c r="J4" s="109"/>
+      <c r="K4" s="109"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
@@ -1873,68 +1906,68 @@
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="90">
+      <c r="D6" s="84">
         <f>IFERROR(VLOOKUP(B1,Adatok!B1:C13,2,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E6" s="91"/>
+      <c r="E6" s="85"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C7" s="7"/>
-      <c r="D7" s="76" t="s">
-        <v>104</v>
-      </c>
-      <c r="E7" s="77"/>
+      <c r="D7" s="92" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" s="93"/>
     </row>
     <row r="8" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="20"/>
       <c r="B8" s="34" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C8" s="7"/>
-      <c r="D8" s="76" t="s">
-        <v>104</v>
-      </c>
-      <c r="E8" s="77"/>
-      <c r="G8" s="85" t="s">
+      <c r="D8" s="92" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" s="93"/>
+      <c r="G8" s="111" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="85"/>
-      <c r="I8" s="85"/>
-      <c r="J8" s="85"/>
-      <c r="K8" s="84">
+      <c r="H8" s="111"/>
+      <c r="I8" s="111"/>
+      <c r="J8" s="111"/>
+      <c r="K8" s="81">
         <f>SUM(D7:E20)</f>
         <v>0</v>
       </c>
-      <c r="L8" s="84"/>
-      <c r="M8" s="84"/>
+      <c r="L8" s="81"/>
+      <c r="M8" s="81"/>
       <c r="Q8" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="R8" s="47"/>
     </row>
     <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
       <c r="B9" s="34" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C9" s="7"/>
-      <c r="D9" s="76" t="s">
-        <v>104</v>
-      </c>
-      <c r="E9" s="77"/>
-      <c r="G9" s="83" t="s">
+      <c r="D9" s="92" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="93"/>
+      <c r="G9" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="83"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="83"/>
+      <c r="H9" s="110"/>
+      <c r="I9" s="110"/>
+      <c r="J9" s="110"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
@@ -1942,43 +1975,43 @@
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
-      <c r="D10" s="92"/>
-      <c r="E10" s="93"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="83"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="106"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="110"/>
+      <c r="J10" s="110"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="78" t="s">
-        <v>104</v>
-      </c>
-      <c r="B11" s="79"/>
+      <c r="A11" s="90" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="91"/>
       <c r="C11" s="7"/>
-      <c r="D11" s="76" t="s">
-        <v>104</v>
-      </c>
-      <c r="E11" s="77"/>
+      <c r="D11" s="92" t="s">
+        <v>102</v>
+      </c>
+      <c r="E11" s="93"/>
       <c r="Q11" s="45" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="R11" s="43" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="S11" s="43" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="78" t="s">
-        <v>104</v>
-      </c>
-      <c r="B12" s="79"/>
+      <c r="A12" s="90" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="91"/>
       <c r="C12" s="7"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="77"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="93"/>
       <c r="Q12" s="46" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="R12" s="44">
         <f>_xlfn.IFNA(VLOOKUP(Q12,Adatok!G18:I20,2,FALSE),0)</f>
@@ -1990,17 +2023,17 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="78" t="s">
-        <v>104</v>
-      </c>
-      <c r="B13" s="79"/>
+      <c r="A13" s="90" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="91"/>
       <c r="C13" s="7"/>
-      <c r="D13" s="76" t="s">
-        <v>104</v>
-      </c>
-      <c r="E13" s="77"/>
+      <c r="D13" s="92" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13" s="93"/>
       <c r="Q13" s="46" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="R13" s="44">
         <f>_xlfn.IFNA(VLOOKUP(Q13,Adatok!G19:I21,2,FALSE),0)</f>
@@ -2012,47 +2045,47 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="78" t="s">
-        <v>104</v>
-      </c>
-      <c r="B14" s="79"/>
+      <c r="A14" s="90" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14" s="91"/>
       <c r="C14" s="7"/>
-      <c r="D14" s="76" t="s">
-        <v>104</v>
-      </c>
-      <c r="E14" s="77"/>
-      <c r="G14" s="81" t="s">
+      <c r="D14" s="92" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" s="93"/>
+      <c r="G14" s="108" t="s">
         <v>61</v>
       </c>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="81"/>
-      <c r="K14" s="84">
+      <c r="H14" s="108"/>
+      <c r="I14" s="108"/>
+      <c r="J14" s="108"/>
+      <c r="K14" s="81">
         <f>SUM(D6:E20)</f>
         <v>0</v>
       </c>
-      <c r="L14" s="84"/>
-      <c r="M14" s="84"/>
+      <c r="L14" s="81"/>
+      <c r="M14" s="81"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="78" t="s">
-        <v>104</v>
-      </c>
-      <c r="B15" s="79"/>
+      <c r="A15" s="90" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="91"/>
       <c r="C15" s="7"/>
-      <c r="D15" s="76" t="s">
-        <v>104</v>
-      </c>
-      <c r="E15" s="77"/>
+      <c r="D15" s="92" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15" s="93"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="78" t="s">
-        <v>104</v>
-      </c>
-      <c r="B16" s="79"/>
+      <c r="A16" s="90" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" s="91"/>
       <c r="C16" s="7"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="77"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="93"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
@@ -2062,49 +2095,49 @@
       <c r="M16" s="6"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="78" t="s">
-        <v>104</v>
-      </c>
-      <c r="B17" s="79"/>
+      <c r="A17" s="90" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" s="91"/>
       <c r="C17" s="7"/>
-      <c r="D17" s="76" t="s">
-        <v>104</v>
-      </c>
-      <c r="E17" s="77"/>
+      <c r="D17" s="92" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17" s="93"/>
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="78" t="s">
-        <v>104</v>
-      </c>
-      <c r="B18" s="79"/>
+      <c r="A18" s="90" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" s="91"/>
       <c r="C18" s="7"/>
-      <c r="D18" s="76" t="s">
-        <v>104</v>
-      </c>
-      <c r="E18" s="77"/>
-      <c r="G18" s="98" t="s">
+      <c r="D18" s="92" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" s="93"/>
+      <c r="G18" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="99"/>
-      <c r="I18" s="99"/>
-      <c r="J18" s="102" t="s">
-        <v>104</v>
-      </c>
-      <c r="K18" s="102"/>
+      <c r="H18" s="97"/>
+      <c r="I18" s="97"/>
+      <c r="J18" s="100" t="s">
+        <v>102</v>
+      </c>
+      <c r="K18" s="100"/>
       <c r="L18" s="16"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="78" t="s">
-        <v>104</v>
-      </c>
-      <c r="B19" s="79"/>
+      <c r="A19" s="90" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" s="91"/>
       <c r="C19" s="7"/>
-      <c r="D19" s="76" t="s">
-        <v>104</v>
-      </c>
-      <c r="E19" s="77"/>
+      <c r="D19" s="92" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" s="93"/>
       <c r="G19" s="10"/>
       <c r="H19" s="23" t="s">
         <v>24</v>
@@ -2115,20 +2148,20 @@
       <c r="L19" s="11"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="78" t="s">
-        <v>104</v>
-      </c>
-      <c r="B20" s="79"/>
+      <c r="A20" s="90" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" s="91"/>
       <c r="C20" s="7"/>
-      <c r="D20" s="76" t="s">
-        <v>104</v>
-      </c>
-      <c r="E20" s="77"/>
-      <c r="G20" s="100" t="s">
+      <c r="D20" s="92" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" s="93"/>
+      <c r="G20" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="H20" s="101"/>
-      <c r="I20" s="101"/>
+      <c r="H20" s="99"/>
+      <c r="I20" s="99"/>
       <c r="J20" s="38">
         <f>IFERROR(VLOOKUP(B1,Adatok!B1:U13,13,FALSE), 0)</f>
         <v>0</v>
@@ -2139,13 +2172,13 @@
       <c r="L20" s="11"/>
     </row>
     <row r="21" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="87" t="s">
+      <c r="A21" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="88"/>
-      <c r="C21" s="88"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="89"/>
+      <c r="B21" s="102"/>
+      <c r="C21" s="102"/>
+      <c r="D21" s="102"/>
+      <c r="E21" s="103"/>
       <c r="G21" s="24"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
@@ -2185,12 +2218,12 @@
       </c>
       <c r="I23" s="60"/>
       <c r="J23" s="60"/>
-      <c r="K23" s="84">
+      <c r="K23" s="81">
         <f>SUM(D22:E31)</f>
         <v>0</v>
       </c>
-      <c r="L23" s="84"/>
-      <c r="M23" s="84"/>
+      <c r="L23" s="81"/>
+      <c r="M23" s="81"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
@@ -2234,17 +2267,17 @@
         <v>0</v>
       </c>
       <c r="E26" s="95"/>
-      <c r="H26" s="109" t="s">
+      <c r="H26" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="I26" s="109"/>
-      <c r="J26" s="109"/>
-      <c r="K26" s="84">
+      <c r="I26" s="78"/>
+      <c r="J26" s="78"/>
+      <c r="K26" s="81">
         <f>K14-K23</f>
         <v>0</v>
       </c>
-      <c r="L26" s="84"/>
-      <c r="M26" s="84"/>
+      <c r="L26" s="81"/>
+      <c r="M26" s="81"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
@@ -2295,35 +2328,35 @@
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
-      <c r="D30" s="84">
+      <c r="D30" s="81">
         <f>IFERROR(I53/10, 0)</f>
         <v>0</v>
       </c>
-      <c r="E30" s="103"/>
+      <c r="E30" s="104"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="51" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B31" s="51"/>
       <c r="C31" s="6"/>
-      <c r="D31" s="84">
+      <c r="D31" s="81">
         <f>IF(Q12="Hajó",S12,0)</f>
         <v>0</v>
       </c>
-      <c r="E31" s="103"/>
+      <c r="E31" s="104"/>
     </row>
     <row r="32" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A32" s="25" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="66" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B33" s="67"/>
       <c r="C33" s="67"/>
@@ -2342,7 +2375,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="63" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B34" s="61"/>
       <c r="C34" s="61"/>
@@ -2358,24 +2391,24 @@
       <c r="H34" s="52"/>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
-      <c r="K34" s="90">
+      <c r="K34" s="84">
         <f>IFERROR(VLOOKUP(B1,Adatok!B1:U13,16,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="L34" s="90"/>
-      <c r="M34" s="91"/>
+      <c r="L34" s="84"/>
+      <c r="M34" s="85"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="65" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B35" s="62"/>
       <c r="C35" s="62" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D35" s="62"/>
       <c r="E35" s="64" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F35" s="11"/>
       <c r="G35" s="7" t="s">
@@ -2384,24 +2417,24 @@
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
-      <c r="K35" s="96">
+      <c r="K35" s="76">
         <f>IFERROR(VLOOKUP(B1,Adatok!B1:U13,17,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="L35" s="96"/>
-      <c r="M35" s="97"/>
+      <c r="L35" s="76"/>
+      <c r="M35" s="77"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="35" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="36" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D36" s="31"/>
       <c r="E36" s="37" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F36" s="11"/>
       <c r="G36" s="7" t="s">
@@ -2410,24 +2443,24 @@
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
-      <c r="K36" s="96">
+      <c r="K36" s="76">
         <f>IFERROR(VLOOKUP(B1,Adatok!B1:U13,18,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="L36" s="96"/>
-      <c r="M36" s="97"/>
+      <c r="L36" s="76"/>
+      <c r="M36" s="77"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="35" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="36" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D37" s="31"/>
       <c r="E37" s="37" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F37" s="11"/>
       <c r="G37" s="52" t="s">
@@ -2436,24 +2469,24 @@
       <c r="H37" s="52"/>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
-      <c r="K37" s="96">
+      <c r="K37" s="76">
         <f>IFERROR(VLOOKUP(B1,Adatok!B1:U13,19,FALSE)+IF(Q13="Nagy TV",R13,0), 0)</f>
         <v>0</v>
       </c>
-      <c r="L37" s="96"/>
-      <c r="M37" s="97"/>
+      <c r="L37" s="76"/>
+      <c r="M37" s="77"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="35" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="36" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D38" s="31"/>
       <c r="E38" s="37" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F38" s="11"/>
       <c r="G38" s="7" t="s">
@@ -2462,62 +2495,62 @@
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
-      <c r="K38" s="96">
+      <c r="K38" s="76">
         <f>IFERROR(VLOOKUP(B1,Adatok!B1:U13,20,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="L38" s="96"/>
-      <c r="M38" s="97"/>
+      <c r="L38" s="76"/>
+      <c r="M38" s="77"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="35" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="36" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D39" s="31"/>
       <c r="E39" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="G39" s="79" t="s">
         <v>104</v>
       </c>
-      <c r="G39" s="110" t="s">
-        <v>106</v>
-      </c>
-      <c r="H39" s="111"/>
-      <c r="I39" s="111"/>
-      <c r="J39" s="111"/>
-      <c r="K39" s="96">
+      <c r="H39" s="80"/>
+      <c r="I39" s="80"/>
+      <c r="J39" s="80"/>
+      <c r="K39" s="76">
         <f>IF(Q12="Hajó",R12,0)</f>
         <v>0</v>
       </c>
-      <c r="L39" s="96"/>
-      <c r="M39" s="97"/>
+      <c r="L39" s="76"/>
+      <c r="M39" s="77"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="35" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="36" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D40" s="31"/>
       <c r="E40" s="37" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="35" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B41" s="6"/>
       <c r="C41" s="36" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D41" s="31"/>
       <c r="E41" s="37" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -2526,11 +2559,11 @@
       </c>
       <c r="B42" s="7"/>
       <c r="C42" s="62" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D42" s="62"/>
       <c r="E42" s="64" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F42" s="11"/>
       <c r="G42" s="51" t="s">
@@ -2539,11 +2572,11 @@
       <c r="H42" s="51"/>
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
-      <c r="K42" s="105" t="s">
+      <c r="K42" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="L42" s="105"/>
-      <c r="M42" s="112"/>
+      <c r="L42" s="82"/>
+      <c r="M42" s="83"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="33" t="str">
@@ -2552,26 +2585,26 @@
       </c>
       <c r="B43" s="31"/>
       <c r="C43" s="49" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="73" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F43" s="8"/>
-      <c r="G43" s="106" t="str">
+      <c r="G43" s="87" t="str">
         <f t="shared" ref="G43:G47" si="1">A43</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H43" s="107"/>
-      <c r="I43" s="107"/>
+      <c r="H43" s="88"/>
+      <c r="I43" s="88"/>
       <c r="J43" s="48"/>
-      <c r="K43" s="96">
+      <c r="K43" s="76">
         <f t="shared" ref="K43:K52" si="2">IFERROR(E43-C43, 0)</f>
         <v>0</v>
       </c>
-      <c r="L43" s="96"/>
-      <c r="M43" s="97"/>
+      <c r="L43" s="76"/>
+      <c r="M43" s="77"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="33" t="str">
@@ -2580,26 +2613,26 @@
       </c>
       <c r="B44" s="31"/>
       <c r="C44" s="49" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="73" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F44" s="8"/>
-      <c r="G44" s="106" t="str">
+      <c r="G44" s="87" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H44" s="107"/>
-      <c r="I44" s="107"/>
+      <c r="H44" s="88"/>
+      <c r="I44" s="88"/>
       <c r="J44" s="48"/>
-      <c r="K44" s="96">
+      <c r="K44" s="76">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L44" s="96"/>
-      <c r="M44" s="97"/>
+      <c r="L44" s="76"/>
+      <c r="M44" s="77"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="33" t="str">
@@ -2608,26 +2641,26 @@
       </c>
       <c r="B45" s="31"/>
       <c r="C45" s="49" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="73" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F45" s="8"/>
-      <c r="G45" s="106" t="str">
+      <c r="G45" s="87" t="str">
         <f t="shared" ref="G45" si="3">A45</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H45" s="107"/>
-      <c r="I45" s="107"/>
+      <c r="H45" s="88"/>
+      <c r="I45" s="88"/>
       <c r="J45" s="48"/>
-      <c r="K45" s="96">
+      <c r="K45" s="76">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L45" s="96"/>
-      <c r="M45" s="97"/>
+      <c r="L45" s="76"/>
+      <c r="M45" s="77"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="33" t="str">
@@ -2636,26 +2669,26 @@
       </c>
       <c r="B46" s="31"/>
       <c r="C46" s="49" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D46" s="6"/>
       <c r="E46" s="73" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F46" s="8"/>
-      <c r="G46" s="106" t="str">
+      <c r="G46" s="87" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H46" s="107"/>
-      <c r="I46" s="107"/>
+      <c r="H46" s="88"/>
+      <c r="I46" s="88"/>
       <c r="J46" s="48"/>
-      <c r="K46" s="96">
+      <c r="K46" s="76">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L46" s="96"/>
-      <c r="M46" s="97"/>
+      <c r="L46" s="76"/>
+      <c r="M46" s="77"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="33" t="str">
@@ -2664,26 +2697,26 @@
       </c>
       <c r="B47" s="31"/>
       <c r="C47" s="49" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D47" s="6"/>
       <c r="E47" s="73" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F47" s="8"/>
-      <c r="G47" s="106" t="str">
+      <c r="G47" s="87" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H47" s="107"/>
-      <c r="I47" s="107"/>
+      <c r="H47" s="88"/>
+      <c r="I47" s="88"/>
       <c r="J47" s="48"/>
-      <c r="K47" s="96">
+      <c r="K47" s="76">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L47" s="96"/>
-      <c r="M47" s="97"/>
+      <c r="L47" s="76"/>
+      <c r="M47" s="77"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="33" t="str">
@@ -2692,26 +2725,26 @@
       </c>
       <c r="B48" s="31"/>
       <c r="C48" s="49" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D48" s="6"/>
       <c r="E48" s="73" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F48" s="8"/>
-      <c r="G48" s="106" t="str">
+      <c r="G48" s="87" t="str">
         <f>A48</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H48" s="107"/>
-      <c r="I48" s="107"/>
+      <c r="H48" s="88"/>
+      <c r="I48" s="88"/>
       <c r="J48" s="48"/>
-      <c r="K48" s="96">
+      <c r="K48" s="76">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L48" s="96"/>
-      <c r="M48" s="97"/>
+      <c r="L48" s="76"/>
+      <c r="M48" s="77"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="33" t="str">
@@ -2720,26 +2753,26 @@
       </c>
       <c r="B49" s="31"/>
       <c r="C49" s="49" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="73" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F49" s="11"/>
-      <c r="G49" s="106" t="str">
+      <c r="G49" s="87" t="str">
         <f t="shared" ref="G49:G51" si="5">A49</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H49" s="107"/>
-      <c r="I49" s="107"/>
+      <c r="H49" s="88"/>
+      <c r="I49" s="88"/>
       <c r="J49" s="48"/>
-      <c r="K49" s="96">
+      <c r="K49" s="76">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L49" s="96"/>
-      <c r="M49" s="97"/>
+      <c r="L49" s="76"/>
+      <c r="M49" s="77"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="33" t="str">
@@ -2748,25 +2781,25 @@
       </c>
       <c r="B50" s="31"/>
       <c r="C50" s="49" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D50" s="6"/>
       <c r="E50" s="73" t="s">
-        <v>104</v>
-      </c>
-      <c r="G50" s="106" t="str">
+        <v>102</v>
+      </c>
+      <c r="G50" s="87" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H50" s="107"/>
-      <c r="I50" s="107"/>
+      <c r="H50" s="88"/>
+      <c r="I50" s="88"/>
       <c r="J50" s="48"/>
-      <c r="K50" s="96">
+      <c r="K50" s="76">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L50" s="96"/>
-      <c r="M50" s="97"/>
+      <c r="L50" s="76"/>
+      <c r="M50" s="77"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="33" t="str">
@@ -2775,25 +2808,25 @@
       </c>
       <c r="B51" s="31"/>
       <c r="C51" s="49" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D51" s="6"/>
       <c r="E51" s="73" t="s">
-        <v>104</v>
-      </c>
-      <c r="G51" s="106" t="str">
+        <v>102</v>
+      </c>
+      <c r="G51" s="87" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H51" s="107"/>
-      <c r="I51" s="107"/>
+      <c r="H51" s="88"/>
+      <c r="I51" s="88"/>
       <c r="J51" s="48"/>
-      <c r="K51" s="96">
+      <c r="K51" s="76">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L51" s="96"/>
-      <c r="M51" s="97"/>
+      <c r="L51" s="76"/>
+      <c r="M51" s="77"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="33" t="str">
@@ -2802,38 +2835,38 @@
       </c>
       <c r="B52" s="31"/>
       <c r="C52" s="49" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D52" s="6"/>
       <c r="E52" s="73" t="s">
-        <v>104</v>
-      </c>
-      <c r="G52" s="106" t="str">
+        <v>102</v>
+      </c>
+      <c r="G52" s="87" t="str">
         <f>A52</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H52" s="107"/>
-      <c r="I52" s="107"/>
+      <c r="H52" s="88"/>
+      <c r="I52" s="88"/>
       <c r="J52" s="48"/>
-      <c r="K52" s="96">
+      <c r="K52" s="76">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L52" s="96"/>
-      <c r="M52" s="97"/>
+      <c r="L52" s="76"/>
+      <c r="M52" s="77"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G53" s="104" t="s">
+      <c r="G53" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="H53" s="105"/>
-      <c r="I53" s="108" t="s">
-        <v>104</v>
-      </c>
-      <c r="J53" s="108"/>
-      <c r="K53" s="108"/>
-      <c r="L53" s="108"/>
-      <c r="M53" s="108"/>
+      <c r="H53" s="82"/>
+      <c r="I53" s="89" t="s">
+        <v>102</v>
+      </c>
+      <c r="J53" s="89"/>
+      <c r="K53" s="89"/>
+      <c r="L53" s="89"/>
+      <c r="M53" s="89"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" selectLockedCells="1"/>
@@ -2841,21 +2874,59 @@
     <protectedRange sqref="B1 I1 I4 B7:B9 D7:E9 D11:E20 R8 Q12:Q13 J18 A36:A41 C36:C41 E36:E41 C43:C52 E43:E52 J53 A11:B20" name="data"/>
   </protectedRanges>
   <mergeCells count="84">
-    <mergeCell ref="K45:M45"/>
-    <mergeCell ref="K46:M46"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="K42:M42"/>
-    <mergeCell ref="K38:M38"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="K43:M43"/>
-    <mergeCell ref="K44:M44"/>
-    <mergeCell ref="K48:M48"/>
-    <mergeCell ref="K49:M49"/>
-    <mergeCell ref="K50:M50"/>
-    <mergeCell ref="K51:M51"/>
-    <mergeCell ref="K52:M52"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="G9:J10"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="K35:M35"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="D17:E17"/>
     <mergeCell ref="G53:H53"/>
     <mergeCell ref="K36:M36"/>
     <mergeCell ref="K37:M37"/>
@@ -2872,59 +2943,21 @@
     <mergeCell ref="G52:I52"/>
     <mergeCell ref="I53:M53"/>
     <mergeCell ref="K47:M47"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="K35:M35"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="G9:J10"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="K48:M48"/>
+    <mergeCell ref="K49:M49"/>
+    <mergeCell ref="K50:M50"/>
+    <mergeCell ref="K51:M51"/>
+    <mergeCell ref="K52:M52"/>
+    <mergeCell ref="K45:M45"/>
+    <mergeCell ref="K46:M46"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="G39:J39"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="K42:M42"/>
+    <mergeCell ref="K38:M38"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="K43:M43"/>
+    <mergeCell ref="K44:M44"/>
   </mergeCells>
   <conditionalFormatting sqref="K8:M8">
     <cfRule type="expression" dxfId="45" priority="36">
@@ -3192,17 +3225,17 @@
       <c r="A1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="118" t="s">
+      <c r="F1" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="118"/>
-      <c r="H1" s="117" t="str">
+      <c r="G1" s="129"/>
+      <c r="H1" s="115" t="str">
         <f>Mókuskerék!I1</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="117"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -3215,110 +3248,110 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="120" t="s">
+      <c r="A4" s="131" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
+      <c r="B4" s="131"/>
+      <c r="C4" s="131"/>
+      <c r="D4" s="131"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="118" t="s">
+      <c r="F4" s="129" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="118"/>
-      <c r="H4" s="117" t="str">
+      <c r="G4" s="129"/>
+      <c r="H4" s="115" t="str">
         <f>Mókuskerék!I4</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="I4" s="117"/>
-      <c r="J4" s="117"/>
-      <c r="K4" s="117"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="115"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="120"/>
-      <c r="B5" s="120"/>
-      <c r="C5" s="120"/>
-      <c r="D5" s="120"/>
+      <c r="A5" s="131"/>
+      <c r="B5" s="131"/>
+      <c r="C5" s="131"/>
+      <c r="D5" s="131"/>
       <c r="E5" s="3"/>
       <c r="H5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="120"/>
-      <c r="B6" s="120"/>
-      <c r="C6" s="120"/>
-      <c r="D6" s="120"/>
+      <c r="A6" s="131"/>
+      <c r="B6" s="131"/>
+      <c r="C6" s="131"/>
+      <c r="D6" s="131"/>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="120" t="s">
+      <c r="A7" s="131" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="120"/>
-      <c r="C7" s="120"/>
-      <c r="D7" s="120"/>
+      <c r="B7" s="131"/>
+      <c r="C7" s="131"/>
+      <c r="D7" s="131"/>
       <c r="E7" s="3"/>
       <c r="L7" s="6"/>
     </row>
     <row r="8" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="120"/>
-      <c r="B8" s="120"/>
-      <c r="C8" s="120"/>
-      <c r="D8" s="120"/>
-      <c r="F8" s="119" t="s">
+      <c r="A8" s="131"/>
+      <c r="B8" s="131"/>
+      <c r="C8" s="131"/>
+      <c r="D8" s="131"/>
+      <c r="F8" s="130" t="s">
         <v>46</v>
       </c>
-      <c r="G8" s="119"/>
-      <c r="H8" s="119"/>
-      <c r="I8" s="119"/>
-      <c r="J8" s="119"/>
+      <c r="G8" s="130"/>
+      <c r="H8" s="130"/>
+      <c r="I8" s="130"/>
+      <c r="J8" s="130"/>
       <c r="K8" s="13"/>
       <c r="M8" s="10"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="120"/>
-      <c r="B9" s="120"/>
-      <c r="C9" s="120"/>
-      <c r="D9" s="120"/>
+      <c r="A9" s="131"/>
+      <c r="B9" s="131"/>
+      <c r="C9" s="131"/>
+      <c r="D9" s="131"/>
       <c r="F9" s="10" t="s">
         <v>51</v>
       </c>
       <c r="M9" s="10"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="113" t="s">
+      <c r="A10" s="125" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="113"/>
-      <c r="C10" s="113"/>
+      <c r="B10" s="125"/>
+      <c r="C10" s="125"/>
       <c r="F10" s="10"/>
       <c r="G10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J10" s="84">
+      <c r="J10" s="81">
         <f>_xlfn.FLOOR.MATH(Mókuskerék!K8,10)</f>
         <v>0</v>
       </c>
-      <c r="K10" s="84"/>
-      <c r="L10" s="84"/>
+      <c r="K10" s="81"/>
+      <c r="L10" s="81"/>
       <c r="M10" s="10"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="114" t="s">
+      <c r="A11" s="126" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="114"/>
-      <c r="C11" s="114"/>
-      <c r="D11" s="114"/>
-      <c r="E11" s="114"/>
+      <c r="B11" s="126"/>
+      <c r="C11" s="126"/>
+      <c r="D11" s="126"/>
+      <c r="E11" s="126"/>
       <c r="F11" s="10"/>
       <c r="H11" s="1" t="s">
         <v>47</v>
       </c>
       <c r="J11" s="8"/>
       <c r="K11" s="30" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L11" s="32">
         <v>100</v>
@@ -3335,21 +3368,21 @@
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
-      <c r="J12" s="84">
+      <c r="J12" s="81">
         <f>J10*L11</f>
         <v>0</v>
       </c>
-      <c r="K12" s="84"/>
-      <c r="L12" s="84"/>
+      <c r="K12" s="81"/>
+      <c r="L12" s="81"/>
       <c r="M12" s="10"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="121" t="s">
+      <c r="A13" s="132" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="121"/>
-      <c r="C13" s="121"/>
-      <c r="D13" s="121"/>
+      <c r="B13" s="132"/>
+      <c r="C13" s="132"/>
+      <c r="D13" s="132"/>
       <c r="F13" s="12"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
@@ -3359,33 +3392,33 @@
       <c r="L13" s="19"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="121"/>
-      <c r="B14" s="121"/>
-      <c r="C14" s="121"/>
-      <c r="D14" s="121"/>
+      <c r="A14" s="132"/>
+      <c r="B14" s="132"/>
+      <c r="C14" s="132"/>
+      <c r="D14" s="132"/>
       <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="121"/>
-      <c r="B15" s="121"/>
-      <c r="C15" s="121"/>
-      <c r="D15" s="121"/>
+      <c r="A15" s="132"/>
+      <c r="B15" s="132"/>
+      <c r="C15" s="132"/>
+      <c r="D15" s="132"/>
       <c r="E15" s="8"/>
-      <c r="F15" s="126" t="s">
+      <c r="F15" s="123" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="127"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="127"/>
-      <c r="J15" s="127"/>
-      <c r="K15" s="127"/>
-      <c r="L15" s="127"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="124"/>
+      <c r="I15" s="124"/>
+      <c r="J15" s="124"/>
+      <c r="K15" s="124"/>
+      <c r="L15" s="124"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="121"/>
-      <c r="B16" s="121"/>
-      <c r="C16" s="121"/>
-      <c r="D16" s="121"/>
+      <c r="A16" s="132"/>
+      <c r="B16" s="132"/>
+      <c r="C16" s="132"/>
+      <c r="D16" s="132"/>
       <c r="F16" s="15"/>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
@@ -3395,30 +3428,30 @@
       <c r="L16" s="16"/>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="122" t="s">
+      <c r="A17" s="133" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="122"/>
-      <c r="C17" s="122"/>
-      <c r="D17" s="122"/>
+      <c r="B17" s="133"/>
+      <c r="C17" s="133"/>
+      <c r="D17" s="133"/>
       <c r="F17" s="10" t="s">
         <v>48</v>
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
-      <c r="J17" s="84">
+      <c r="J17" s="81">
         <f>J12</f>
         <v>0</v>
       </c>
-      <c r="K17" s="84"/>
-      <c r="L17" s="84"/>
+      <c r="K17" s="81"/>
+      <c r="L17" s="81"/>
     </row>
     <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="122"/>
-      <c r="B18" s="122"/>
-      <c r="C18" s="122"/>
-      <c r="D18" s="122"/>
+      <c r="A18" s="133"/>
+      <c r="B18" s="133"/>
+      <c r="C18" s="133"/>
+      <c r="D18" s="133"/>
       <c r="F18" s="10"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
@@ -3428,40 +3461,40 @@
       <c r="L18" s="11"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="122"/>
-      <c r="B19" s="122"/>
-      <c r="C19" s="122"/>
-      <c r="D19" s="122"/>
-      <c r="F19" s="123" t="s">
-        <v>102</v>
-      </c>
-      <c r="G19" s="124"/>
-      <c r="H19" s="124"/>
-      <c r="I19" s="124"/>
+      <c r="A19" s="133"/>
+      <c r="B19" s="133"/>
+      <c r="C19" s="133"/>
+      <c r="D19" s="133"/>
+      <c r="F19" s="120" t="s">
+        <v>100</v>
+      </c>
+      <c r="G19" s="121"/>
+      <c r="H19" s="121"/>
+      <c r="I19" s="121"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="11"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="122"/>
-      <c r="B20" s="122"/>
-      <c r="C20" s="122"/>
-      <c r="D20" s="122"/>
-      <c r="F20" s="123"/>
-      <c r="G20" s="124"/>
-      <c r="H20" s="124"/>
-      <c r="I20" s="124"/>
-      <c r="J20" s="84">
+      <c r="A20" s="133"/>
+      <c r="B20" s="133"/>
+      <c r="C20" s="133"/>
+      <c r="D20" s="133"/>
+      <c r="F20" s="120"/>
+      <c r="G20" s="121"/>
+      <c r="H20" s="121"/>
+      <c r="I20" s="121"/>
+      <c r="J20" s="81">
         <v>50000</v>
       </c>
-      <c r="K20" s="84"/>
-      <c r="L20" s="84"/>
+      <c r="K20" s="81"/>
+      <c r="L20" s="81"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="122"/>
-      <c r="B21" s="122"/>
-      <c r="C21" s="122"/>
-      <c r="D21" s="122"/>
+      <c r="A21" s="133"/>
+      <c r="B21" s="133"/>
+      <c r="C21" s="133"/>
+      <c r="D21" s="133"/>
       <c r="F21" s="17"/>
       <c r="G21" s="18"/>
       <c r="H21" s="18"/>
@@ -3471,41 +3504,41 @@
       <c r="L21" s="11"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="122"/>
-      <c r="B22" s="122"/>
-      <c r="C22" s="122"/>
-      <c r="D22" s="122"/>
-      <c r="F22" s="115" t="s">
+      <c r="A22" s="133"/>
+      <c r="B22" s="133"/>
+      <c r="C22" s="133"/>
+      <c r="D22" s="133"/>
+      <c r="F22" s="127" t="s">
         <v>52</v>
       </c>
-      <c r="G22" s="116"/>
-      <c r="H22" s="116"/>
-      <c r="I22" s="116"/>
+      <c r="G22" s="128"/>
+      <c r="H22" s="128"/>
+      <c r="I22" s="128"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="11"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="122"/>
-      <c r="B23" s="122"/>
-      <c r="C23" s="122"/>
-      <c r="D23" s="122"/>
-      <c r="F23" s="115"/>
-      <c r="G23" s="116"/>
-      <c r="H23" s="116"/>
-      <c r="I23" s="116"/>
-      <c r="J23" s="84">
+      <c r="A23" s="133"/>
+      <c r="B23" s="133"/>
+      <c r="C23" s="133"/>
+      <c r="D23" s="133"/>
+      <c r="F23" s="127"/>
+      <c r="G23" s="128"/>
+      <c r="H23" s="128"/>
+      <c r="I23" s="128"/>
+      <c r="J23" s="81">
         <f>J17+J20</f>
         <v>50000</v>
       </c>
-      <c r="K23" s="84"/>
-      <c r="L23" s="84"/>
+      <c r="K23" s="81"/>
+      <c r="L23" s="81"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="122"/>
-      <c r="B24" s="122"/>
-      <c r="C24" s="122"/>
-      <c r="D24" s="122"/>
+      <c r="A24" s="133"/>
+      <c r="B24" s="133"/>
+      <c r="C24" s="133"/>
+      <c r="D24" s="133"/>
       <c r="F24" s="12"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
@@ -3515,29 +3548,29 @@
       <c r="L24" s="19"/>
     </row>
     <row r="27" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="130" t="s">
+      <c r="A27" s="117" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="131"/>
-      <c r="C27" s="131"/>
-      <c r="D27" s="131"/>
-      <c r="E27" s="131"/>
-      <c r="F27" s="131"/>
-      <c r="G27" s="131"/>
-      <c r="H27" s="131"/>
-      <c r="I27" s="131"/>
-      <c r="J27" s="131"/>
-      <c r="K27" s="131"/>
-      <c r="L27" s="132"/>
+      <c r="B27" s="118"/>
+      <c r="C27" s="118"/>
+      <c r="D27" s="118"/>
+      <c r="E27" s="118"/>
+      <c r="F27" s="118"/>
+      <c r="G27" s="118"/>
+      <c r="H27" s="118"/>
+      <c r="I27" s="118"/>
+      <c r="J27" s="118"/>
+      <c r="K27" s="118"/>
+      <c r="L27" s="119"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="123" t="s">
+      <c r="A28" s="120" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="124"/>
-      <c r="C28" s="124"/>
-      <c r="D28" s="124"/>
-      <c r="E28" s="124"/>
+      <c r="B28" s="121"/>
+      <c r="C28" s="121"/>
+      <c r="D28" s="121"/>
+      <c r="E28" s="121"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
@@ -3547,30 +3580,30 @@
       <c r="L28" s="11"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="123"/>
-      <c r="B29" s="124"/>
-      <c r="C29" s="124"/>
-      <c r="D29" s="124"/>
-      <c r="E29" s="124"/>
-      <c r="F29" s="125" t="s">
-        <v>100</v>
-      </c>
-      <c r="G29" s="125"/>
-      <c r="H29" s="125"/>
-      <c r="I29" s="125"/>
-      <c r="J29" s="84">
+      <c r="A29" s="120"/>
+      <c r="B29" s="121"/>
+      <c r="C29" s="121"/>
+      <c r="D29" s="121"/>
+      <c r="E29" s="121"/>
+      <c r="F29" s="122" t="s">
+        <v>98</v>
+      </c>
+      <c r="G29" s="122"/>
+      <c r="H29" s="122"/>
+      <c r="I29" s="122"/>
+      <c r="J29" s="81">
         <f>SUM(J33:L54)+J17</f>
         <v>0</v>
       </c>
-      <c r="K29" s="84"/>
-      <c r="L29" s="103"/>
+      <c r="K29" s="81"/>
+      <c r="L29" s="104"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="123"/>
-      <c r="B30" s="124"/>
-      <c r="C30" s="124"/>
-      <c r="D30" s="124"/>
-      <c r="E30" s="124"/>
+      <c r="A30" s="120"/>
+      <c r="B30" s="121"/>
+      <c r="C30" s="121"/>
+      <c r="D30" s="121"/>
+      <c r="E30" s="121"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
@@ -3594,421 +3627,474 @@
       <c r="L31" s="11"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="128" t="s">
+      <c r="A32" s="114" t="s">
         <v>55</v>
       </c>
-      <c r="B32" s="117"/>
-      <c r="C32" s="117"/>
-      <c r="D32" s="117"/>
-      <c r="E32" s="117"/>
+      <c r="B32" s="115"/>
+      <c r="C32" s="115"/>
+      <c r="D32" s="115"/>
+      <c r="E32" s="115"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
-      <c r="J32" s="117" t="s">
+      <c r="J32" s="115" t="s">
         <v>56</v>
       </c>
-      <c r="K32" s="117"/>
-      <c r="L32" s="129"/>
+      <c r="K32" s="115"/>
+      <c r="L32" s="116"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="78" t="s">
-        <v>104</v>
-      </c>
-      <c r="B33" s="79"/>
-      <c r="C33" s="79"/>
-      <c r="D33" s="79"/>
+      <c r="A33" s="90" t="s">
+        <v>102</v>
+      </c>
+      <c r="B33" s="91"/>
+      <c r="C33" s="91"/>
+      <c r="D33" s="91"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
-      <c r="J33" s="108"/>
-      <c r="K33" s="108"/>
-      <c r="L33" s="133"/>
+      <c r="J33" s="89"/>
+      <c r="K33" s="89"/>
+      <c r="L33" s="113"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="78" t="s">
-        <v>104</v>
-      </c>
-      <c r="B34" s="79"/>
-      <c r="C34" s="79"/>
-      <c r="D34" s="79"/>
+      <c r="A34" s="90" t="s">
+        <v>102</v>
+      </c>
+      <c r="B34" s="91"/>
+      <c r="C34" s="91"/>
+      <c r="D34" s="91"/>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
-      <c r="J34" s="108" t="s">
-        <v>104</v>
-      </c>
-      <c r="K34" s="108"/>
-      <c r="L34" s="133"/>
+      <c r="J34" s="89" t="s">
+        <v>102</v>
+      </c>
+      <c r="K34" s="89"/>
+      <c r="L34" s="113"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="78" t="s">
-        <v>104</v>
-      </c>
-      <c r="B35" s="79"/>
-      <c r="C35" s="79"/>
-      <c r="D35" s="79"/>
+      <c r="A35" s="90" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" s="91"/>
+      <c r="C35" s="91"/>
+      <c r="D35" s="91"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
-      <c r="J35" s="108" t="s">
-        <v>104</v>
-      </c>
-      <c r="K35" s="108"/>
-      <c r="L35" s="133"/>
+      <c r="J35" s="89" t="s">
+        <v>102</v>
+      </c>
+      <c r="K35" s="89"/>
+      <c r="L35" s="113"/>
       <c r="O35" s="75"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="78" t="s">
-        <v>104</v>
-      </c>
-      <c r="B36" s="79"/>
-      <c r="C36" s="79"/>
-      <c r="D36" s="79"/>
+      <c r="A36" s="90" t="s">
+        <v>102</v>
+      </c>
+      <c r="B36" s="91"/>
+      <c r="C36" s="91"/>
+      <c r="D36" s="91"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
-      <c r="J36" s="108" t="s">
-        <v>104</v>
-      </c>
-      <c r="K36" s="108"/>
-      <c r="L36" s="133"/>
+      <c r="J36" s="89" t="s">
+        <v>102</v>
+      </c>
+      <c r="K36" s="89"/>
+      <c r="L36" s="113"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="78" t="s">
-        <v>104</v>
-      </c>
-      <c r="B37" s="79"/>
-      <c r="C37" s="79"/>
-      <c r="D37" s="79"/>
+      <c r="A37" s="90" t="s">
+        <v>102</v>
+      </c>
+      <c r="B37" s="91"/>
+      <c r="C37" s="91"/>
+      <c r="D37" s="91"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
-      <c r="J37" s="108" t="s">
-        <v>104</v>
-      </c>
-      <c r="K37" s="108"/>
-      <c r="L37" s="133"/>
+      <c r="J37" s="89" t="s">
+        <v>102</v>
+      </c>
+      <c r="K37" s="89"/>
+      <c r="L37" s="113"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="78" t="s">
-        <v>104</v>
-      </c>
-      <c r="B38" s="79"/>
-      <c r="C38" s="79"/>
-      <c r="D38" s="79"/>
+      <c r="A38" s="90" t="s">
+        <v>102</v>
+      </c>
+      <c r="B38" s="91"/>
+      <c r="C38" s="91"/>
+      <c r="D38" s="91"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
-      <c r="J38" s="108" t="s">
-        <v>104</v>
-      </c>
-      <c r="K38" s="108"/>
-      <c r="L38" s="133"/>
+      <c r="J38" s="89" t="s">
+        <v>102</v>
+      </c>
+      <c r="K38" s="89"/>
+      <c r="L38" s="113"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="78" t="s">
-        <v>104</v>
-      </c>
-      <c r="B39" s="79"/>
-      <c r="C39" s="79"/>
-      <c r="D39" s="79"/>
+      <c r="A39" s="90" t="s">
+        <v>102</v>
+      </c>
+      <c r="B39" s="91"/>
+      <c r="C39" s="91"/>
+      <c r="D39" s="91"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
-      <c r="J39" s="108" t="s">
-        <v>104</v>
-      </c>
-      <c r="K39" s="108"/>
-      <c r="L39" s="133"/>
+      <c r="J39" s="89" t="s">
+        <v>102</v>
+      </c>
+      <c r="K39" s="89"/>
+      <c r="L39" s="113"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="78" t="s">
-        <v>104</v>
-      </c>
-      <c r="B40" s="79"/>
-      <c r="C40" s="79"/>
-      <c r="D40" s="79"/>
+      <c r="A40" s="90" t="s">
+        <v>102</v>
+      </c>
+      <c r="B40" s="91"/>
+      <c r="C40" s="91"/>
+      <c r="D40" s="91"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
-      <c r="J40" s="108" t="s">
-        <v>104</v>
-      </c>
-      <c r="K40" s="108"/>
-      <c r="L40" s="133"/>
+      <c r="J40" s="89" t="s">
+        <v>102</v>
+      </c>
+      <c r="K40" s="89"/>
+      <c r="L40" s="113"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="78" t="s">
-        <v>104</v>
-      </c>
-      <c r="B41" s="79"/>
-      <c r="C41" s="79"/>
-      <c r="D41" s="79"/>
+      <c r="A41" s="90" t="s">
+        <v>102</v>
+      </c>
+      <c r="B41" s="91"/>
+      <c r="C41" s="91"/>
+      <c r="D41" s="91"/>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
-      <c r="J41" s="108" t="s">
-        <v>104</v>
-      </c>
-      <c r="K41" s="108"/>
-      <c r="L41" s="133"/>
+      <c r="J41" s="89" t="s">
+        <v>102</v>
+      </c>
+      <c r="K41" s="89"/>
+      <c r="L41" s="113"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="78" t="s">
-        <v>104</v>
-      </c>
-      <c r="B42" s="79"/>
-      <c r="C42" s="79"/>
-      <c r="D42" s="79"/>
+      <c r="A42" s="90" t="s">
+        <v>102</v>
+      </c>
+      <c r="B42" s="91"/>
+      <c r="C42" s="91"/>
+      <c r="D42" s="91"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
-      <c r="J42" s="108" t="s">
-        <v>104</v>
-      </c>
-      <c r="K42" s="108"/>
-      <c r="L42" s="133"/>
+      <c r="J42" s="89" t="s">
+        <v>102</v>
+      </c>
+      <c r="K42" s="89"/>
+      <c r="L42" s="113"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="78" t="s">
-        <v>104</v>
-      </c>
-      <c r="B43" s="79"/>
-      <c r="C43" s="79"/>
-      <c r="D43" s="79"/>
+      <c r="A43" s="90" t="s">
+        <v>102</v>
+      </c>
+      <c r="B43" s="91"/>
+      <c r="C43" s="91"/>
+      <c r="D43" s="91"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
-      <c r="J43" s="108" t="s">
-        <v>104</v>
-      </c>
-      <c r="K43" s="108"/>
-      <c r="L43" s="133"/>
+      <c r="J43" s="89" t="s">
+        <v>102</v>
+      </c>
+      <c r="K43" s="89"/>
+      <c r="L43" s="113"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="78" t="s">
-        <v>104</v>
-      </c>
-      <c r="B44" s="79"/>
-      <c r="C44" s="79"/>
-      <c r="D44" s="79"/>
+      <c r="A44" s="90" t="s">
+        <v>102</v>
+      </c>
+      <c r="B44" s="91"/>
+      <c r="C44" s="91"/>
+      <c r="D44" s="91"/>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
-      <c r="J44" s="108" t="s">
-        <v>104</v>
-      </c>
-      <c r="K44" s="108"/>
-      <c r="L44" s="133"/>
+      <c r="J44" s="89" t="s">
+        <v>102</v>
+      </c>
+      <c r="K44" s="89"/>
+      <c r="L44" s="113"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="78" t="s">
-        <v>104</v>
-      </c>
-      <c r="B45" s="79"/>
-      <c r="C45" s="79"/>
-      <c r="D45" s="79"/>
+      <c r="A45" s="90" t="s">
+        <v>102</v>
+      </c>
+      <c r="B45" s="91"/>
+      <c r="C45" s="91"/>
+      <c r="D45" s="91"/>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
-      <c r="J45" s="108" t="s">
-        <v>104</v>
-      </c>
-      <c r="K45" s="108"/>
-      <c r="L45" s="133"/>
+      <c r="J45" s="89" t="s">
+        <v>102</v>
+      </c>
+      <c r="K45" s="89"/>
+      <c r="L45" s="113"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" s="78" t="s">
-        <v>104</v>
-      </c>
-      <c r="B46" s="79"/>
-      <c r="C46" s="79"/>
-      <c r="D46" s="79"/>
+      <c r="A46" s="90" t="s">
+        <v>102</v>
+      </c>
+      <c r="B46" s="91"/>
+      <c r="C46" s="91"/>
+      <c r="D46" s="91"/>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
-      <c r="J46" s="108" t="s">
-        <v>104</v>
-      </c>
-      <c r="K46" s="108"/>
-      <c r="L46" s="133"/>
+      <c r="J46" s="89" t="s">
+        <v>102</v>
+      </c>
+      <c r="K46" s="89"/>
+      <c r="L46" s="113"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" s="78" t="s">
-        <v>104</v>
-      </c>
-      <c r="B47" s="79"/>
-      <c r="C47" s="79"/>
-      <c r="D47" s="79"/>
+      <c r="A47" s="90" t="s">
+        <v>102</v>
+      </c>
+      <c r="B47" s="91"/>
+      <c r="C47" s="91"/>
+      <c r="D47" s="91"/>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
-      <c r="J47" s="108" t="s">
-        <v>104</v>
-      </c>
-      <c r="K47" s="108"/>
-      <c r="L47" s="133"/>
+      <c r="J47" s="89" t="s">
+        <v>102</v>
+      </c>
+      <c r="K47" s="89"/>
+      <c r="L47" s="113"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="78" t="s">
-        <v>104</v>
-      </c>
-      <c r="B48" s="79"/>
-      <c r="C48" s="79"/>
-      <c r="D48" s="79"/>
+      <c r="A48" s="90" t="s">
+        <v>102</v>
+      </c>
+      <c r="B48" s="91"/>
+      <c r="C48" s="91"/>
+      <c r="D48" s="91"/>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
-      <c r="J48" s="108" t="s">
-        <v>104</v>
-      </c>
-      <c r="K48" s="108"/>
-      <c r="L48" s="133"/>
+      <c r="J48" s="89" t="s">
+        <v>102</v>
+      </c>
+      <c r="K48" s="89"/>
+      <c r="L48" s="113"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="78" t="s">
-        <v>104</v>
-      </c>
-      <c r="B49" s="79"/>
-      <c r="C49" s="79"/>
-      <c r="D49" s="79"/>
+      <c r="A49" s="90" t="s">
+        <v>102</v>
+      </c>
+      <c r="B49" s="91"/>
+      <c r="C49" s="91"/>
+      <c r="D49" s="91"/>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
-      <c r="J49" s="108" t="s">
-        <v>104</v>
-      </c>
-      <c r="K49" s="108"/>
-      <c r="L49" s="133"/>
+      <c r="J49" s="89" t="s">
+        <v>102</v>
+      </c>
+      <c r="K49" s="89"/>
+      <c r="L49" s="113"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="78" t="s">
-        <v>104</v>
-      </c>
-      <c r="B50" s="79"/>
-      <c r="C50" s="79"/>
-      <c r="D50" s="79"/>
+      <c r="A50" s="90" t="s">
+        <v>102</v>
+      </c>
+      <c r="B50" s="91"/>
+      <c r="C50" s="91"/>
+      <c r="D50" s="91"/>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
-      <c r="J50" s="108" t="s">
-        <v>104</v>
-      </c>
-      <c r="K50" s="108"/>
-      <c r="L50" s="133"/>
+      <c r="J50" s="89" t="s">
+        <v>102</v>
+      </c>
+      <c r="K50" s="89"/>
+      <c r="L50" s="113"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="78" t="s">
-        <v>104</v>
-      </c>
-      <c r="B51" s="79"/>
-      <c r="C51" s="79"/>
-      <c r="D51" s="79"/>
+      <c r="A51" s="90" t="s">
+        <v>102</v>
+      </c>
+      <c r="B51" s="91"/>
+      <c r="C51" s="91"/>
+      <c r="D51" s="91"/>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
       <c r="I51" s="7"/>
-      <c r="J51" s="108" t="s">
-        <v>104</v>
-      </c>
-      <c r="K51" s="108"/>
-      <c r="L51" s="133"/>
+      <c r="J51" s="89" t="s">
+        <v>102</v>
+      </c>
+      <c r="K51" s="89"/>
+      <c r="L51" s="113"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="78" t="s">
-        <v>104</v>
-      </c>
-      <c r="B52" s="79"/>
-      <c r="C52" s="79"/>
-      <c r="D52" s="79"/>
+      <c r="A52" s="90" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" s="91"/>
+      <c r="C52" s="91"/>
+      <c r="D52" s="91"/>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
-      <c r="J52" s="108" t="s">
-        <v>104</v>
-      </c>
-      <c r="K52" s="108"/>
-      <c r="L52" s="133"/>
+      <c r="J52" s="89" t="s">
+        <v>102</v>
+      </c>
+      <c r="K52" s="89"/>
+      <c r="L52" s="113"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="78" t="s">
-        <v>104</v>
-      </c>
-      <c r="B53" s="79"/>
-      <c r="C53" s="79"/>
-      <c r="D53" s="79"/>
+      <c r="A53" s="90" t="s">
+        <v>102</v>
+      </c>
+      <c r="B53" s="91"/>
+      <c r="C53" s="91"/>
+      <c r="D53" s="91"/>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
       <c r="I53" s="7"/>
-      <c r="J53" s="108" t="s">
-        <v>104</v>
-      </c>
-      <c r="K53" s="108"/>
-      <c r="L53" s="133"/>
+      <c r="J53" s="89" t="s">
+        <v>102</v>
+      </c>
+      <c r="K53" s="89"/>
+      <c r="L53" s="113"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="78" t="s">
-        <v>104</v>
-      </c>
-      <c r="B54" s="79"/>
-      <c r="C54" s="79"/>
-      <c r="D54" s="79"/>
+      <c r="A54" s="90" t="s">
+        <v>102</v>
+      </c>
+      <c r="B54" s="91"/>
+      <c r="C54" s="91"/>
+      <c r="D54" s="91"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
-      <c r="J54" s="108" t="s">
-        <v>104</v>
-      </c>
-      <c r="K54" s="108"/>
-      <c r="L54" s="133"/>
+      <c r="J54" s="89" t="s">
+        <v>102</v>
+      </c>
+      <c r="K54" s="89"/>
+      <c r="L54" s="113"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="69">
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="F22:I23"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="A4:D6"/>
+    <mergeCell ref="A7:D9"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="A13:D16"/>
+    <mergeCell ref="A17:D24"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="A28:E30"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="F19:I20"/>
+    <mergeCell ref="F15:L15"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="A27:L27"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="J43:L43"/>
+    <mergeCell ref="J44:L44"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A45:D45"/>
     <mergeCell ref="A54:D54"/>
     <mergeCell ref="J54:L54"/>
     <mergeCell ref="A52:D52"/>
@@ -4025,59 +4111,6 @@
     <mergeCell ref="J49:L49"/>
     <mergeCell ref="J50:L50"/>
     <mergeCell ref="J45:L45"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="J46:L46"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="J42:L42"/>
-    <mergeCell ref="J43:L43"/>
-    <mergeCell ref="J44:L44"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="A27:L27"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="A28:E30"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="F19:I20"/>
-    <mergeCell ref="F15:L15"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="F22:I23"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="A4:D6"/>
-    <mergeCell ref="A7:D9"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="A13:D16"/>
-    <mergeCell ref="A17:D24"/>
-    <mergeCell ref="J17:L17"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:K1">
     <cfRule type="expression" dxfId="7" priority="10">
@@ -4122,8 +4155,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:U65"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4220,7 +4253,7 @@
         <v>64</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C2" s="41">
         <v>9500</v>
@@ -4350,7 +4383,7 @@
         <v>66</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C4" s="41">
         <v>13200</v>
@@ -4480,7 +4513,7 @@
         <v>78</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C6" s="41">
         <v>1600</v>
@@ -4610,7 +4643,7 @@
         <v>80</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>89</v>
+        <v>139</v>
       </c>
       <c r="C8" s="41">
         <v>2000</v>
@@ -4675,7 +4708,7 @@
         <v>81</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C9" s="41">
         <v>3100</v>
@@ -4740,7 +4773,7 @@
         <v>82</v>
       </c>
       <c r="B10" s="39" t="s">
-        <v>91</v>
+        <v>141</v>
       </c>
       <c r="C10" s="41">
         <v>3000</v>
@@ -4805,7 +4838,7 @@
         <v>83</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C11" s="41">
         <v>2500</v>
@@ -4870,7 +4903,7 @@
         <v>84</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C12" s="41">
         <v>3300</v>
@@ -4997,16 +5030,16 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="39" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C18" s="39" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G18" s="39" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H18" s="39" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I18" s="39" t="s">
         <v>26</v>
@@ -5014,14 +5047,14 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="39" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B19" s="41"/>
       <c r="C19" s="39">
         <v>0</v>
       </c>
       <c r="G19" s="39" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H19" s="39">
         <v>17000</v>
@@ -5032,13 +5065,13 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="39" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C20" s="39">
         <v>1</v>
       </c>
       <c r="G20" s="39" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H20" s="39">
         <v>4000</v>
@@ -5049,7 +5082,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="39" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C21" s="39">
         <v>2</v>
@@ -5057,7 +5090,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="39" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C22" s="39">
         <v>3</v>
@@ -5065,29 +5098,29 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="39" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="B25" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="D25" s="74" t="s">
         <v>112</v>
       </c>
-      <c r="B25" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="C25" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="D25" s="74" t="s">
+      <c r="E25" s="39" t="s">
         <v>114</v>
-      </c>
-      <c r="E25" s="39" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="57" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="B26" s="57">
         <v>20000</v>
@@ -5102,12 +5135,12 @@
         <v>0</v>
       </c>
       <c r="G26" s="57" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="53" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="B27" s="53">
         <v>80000</v>
@@ -5122,12 +5155,12 @@
         <v>400</v>
       </c>
       <c r="G27" s="69" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="53" t="s">
-        <v>117</v>
+      <c r="A28" s="69" t="s">
+        <v>145</v>
       </c>
       <c r="B28" s="53">
         <v>140000</v>
@@ -5142,12 +5175,12 @@
         <v>2000</v>
       </c>
       <c r="G28" s="69" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="53" t="s">
-        <v>117</v>
+      <c r="A29" s="69" t="s">
+        <v>145</v>
       </c>
       <c r="B29" s="53">
         <v>100000</v>
@@ -5162,12 +5195,12 @@
         <v>800</v>
       </c>
       <c r="G29" s="69" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="53" t="s">
-        <v>117</v>
+      <c r="A30" s="69" t="s">
+        <v>145</v>
       </c>
       <c r="B30" s="53">
         <v>80000</v>
@@ -5182,12 +5215,12 @@
         <v>750</v>
       </c>
       <c r="G30" s="69" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="53" t="s">
-        <v>117</v>
+      <c r="A31" s="69" t="s">
+        <v>145</v>
       </c>
       <c r="B31" s="53">
         <v>90000</v>
@@ -5202,12 +5235,12 @@
         <v>500</v>
       </c>
       <c r="G31" s="69" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="53" t="s">
-        <v>117</v>
+      <c r="A32" s="69" t="s">
+        <v>145</v>
       </c>
       <c r="B32" s="53">
         <v>125000</v>
@@ -5222,12 +5255,12 @@
         <v>600</v>
       </c>
       <c r="G32" s="70" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="58" t="s">
-        <v>135</v>
+      <c r="A33" s="69" t="s">
+        <v>146</v>
       </c>
       <c r="B33" s="58">
         <v>220000</v>
@@ -5242,12 +5275,12 @@
         <v>1700</v>
       </c>
       <c r="G33" s="70" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="53" t="s">
-        <v>135</v>
+      <c r="A34" s="69" t="s">
+        <v>146</v>
       </c>
       <c r="B34" s="53">
         <v>160000</v>
@@ -5262,12 +5295,12 @@
         <v>1700</v>
       </c>
       <c r="G34" s="70" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="53" t="s">
-        <v>135</v>
+      <c r="A35" s="69" t="s">
+        <v>146</v>
       </c>
       <c r="B35" s="53">
         <v>200000</v>
@@ -5282,12 +5315,12 @@
         <v>1600</v>
       </c>
       <c r="G35" s="70" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="53" t="s">
-        <v>135</v>
+      <c r="A36" s="69" t="s">
+        <v>146</v>
       </c>
       <c r="B36" s="53">
         <v>240000</v>
@@ -5302,12 +5335,12 @@
         <v>950</v>
       </c>
       <c r="G36" s="70" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="53" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="B37" s="53">
         <v>1200000</v>
@@ -5322,12 +5355,12 @@
         <v>11000</v>
       </c>
       <c r="G37" s="72" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="53" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B38" s="53">
         <v>350000</v>
@@ -5342,12 +5375,12 @@
         <v>2400</v>
       </c>
       <c r="G38" s="70" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="53" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B39" s="53">
         <v>550000</v>
@@ -5362,12 +5395,12 @@
         <v>2800</v>
       </c>
       <c r="G39" s="72" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="53" t="s">
-        <v>128</v>
+      <c r="A40" s="69" t="s">
+        <v>125</v>
       </c>
       <c r="B40" s="53">
         <v>575000</v>
@@ -5384,7 +5417,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="54" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="B41" s="53">
         <v>100000</v>
@@ -5400,8 +5433,8 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="54" t="s">
-        <v>126</v>
+      <c r="A42" s="70" t="s">
+        <v>147</v>
       </c>
       <c r="B42" s="53">
         <v>125000</v>
@@ -5417,8 +5450,8 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="54" t="s">
-        <v>126</v>
+      <c r="A43" s="70" t="s">
+        <v>147</v>
       </c>
       <c r="B43" s="53">
         <v>200000</v>
@@ -5434,8 +5467,8 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="53" t="s">
-        <v>126</v>
+      <c r="A44" s="70" t="s">
+        <v>147</v>
       </c>
       <c r="B44" s="53">
         <v>150000</v>
@@ -5452,7 +5485,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="54" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="B45" s="54">
         <v>150000</v>
@@ -5469,7 +5502,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="54" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="B46" s="54">
         <v>350000</v>
@@ -5486,7 +5519,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="54" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B47" s="54">
         <v>60000</v>
@@ -5502,8 +5535,8 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="54" t="s">
-        <v>137</v>
+      <c r="A48" s="70" t="s">
+        <v>142</v>
       </c>
       <c r="B48" s="54">
         <v>60000</v>
@@ -5519,8 +5552,8 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="54" t="s">
-        <v>137</v>
+      <c r="A49" s="70" t="s">
+        <v>142</v>
       </c>
       <c r="B49" s="54">
         <v>50000</v>
@@ -5536,8 +5569,8 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="54" t="s">
-        <v>137</v>
+      <c r="A50" s="70" t="s">
+        <v>142</v>
       </c>
       <c r="B50" s="54">
         <v>45000</v>
@@ -5553,8 +5586,8 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="54" t="s">
-        <v>137</v>
+      <c r="A51" s="70" t="s">
+        <v>142</v>
       </c>
       <c r="B51" s="54">
         <v>70000</v>
@@ -5570,8 +5603,8 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="54" t="s">
-        <v>130</v>
+      <c r="A52" s="70" t="s">
+        <v>143</v>
       </c>
       <c r="B52" s="54">
         <v>65000</v>
@@ -5587,8 +5620,8 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="54" t="s">
-        <v>130</v>
+      <c r="A53" s="70" t="s">
+        <v>143</v>
       </c>
       <c r="B53" s="54">
         <v>75000</v>
@@ -5604,8 +5637,8 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="54" t="s">
-        <v>130</v>
+      <c r="A54" s="70" t="s">
+        <v>143</v>
       </c>
       <c r="B54" s="54">
         <v>115000</v>
@@ -5621,8 +5654,8 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="54" t="s">
-        <v>130</v>
+      <c r="A55" s="70" t="s">
+        <v>143</v>
       </c>
       <c r="B55" s="54">
         <v>65000</v>
@@ -5638,8 +5671,8 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="54" t="s">
-        <v>130</v>
+      <c r="A56" s="70" t="s">
+        <v>143</v>
       </c>
       <c r="B56" s="54">
         <v>125000</v>
@@ -5656,8 +5689,8 @@
       <c r="G56" s="70"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="54" t="s">
-        <v>130</v>
+      <c r="A57" s="70" t="s">
+        <v>143</v>
       </c>
       <c r="B57" s="54">
         <v>70000</v>
@@ -5674,8 +5707,8 @@
       <c r="G57" s="70"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="54" t="s">
-        <v>130</v>
+      <c r="A58" s="70" t="s">
+        <v>143</v>
       </c>
       <c r="B58" s="54">
         <v>67000</v>
@@ -5693,7 +5726,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="54" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="B59" s="54">
         <v>70000</v>
@@ -5711,7 +5744,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="54" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B60" s="54">
         <v>30000</v>
@@ -5728,8 +5761,8 @@
       <c r="G60" s="70"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="54" t="s">
-        <v>129</v>
+      <c r="A61" s="72" t="s">
+        <v>148</v>
       </c>
       <c r="B61" s="54">
         <v>30000</v>
@@ -5747,7 +5780,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="56" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="B62" s="54">
         <v>25000</v>
@@ -5764,8 +5797,8 @@
       <c r="G62" s="72"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="56" t="s">
-        <v>129</v>
+      <c r="A63" s="72" t="s">
+        <v>148</v>
       </c>
       <c r="B63" s="54">
         <v>20000</v>
@@ -5782,7 +5815,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="54" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B64" s="54">
         <v>500000</v>
@@ -5799,7 +5832,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="56" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="B65" s="70">
         <v>50000</v>

--- a/Cashflow-101_HU.xlsx
+++ b/Cashflow-101_HU.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MY_PC\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C6B5DA-0F06-4F9B-AA9A-B9EF5233C974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5667DAA-C1B6-476B-BCE1-7213EB56837F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,12 +30,20 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="165">
   <si>
     <t>Foglalkozás</t>
   </si>
@@ -371,9 +379,6 @@
     <t>3.</t>
   </si>
   <si>
-    <t>Repülő pilóta</t>
-  </si>
-  <si>
     <t>Adók</t>
   </si>
   <si>
@@ -434,36 +439,21 @@
     <t>Üzleti menedzser</t>
   </si>
   <si>
-    <t>Doktor</t>
-  </si>
-  <si>
     <t>Mérnök</t>
   </si>
   <si>
-    <t>Gondnok</t>
-  </si>
-  <si>
     <t>Ügyvéd</t>
   </si>
   <si>
-    <t>Szerelő</t>
-  </si>
-  <si>
     <t>Ápoló</t>
   </si>
   <si>
-    <t>Rendőr</t>
-  </si>
-  <si>
     <t>Titkár</t>
   </si>
   <si>
     <t>Tanár</t>
   </si>
   <si>
-    <t>Kamionsofőr</t>
-  </si>
-  <si>
     <t>Részvények</t>
   </si>
   <si>
@@ -663,6 +653,24 @@
   </si>
   <si>
     <t>Aranybánya</t>
+  </si>
+  <si>
+    <t>Portás</t>
+  </si>
+  <si>
+    <t>Teherautó vezető</t>
+  </si>
+  <si>
+    <t>Rendőrtiszt</t>
+  </si>
+  <si>
+    <t>Műszerész</t>
+  </si>
+  <si>
+    <t>Pilóta</t>
+  </si>
+  <si>
+    <t>Orvos</t>
   </si>
 </sst>
 </file>
@@ -996,7 +1004,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1113,6 +1121,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1293,8 +1302,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normál" xfId="0" builtinId="0"/>
+    <cellStyle name="Pénznem" xfId="1" builtinId="4"/>
   </cellStyles>
   <dxfs count="56">
     <dxf>
@@ -1794,8 +1803,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0CD408F2-EE3B-48F9-AE0F-01A1A0422C25}" name="Adatok" displayName="Adatok" ref="A25:E79" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" tableBorderDxfId="5">
-  <autoFilter ref="A25:E79" xr:uid="{7CF52C0D-9BF4-4C75-B1ED-7D38947321FD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0CD408F2-EE3B-48F9-AE0F-01A1A0422C25}" name="Adatok" displayName="Adatok" ref="A25:E81" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" tableBorderDxfId="5">
+  <autoFilter ref="A25:E81" xr:uid="{7CF52C0D-9BF4-4C75-B1ED-7D38947321FD}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A26:E79">
     <sortCondition ref="B25:B79"/>
   </sortState>
@@ -2104,35 +2113,35 @@
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="95" t="s">
-        <v>108</v>
-      </c>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="G1" s="93" t="s">
+      <c r="B1" s="96" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="G1" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="93"/>
-      <c r="I1" s="95" t="s">
-        <v>108</v>
-      </c>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="96" t="s">
+        <v>102</v>
+      </c>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
     </row>
     <row r="3" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
@@ -2141,22 +2150,22 @@
       <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="87" t="s">
+      <c r="A4" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="89"/>
-      <c r="G4" s="93" t="s">
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="90"/>
+      <c r="G4" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="93"/>
-      <c r="I4" s="95" t="s">
-        <v>108</v>
-      </c>
-      <c r="J4" s="95"/>
-      <c r="K4" s="95"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="96" t="s">
+        <v>102</v>
+      </c>
+      <c r="J4" s="96"/>
+      <c r="K4" s="96"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
@@ -2178,68 +2187,68 @@
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="6"/>
-      <c r="D6" s="70">
+      <c r="D6" s="71">
         <f>IFERROR(VLOOKUP(B1,Adatok!B1:C13,2,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E6" s="71"/>
+      <c r="E6" s="72"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C7" s="6"/>
-      <c r="D7" s="78" t="s">
-        <v>108</v>
-      </c>
-      <c r="E7" s="79"/>
+      <c r="D7" s="79" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" s="80"/>
     </row>
     <row r="8" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="18"/>
       <c r="B8" s="31" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C8" s="6"/>
-      <c r="D8" s="78" t="s">
-        <v>108</v>
-      </c>
-      <c r="E8" s="79"/>
-      <c r="G8" s="97" t="s">
+      <c r="D8" s="79" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" s="80"/>
+      <c r="G8" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="97"/>
-      <c r="I8" s="97"/>
-      <c r="J8" s="97"/>
-      <c r="K8" s="67">
+      <c r="H8" s="98"/>
+      <c r="I8" s="98"/>
+      <c r="J8" s="98"/>
+      <c r="K8" s="68">
         <f>SUM(D7:E20)</f>
         <v>0</v>
       </c>
-      <c r="L8" s="67"/>
-      <c r="M8" s="67"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
       <c r="Q8" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="R8" s="40"/>
     </row>
     <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="18"/>
       <c r="B9" s="31" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="D9" s="78" t="s">
-        <v>108</v>
-      </c>
-      <c r="E9" s="79"/>
-      <c r="G9" s="96" t="s">
+      <c r="D9" s="79" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="80"/>
+      <c r="G9" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="96"/>
-      <c r="I9" s="96"/>
-      <c r="J9" s="96"/>
+      <c r="H9" s="97"/>
+      <c r="I9" s="97"/>
+      <c r="J9" s="97"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
@@ -2247,37 +2256,37 @@
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
-      <c r="D10" s="91"/>
-      <c r="E10" s="92"/>
-      <c r="G10" s="96"/>
-      <c r="H10" s="96"/>
-      <c r="I10" s="96"/>
-      <c r="J10" s="96"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="93"/>
+      <c r="G10" s="97"/>
+      <c r="H10" s="97"/>
+      <c r="I10" s="97"/>
+      <c r="J10" s="97"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="76"/>
-      <c r="B11" s="77"/>
+      <c r="A11" s="77"/>
+      <c r="B11" s="78"/>
       <c r="C11" s="6"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="80"/>
       <c r="Q11" s="38" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="R11" s="36" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="S11" s="36" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="76"/>
-      <c r="B12" s="77"/>
+      <c r="A12" s="77"/>
+      <c r="B12" s="78"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="80"/>
       <c r="Q12" s="39" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="R12" s="37">
         <f>_xlfn.IFNA(VLOOKUP(Q12,Adatok!G18:I20,2,FALSE),0)</f>
@@ -2289,13 +2298,13 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="76"/>
-      <c r="B13" s="77"/>
+      <c r="A13" s="77"/>
+      <c r="B13" s="78"/>
       <c r="C13" s="6"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="80"/>
       <c r="Q13" s="39" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="R13" s="37">
         <f>_xlfn.IFNA(VLOOKUP(Q13,Adatok!G19:I21,2,FALSE),0)</f>
@@ -2307,37 +2316,37 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="76"/>
-      <c r="B14" s="77"/>
+      <c r="A14" s="77"/>
+      <c r="B14" s="78"/>
       <c r="C14" s="6"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="79"/>
-      <c r="G14" s="94" t="s">
+      <c r="D14" s="79"/>
+      <c r="E14" s="80"/>
+      <c r="G14" s="95" t="s">
         <v>61</v>
       </c>
-      <c r="H14" s="94"/>
-      <c r="I14" s="94"/>
-      <c r="J14" s="94"/>
-      <c r="K14" s="67">
+      <c r="H14" s="95"/>
+      <c r="I14" s="95"/>
+      <c r="J14" s="95"/>
+      <c r="K14" s="68">
         <f>SUM(D6:E20)</f>
         <v>0</v>
       </c>
-      <c r="L14" s="67"/>
-      <c r="M14" s="67"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="68"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="76"/>
-      <c r="B15" s="77"/>
+      <c r="A15" s="77"/>
+      <c r="B15" s="78"/>
       <c r="C15" s="6"/>
-      <c r="D15" s="78"/>
-      <c r="E15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="80"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="76"/>
-      <c r="B16" s="77"/>
+      <c r="A16" s="77"/>
+      <c r="B16" s="78"/>
       <c r="C16" s="6"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="79"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="80"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
@@ -2347,35 +2356,35 @@
       <c r="M16" s="5"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="76"/>
-      <c r="B17" s="77"/>
+      <c r="A17" s="77"/>
+      <c r="B17" s="78"/>
       <c r="C17" s="6"/>
-      <c r="D17" s="78"/>
-      <c r="E17" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="80"/>
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="76"/>
-      <c r="B18" s="77"/>
+      <c r="A18" s="77"/>
+      <c r="B18" s="78"/>
       <c r="C18" s="6"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="79"/>
-      <c r="G18" s="82" t="s">
+      <c r="D18" s="79"/>
+      <c r="E18" s="80"/>
+      <c r="G18" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="83"/>
-      <c r="I18" s="83"/>
-      <c r="J18" s="86" t="s">
-        <v>108</v>
-      </c>
-      <c r="K18" s="86"/>
+      <c r="H18" s="84"/>
+      <c r="I18" s="84"/>
+      <c r="J18" s="87" t="s">
+        <v>102</v>
+      </c>
+      <c r="K18" s="87"/>
       <c r="L18" s="14"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="76"/>
-      <c r="B19" s="77"/>
+      <c r="A19" s="77"/>
+      <c r="B19" s="78"/>
       <c r="C19" s="6"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="79"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="80"/>
       <c r="G19" s="8"/>
       <c r="H19" s="20" t="s">
         <v>24</v>
@@ -2385,16 +2394,16 @@
       <c r="L19" s="9"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="76"/>
-      <c r="B20" s="77"/>
+      <c r="A20" s="77"/>
+      <c r="B20" s="78"/>
       <c r="C20" s="6"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="79"/>
-      <c r="G20" s="84" t="s">
+      <c r="D20" s="79"/>
+      <c r="E20" s="80"/>
+      <c r="G20" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="H20" s="85"/>
-      <c r="I20" s="85"/>
+      <c r="H20" s="86"/>
+      <c r="I20" s="86"/>
       <c r="J20" s="3">
         <f>IFERROR(VLOOKUP(B1,Adatok!B1:U13,13,FALSE), 0)</f>
         <v>0</v>
@@ -2405,13 +2414,13 @@
       <c r="L20" s="9"/>
     </row>
     <row r="21" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="87" t="s">
+      <c r="A21" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="88"/>
-      <c r="C21" s="88"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="89"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="90"/>
       <c r="G21" s="21"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
@@ -2425,11 +2434,11 @@
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
-      <c r="D22" s="80">
+      <c r="D22" s="81">
         <f>IFERROR(VLOOKUP(B1,Adatok!B1:U13,5,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E22" s="81"/>
+      <c r="E22" s="82"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -2441,22 +2450,22 @@
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
-      <c r="D23" s="80">
+      <c r="D23" s="81">
         <f>IFERROR(VLOOKUP(B1,Adatok!B1:U13,6,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E23" s="81"/>
+      <c r="E23" s="82"/>
       <c r="H23" s="50" t="s">
         <v>37</v>
       </c>
       <c r="I23" s="50"/>
       <c r="J23" s="50"/>
-      <c r="K23" s="67">
+      <c r="K23" s="68">
         <f>SUM(D22:E31)</f>
         <v>0</v>
       </c>
-      <c r="L23" s="67"/>
-      <c r="M23" s="67"/>
+      <c r="L23" s="68"/>
+      <c r="M23" s="68"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
@@ -2464,11 +2473,11 @@
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
-      <c r="D24" s="80">
+      <c r="D24" s="81">
         <f>IFERROR(VLOOKUP(B1,Adatok!B1:U13,7,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E24" s="81"/>
+      <c r="E24" s="82"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
@@ -2483,11 +2492,11 @@
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
-      <c r="D25" s="80">
+      <c r="D25" s="81">
         <f>IFERROR(VLOOKUP(B1,Adatok!B1:U13,8,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E25" s="81"/>
+      <c r="E25" s="82"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
@@ -2495,22 +2504,22 @@
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
-      <c r="D26" s="80">
+      <c r="D26" s="81">
         <f>IFERROR(VLOOKUP(B1,Adatok!B1:U13,9,FALSE)+IF(Q13="Nagy TV",S13,0), 0)</f>
         <v>0</v>
       </c>
-      <c r="E26" s="81"/>
-      <c r="H26" s="64" t="s">
+      <c r="E26" s="82"/>
+      <c r="H26" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="I26" s="64"/>
-      <c r="J26" s="64"/>
-      <c r="K26" s="67">
+      <c r="I26" s="65"/>
+      <c r="J26" s="65"/>
+      <c r="K26" s="68">
         <f>K14-K23</f>
         <v>0</v>
       </c>
-      <c r="L26" s="67"/>
-      <c r="M26" s="67"/>
+      <c r="L26" s="68"/>
+      <c r="M26" s="68"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
@@ -2518,11 +2527,11 @@
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="6"/>
-      <c r="D27" s="80">
+      <c r="D27" s="81">
         <f>IFERROR(VLOOKUP(B1,Adatok!B1:U13,10,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E27" s="81"/>
+      <c r="E27" s="82"/>
       <c r="H27" s="43" t="s">
         <v>27</v>
       </c>
@@ -2537,11 +2546,11 @@
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
-      <c r="D28" s="80">
+      <c r="D28" s="81">
         <f>IFERROR(VLOOKUP(B1,Adatok!B1:U13,11,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E28" s="81"/>
+      <c r="E28" s="82"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
@@ -2549,11 +2558,11 @@
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
-      <c r="D29" s="80">
+      <c r="D29" s="81">
         <f>IFERROR(J18*J20,0)</f>
         <v>0</v>
       </c>
-      <c r="E29" s="81"/>
+      <c r="E29" s="82"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
@@ -2561,35 +2570,35 @@
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
-      <c r="D30" s="67">
+      <c r="D30" s="68">
         <f>IFERROR(I53/10, 0)</f>
         <v>0</v>
       </c>
-      <c r="E30" s="90"/>
+      <c r="E30" s="91"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="44" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B31" s="44"/>
       <c r="C31" s="5"/>
-      <c r="D31" s="67">
+      <c r="D31" s="68">
         <f>IF(Q12="Hajó",S12,0)</f>
         <v>0</v>
       </c>
-      <c r="E31" s="90"/>
+      <c r="E31" s="91"/>
     </row>
     <row r="32" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A32" s="22" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="51" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B33" s="24"/>
       <c r="C33" s="24"/>
@@ -2608,7 +2617,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -2624,24 +2633,24 @@
       <c r="H34" s="45"/>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
-      <c r="K34" s="70">
+      <c r="K34" s="71">
         <f>IFERROR(VLOOKUP(B1,Adatok!B1:U13,16,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="L34" s="70"/>
-      <c r="M34" s="71"/>
+      <c r="L34" s="71"/>
+      <c r="M34" s="72"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="6" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="17" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F35" s="9"/>
       <c r="G35" s="6" t="s">
@@ -2650,20 +2659,20 @@
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
-      <c r="K35" s="62">
+      <c r="K35" s="63">
         <f>IFERROR(VLOOKUP(B1,Adatok!B1:U13,17,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="L35" s="62"/>
-      <c r="M35" s="63"/>
+      <c r="L35" s="63"/>
+      <c r="M35" s="64"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="32" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="31" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D36" s="28"/>
       <c r="E36" s="53"/>
@@ -2674,20 +2683,20 @@
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
-      <c r="K36" s="62">
+      <c r="K36" s="63">
         <f>IFERROR(VLOOKUP(B1,Adatok!B1:U13,18,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="L36" s="62"/>
-      <c r="M36" s="63"/>
+      <c r="L36" s="63"/>
+      <c r="M36" s="64"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="32" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="31" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D37" s="28"/>
       <c r="E37" s="53"/>
@@ -2698,20 +2707,20 @@
       <c r="H37" s="45"/>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
-      <c r="K37" s="62">
+      <c r="K37" s="63">
         <f>IFERROR(VLOOKUP(B1,Adatok!B1:U13,19,FALSE)+IF(Q13="Nagy TV",R13,0), 0)</f>
         <v>0</v>
       </c>
-      <c r="L37" s="62"/>
-      <c r="M37" s="63"/>
+      <c r="L37" s="63"/>
+      <c r="M37" s="64"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="32" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="31" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D38" s="28"/>
       <c r="E38" s="53"/>
@@ -2722,54 +2731,54 @@
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
-      <c r="K38" s="62">
+      <c r="K38" s="63">
         <f>IFERROR(VLOOKUP(B1,Adatok!B1:U13,20,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="L38" s="62"/>
-      <c r="M38" s="63"/>
+      <c r="L38" s="63"/>
+      <c r="M38" s="64"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="32" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="31" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D39" s="28"/>
       <c r="E39" s="53"/>
-      <c r="G39" s="65" t="s">
-        <v>110</v>
-      </c>
-      <c r="H39" s="66"/>
-      <c r="I39" s="66"/>
-      <c r="J39" s="66"/>
-      <c r="K39" s="62">
+      <c r="G39" s="66" t="s">
+        <v>104</v>
+      </c>
+      <c r="H39" s="67"/>
+      <c r="I39" s="67"/>
+      <c r="J39" s="67"/>
+      <c r="K39" s="63">
         <f>IF(Q12="Hajó",R12,0)</f>
         <v>0</v>
       </c>
-      <c r="L39" s="62"/>
-      <c r="M39" s="63"/>
+      <c r="L39" s="63"/>
+      <c r="M39" s="64"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="32" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="31" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D40" s="28"/>
       <c r="E40" s="53"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="32" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B41" s="5"/>
       <c r="C41" s="31" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D41" s="28"/>
       <c r="E41" s="53"/>
@@ -2780,11 +2789,11 @@
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="6" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="17" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F42" s="9"/>
       <c r="G42" s="44" t="s">
@@ -2793,11 +2802,11 @@
       <c r="H42" s="44"/>
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
-      <c r="K42" s="68" t="s">
+      <c r="K42" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="L42" s="68"/>
-      <c r="M42" s="69"/>
+      <c r="L42" s="69"/>
+      <c r="M42" s="70"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="30">
@@ -2808,19 +2817,19 @@
       <c r="C43" s="42"/>
       <c r="D43" s="5"/>
       <c r="E43" s="53"/>
-      <c r="G43" s="73">
+      <c r="G43" s="74">
         <f t="shared" ref="G43" si="1">A43</f>
         <v>0</v>
       </c>
-      <c r="H43" s="74"/>
-      <c r="I43" s="74"/>
+      <c r="H43" s="75"/>
+      <c r="I43" s="75"/>
       <c r="J43" s="41"/>
-      <c r="K43" s="62">
+      <c r="K43" s="63">
         <f t="shared" ref="K43:K52" si="2">IFERROR(E43-C43, 0)</f>
         <v>0</v>
       </c>
-      <c r="L43" s="62"/>
-      <c r="M43" s="63"/>
+      <c r="L43" s="63"/>
+      <c r="M43" s="64"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="30">
@@ -2831,19 +2840,19 @@
       <c r="C44" s="42"/>
       <c r="D44" s="5"/>
       <c r="E44" s="53"/>
-      <c r="G44" s="73">
+      <c r="G44" s="74">
         <f t="shared" ref="G44:G52" si="3">A44</f>
         <v>0</v>
       </c>
-      <c r="H44" s="74"/>
-      <c r="I44" s="74"/>
+      <c r="H44" s="75"/>
+      <c r="I44" s="75"/>
       <c r="J44" s="41"/>
-      <c r="K44" s="62">
+      <c r="K44" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L44" s="62"/>
-      <c r="M44" s="63"/>
+      <c r="L44" s="63"/>
+      <c r="M44" s="64"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="30">
@@ -2854,19 +2863,19 @@
       <c r="C45" s="42"/>
       <c r="D45" s="5"/>
       <c r="E45" s="53"/>
-      <c r="G45" s="73">
+      <c r="G45" s="74">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H45" s="74"/>
-      <c r="I45" s="74"/>
+      <c r="H45" s="75"/>
+      <c r="I45" s="75"/>
       <c r="J45" s="41"/>
-      <c r="K45" s="62">
+      <c r="K45" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L45" s="62"/>
-      <c r="M45" s="63"/>
+      <c r="L45" s="63"/>
+      <c r="M45" s="64"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="30">
@@ -2877,19 +2886,19 @@
       <c r="C46" s="42"/>
       <c r="D46" s="5"/>
       <c r="E46" s="53"/>
-      <c r="G46" s="73">
+      <c r="G46" s="74">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H46" s="74"/>
-      <c r="I46" s="74"/>
+      <c r="H46" s="75"/>
+      <c r="I46" s="75"/>
       <c r="J46" s="41"/>
-      <c r="K46" s="62">
+      <c r="K46" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L46" s="62"/>
-      <c r="M46" s="63"/>
+      <c r="L46" s="63"/>
+      <c r="M46" s="64"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="30">
@@ -2900,19 +2909,19 @@
       <c r="C47" s="42"/>
       <c r="D47" s="5"/>
       <c r="E47" s="53"/>
-      <c r="G47" s="73">
+      <c r="G47" s="74">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H47" s="74"/>
-      <c r="I47" s="74"/>
+      <c r="H47" s="75"/>
+      <c r="I47" s="75"/>
       <c r="J47" s="41"/>
-      <c r="K47" s="62">
+      <c r="K47" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L47" s="62"/>
-      <c r="M47" s="63"/>
+      <c r="L47" s="63"/>
+      <c r="M47" s="64"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="30">
@@ -2923,19 +2932,19 @@
       <c r="C48" s="42"/>
       <c r="D48" s="5"/>
       <c r="E48" s="53"/>
-      <c r="G48" s="73">
+      <c r="G48" s="74">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H48" s="74"/>
-      <c r="I48" s="74"/>
+      <c r="H48" s="75"/>
+      <c r="I48" s="75"/>
       <c r="J48" s="41"/>
-      <c r="K48" s="62">
+      <c r="K48" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L48" s="62"/>
-      <c r="M48" s="63"/>
+      <c r="L48" s="63"/>
+      <c r="M48" s="64"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="30">
@@ -2947,19 +2956,19 @@
       <c r="D49" s="5"/>
       <c r="E49" s="53"/>
       <c r="F49" s="9"/>
-      <c r="G49" s="73">
+      <c r="G49" s="74">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H49" s="74"/>
-      <c r="I49" s="74"/>
+      <c r="H49" s="75"/>
+      <c r="I49" s="75"/>
       <c r="J49" s="41"/>
-      <c r="K49" s="62">
+      <c r="K49" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L49" s="62"/>
-      <c r="M49" s="63"/>
+      <c r="L49" s="63"/>
+      <c r="M49" s="64"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="30">
@@ -2970,19 +2979,19 @@
       <c r="C50" s="42"/>
       <c r="D50" s="5"/>
       <c r="E50" s="53"/>
-      <c r="G50" s="73">
+      <c r="G50" s="74">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H50" s="74"/>
-      <c r="I50" s="74"/>
+      <c r="H50" s="75"/>
+      <c r="I50" s="75"/>
       <c r="J50" s="41"/>
-      <c r="K50" s="62">
+      <c r="K50" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L50" s="62"/>
-      <c r="M50" s="63"/>
+      <c r="L50" s="63"/>
+      <c r="M50" s="64"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="30">
@@ -2993,19 +3002,19 @@
       <c r="C51" s="42"/>
       <c r="D51" s="5"/>
       <c r="E51" s="53"/>
-      <c r="G51" s="73">
+      <c r="G51" s="74">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H51" s="74"/>
-      <c r="I51" s="74"/>
+      <c r="H51" s="75"/>
+      <c r="I51" s="75"/>
       <c r="J51" s="41"/>
-      <c r="K51" s="62">
+      <c r="K51" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L51" s="62"/>
-      <c r="M51" s="63"/>
+      <c r="L51" s="63"/>
+      <c r="M51" s="64"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="30">
@@ -3016,35 +3025,35 @@
       <c r="C52" s="42"/>
       <c r="D52" s="5"/>
       <c r="E52" s="53"/>
-      <c r="G52" s="73">
+      <c r="G52" s="74">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H52" s="74"/>
-      <c r="I52" s="74"/>
+      <c r="H52" s="75"/>
+      <c r="I52" s="75"/>
       <c r="J52" s="41"/>
-      <c r="K52" s="62">
+      <c r="K52" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L52" s="62"/>
-      <c r="M52" s="63"/>
+      <c r="L52" s="63"/>
+      <c r="M52" s="64"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G53" s="72" t="s">
+      <c r="G53" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="H53" s="68"/>
-      <c r="I53" s="75" t="s">
-        <v>108</v>
-      </c>
-      <c r="J53" s="75"/>
-      <c r="K53" s="75"/>
-      <c r="L53" s="75"/>
-      <c r="M53" s="75"/>
+      <c r="H53" s="69"/>
+      <c r="I53" s="76" t="s">
+        <v>102</v>
+      </c>
+      <c r="J53" s="76"/>
+      <c r="K53" s="76"/>
+      <c r="L53" s="76"/>
+      <c r="M53" s="76"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="pLdfuUqo7tkO4x8y6PwXwWC3NnJme7ySn+zM3g39GDB8lrbhePL/clVqBKKbi0x2sh6H39petEFDWjKig4iZ8w==" saltValue="IbyTQaGltSFucdmoqQLcQg==" spinCount="100000" sheet="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="1j/tO7WSGjoymMDj4/iYNN/ROf/p3LHogn6bugLgWwjwbJcInf1aosUW5QsGFuHkRw+IUpFH3QuFgicQypyI1A==" saltValue="bZ+iHVYKhhMhZtDJZeqPQg==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <protectedRanges>
     <protectedRange sqref="B1 I1 I4 B7:B9 D7:E9 R8 Q12:Q13 J18 A36:A41 C36:C41 J53 A11:B20 D11:E20 E43:E52 C43:C52 E36:E41" name="data"/>
   </protectedRanges>
@@ -3345,7 +3354,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="9">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2535EA95-9C29-4840-92F8-7E5C7C655E64}">
           <x14:formula1>
-            <xm:f>Adatok!$B$2:$B$14</xm:f>
+            <xm:f>Adatok!$B$2:$B$13</xm:f>
           </x14:formula1>
           <xm:sqref>B1:D1</xm:sqref>
         </x14:dataValidation>
@@ -3408,7 +3417,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="A33" sqref="A33:D33"/>
     </sheetView>
   </sheetViews>
@@ -3434,17 +3443,17 @@
       <c r="A1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="114" t="s">
+      <c r="F1" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="114"/>
-      <c r="H1" s="102" t="str">
+      <c r="G1" s="115"/>
+      <c r="H1" s="103" t="str">
         <f>Mókuskerék!I1</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -3457,109 +3466,109 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="117" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
+      <c r="B4" s="117"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="117"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="114" t="s">
+      <c r="F4" s="115" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="114"/>
-      <c r="H4" s="102" t="str">
+      <c r="G4" s="115"/>
+      <c r="H4" s="103" t="str">
         <f>Mókuskerék!I4</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="I4" s="102"/>
-      <c r="J4" s="102"/>
-      <c r="K4" s="102"/>
+      <c r="I4" s="103"/>
+      <c r="J4" s="103"/>
+      <c r="K4" s="103"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="116"/>
-      <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
+      <c r="A5" s="117"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
       <c r="E5" s="3"/>
       <c r="H5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="116"/>
-      <c r="B6" s="116"/>
-      <c r="C6" s="116"/>
-      <c r="D6" s="116"/>
+      <c r="A6" s="117"/>
+      <c r="B6" s="117"/>
+      <c r="C6" s="117"/>
+      <c r="D6" s="117"/>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="116" t="s">
+      <c r="A7" s="117" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="116"/>
-      <c r="C7" s="116"/>
-      <c r="D7" s="116"/>
+      <c r="B7" s="117"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="117"/>
       <c r="E7" s="3"/>
       <c r="L7" s="5"/>
     </row>
     <row r="8" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="116"/>
-      <c r="B8" s="116"/>
-      <c r="C8" s="116"/>
-      <c r="D8" s="116"/>
-      <c r="F8" s="115" t="s">
+      <c r="A8" s="117"/>
+      <c r="B8" s="117"/>
+      <c r="C8" s="117"/>
+      <c r="D8" s="117"/>
+      <c r="F8" s="116" t="s">
         <v>46</v>
       </c>
-      <c r="G8" s="115"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="115"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="116"/>
+      <c r="J8" s="116"/>
       <c r="K8" s="11"/>
       <c r="M8" s="8"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="116"/>
-      <c r="B9" s="116"/>
-      <c r="C9" s="116"/>
-      <c r="D9" s="116"/>
+      <c r="A9" s="117"/>
+      <c r="B9" s="117"/>
+      <c r="C9" s="117"/>
+      <c r="D9" s="117"/>
       <c r="F9" s="8" t="s">
         <v>51</v>
       </c>
       <c r="M9" s="8"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="111" t="s">
+      <c r="A10" s="112" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="111"/>
-      <c r="C10" s="111"/>
+      <c r="B10" s="112"/>
+      <c r="C10" s="112"/>
       <c r="F10" s="8"/>
       <c r="G10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J10" s="67">
+      <c r="J10" s="68">
         <f>_xlfn.FLOOR.MATH(Mókuskerék!K8,10)</f>
         <v>0</v>
       </c>
-      <c r="K10" s="67"/>
-      <c r="L10" s="67"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="68"/>
       <c r="M10" s="8"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="112" t="s">
+      <c r="A11" s="113" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="112"/>
-      <c r="C11" s="112"/>
-      <c r="D11" s="112"/>
-      <c r="E11" s="112"/>
+      <c r="B11" s="113"/>
+      <c r="C11" s="113"/>
+      <c r="D11" s="113"/>
+      <c r="E11" s="113"/>
       <c r="F11" s="8"/>
       <c r="H11" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K11" s="27" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="L11" s="29">
         <v>100</v>
@@ -3573,21 +3582,21 @@
       <c r="F12" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="J12" s="67">
+      <c r="J12" s="68">
         <f>J10*L11</f>
         <v>0</v>
       </c>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="68"/>
       <c r="M12" s="8"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="117" t="s">
+      <c r="A13" s="118" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="117"/>
-      <c r="C13" s="117"/>
-      <c r="D13" s="117"/>
+      <c r="B13" s="118"/>
+      <c r="C13" s="118"/>
+      <c r="D13" s="118"/>
       <c r="F13" s="10"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -3597,31 +3606,31 @@
       <c r="L13" s="17"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="117"/>
-      <c r="B14" s="117"/>
-      <c r="C14" s="117"/>
-      <c r="D14" s="117"/>
+      <c r="A14" s="118"/>
+      <c r="B14" s="118"/>
+      <c r="C14" s="118"/>
+      <c r="D14" s="118"/>
     </row>
     <row r="15" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="117"/>
-      <c r="B15" s="117"/>
-      <c r="C15" s="117"/>
-      <c r="D15" s="117"/>
-      <c r="F15" s="109" t="s">
+      <c r="A15" s="118"/>
+      <c r="B15" s="118"/>
+      <c r="C15" s="118"/>
+      <c r="D15" s="118"/>
+      <c r="F15" s="110" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="110"/>
-      <c r="H15" s="110"/>
-      <c r="I15" s="110"/>
-      <c r="J15" s="110"/>
-      <c r="K15" s="110"/>
-      <c r="L15" s="110"/>
+      <c r="G15" s="111"/>
+      <c r="H15" s="111"/>
+      <c r="I15" s="111"/>
+      <c r="J15" s="111"/>
+      <c r="K15" s="111"/>
+      <c r="L15" s="111"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="117"/>
-      <c r="B16" s="117"/>
-      <c r="C16" s="117"/>
-      <c r="D16" s="117"/>
+      <c r="A16" s="118"/>
+      <c r="B16" s="118"/>
+      <c r="C16" s="118"/>
+      <c r="D16" s="118"/>
       <c r="F16" s="13"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
@@ -3631,102 +3640,102 @@
       <c r="L16" s="14"/>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="118" t="s">
+      <c r="A17" s="119" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="118"/>
-      <c r="C17" s="118"/>
-      <c r="D17" s="118"/>
+      <c r="B17" s="119"/>
+      <c r="C17" s="119"/>
+      <c r="D17" s="119"/>
       <c r="F17" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="J17" s="67">
+      <c r="J17" s="68">
         <f>J12</f>
         <v>0</v>
       </c>
-      <c r="K17" s="67"/>
-      <c r="L17" s="67"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="68"/>
     </row>
     <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="118"/>
-      <c r="B18" s="118"/>
-      <c r="C18" s="118"/>
-      <c r="D18" s="118"/>
+      <c r="A18" s="119"/>
+      <c r="B18" s="119"/>
+      <c r="C18" s="119"/>
+      <c r="D18" s="119"/>
       <c r="F18" s="8"/>
       <c r="L18" s="9"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="118"/>
-      <c r="B19" s="118"/>
-      <c r="C19" s="118"/>
-      <c r="D19" s="118"/>
-      <c r="F19" s="107" t="s">
-        <v>106</v>
-      </c>
-      <c r="G19" s="108"/>
-      <c r="H19" s="108"/>
-      <c r="I19" s="108"/>
+      <c r="A19" s="119"/>
+      <c r="B19" s="119"/>
+      <c r="C19" s="119"/>
+      <c r="D19" s="119"/>
+      <c r="F19" s="108" t="s">
+        <v>100</v>
+      </c>
+      <c r="G19" s="109"/>
+      <c r="H19" s="109"/>
+      <c r="I19" s="109"/>
       <c r="L19" s="9"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="118"/>
-      <c r="B20" s="118"/>
-      <c r="C20" s="118"/>
-      <c r="D20" s="118"/>
-      <c r="F20" s="107"/>
-      <c r="G20" s="108"/>
-      <c r="H20" s="108"/>
-      <c r="I20" s="108"/>
-      <c r="J20" s="67">
+      <c r="A20" s="119"/>
+      <c r="B20" s="119"/>
+      <c r="C20" s="119"/>
+      <c r="D20" s="119"/>
+      <c r="F20" s="108"/>
+      <c r="G20" s="109"/>
+      <c r="H20" s="109"/>
+      <c r="I20" s="109"/>
+      <c r="J20" s="68">
         <v>50000</v>
       </c>
-      <c r="K20" s="67"/>
-      <c r="L20" s="67"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="68"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="118"/>
-      <c r="B21" s="118"/>
-      <c r="C21" s="118"/>
-      <c r="D21" s="118"/>
+      <c r="A21" s="119"/>
+      <c r="B21" s="119"/>
+      <c r="C21" s="119"/>
+      <c r="D21" s="119"/>
       <c r="F21" s="15"/>
       <c r="G21" s="16"/>
       <c r="H21" s="16"/>
       <c r="L21" s="9"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="118"/>
-      <c r="B22" s="118"/>
-      <c r="C22" s="118"/>
-      <c r="D22" s="118"/>
-      <c r="F22" s="113" t="s">
+      <c r="A22" s="119"/>
+      <c r="B22" s="119"/>
+      <c r="C22" s="119"/>
+      <c r="D22" s="119"/>
+      <c r="F22" s="114" t="s">
         <v>52</v>
       </c>
-      <c r="G22" s="96"/>
-      <c r="H22" s="96"/>
-      <c r="I22" s="96"/>
+      <c r="G22" s="97"/>
+      <c r="H22" s="97"/>
+      <c r="I22" s="97"/>
       <c r="L22" s="9"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="118"/>
-      <c r="B23" s="118"/>
-      <c r="C23" s="118"/>
-      <c r="D23" s="118"/>
-      <c r="F23" s="113"/>
-      <c r="G23" s="96"/>
-      <c r="H23" s="96"/>
-      <c r="I23" s="96"/>
-      <c r="J23" s="67">
+      <c r="A23" s="119"/>
+      <c r="B23" s="119"/>
+      <c r="C23" s="119"/>
+      <c r="D23" s="119"/>
+      <c r="F23" s="114"/>
+      <c r="G23" s="97"/>
+      <c r="H23" s="97"/>
+      <c r="I23" s="97"/>
+      <c r="J23" s="68">
         <f>J17+J20</f>
         <v>50000</v>
       </c>
-      <c r="K23" s="67"/>
-      <c r="L23" s="67"/>
+      <c r="K23" s="68"/>
+      <c r="L23" s="68"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="118"/>
-      <c r="B24" s="118"/>
-      <c r="C24" s="118"/>
-      <c r="D24" s="118"/>
+      <c r="A24" s="119"/>
+      <c r="B24" s="119"/>
+      <c r="C24" s="119"/>
+      <c r="D24" s="119"/>
       <c r="F24" s="10"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
@@ -3736,56 +3745,56 @@
       <c r="L24" s="17"/>
     </row>
     <row r="27" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="104" t="s">
+      <c r="A27" s="105" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="105"/>
-      <c r="C27" s="105"/>
-      <c r="D27" s="105"/>
-      <c r="E27" s="105"/>
-      <c r="F27" s="105"/>
-      <c r="G27" s="105"/>
-      <c r="H27" s="105"/>
-      <c r="I27" s="105"/>
-      <c r="J27" s="105"/>
-      <c r="K27" s="105"/>
-      <c r="L27" s="106"/>
+      <c r="B27" s="106"/>
+      <c r="C27" s="106"/>
+      <c r="D27" s="106"/>
+      <c r="E27" s="106"/>
+      <c r="F27" s="106"/>
+      <c r="G27" s="106"/>
+      <c r="H27" s="106"/>
+      <c r="I27" s="106"/>
+      <c r="J27" s="106"/>
+      <c r="K27" s="106"/>
+      <c r="L27" s="107"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="107" t="s">
+      <c r="A28" s="108" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="108"/>
-      <c r="C28" s="108"/>
-      <c r="D28" s="108"/>
-      <c r="E28" s="108"/>
+      <c r="B28" s="109"/>
+      <c r="C28" s="109"/>
+      <c r="D28" s="109"/>
+      <c r="E28" s="109"/>
       <c r="L28" s="9"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="107"/>
-      <c r="B29" s="108"/>
-      <c r="C29" s="108"/>
-      <c r="D29" s="108"/>
-      <c r="E29" s="108"/>
-      <c r="F29" s="94" t="s">
-        <v>104</v>
-      </c>
-      <c r="G29" s="94"/>
-      <c r="H29" s="94"/>
-      <c r="I29" s="94"/>
-      <c r="J29" s="67">
+      <c r="A29" s="108"/>
+      <c r="B29" s="109"/>
+      <c r="C29" s="109"/>
+      <c r="D29" s="109"/>
+      <c r="E29" s="109"/>
+      <c r="F29" s="95" t="s">
+        <v>98</v>
+      </c>
+      <c r="G29" s="95"/>
+      <c r="H29" s="95"/>
+      <c r="I29" s="95"/>
+      <c r="J29" s="68">
         <f ca="1">SUM(J33:L54)+J17</f>
         <v>0</v>
       </c>
-      <c r="K29" s="67"/>
-      <c r="L29" s="90"/>
+      <c r="K29" s="68"/>
+      <c r="L29" s="91"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="107"/>
-      <c r="B30" s="108"/>
-      <c r="C30" s="108"/>
-      <c r="D30" s="108"/>
-      <c r="E30" s="108"/>
+      <c r="A30" s="108"/>
+      <c r="B30" s="109"/>
+      <c r="C30" s="109"/>
+      <c r="D30" s="109"/>
+      <c r="E30" s="109"/>
       <c r="L30" s="9"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -3793,433 +3802,433 @@
       <c r="L31" s="9"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="101" t="s">
+      <c r="A32" s="102" t="s">
         <v>55</v>
       </c>
-      <c r="B32" s="102"/>
-      <c r="C32" s="102"/>
-      <c r="D32" s="102"/>
-      <c r="E32" s="102"/>
+      <c r="B32" s="103"/>
+      <c r="C32" s="103"/>
+      <c r="D32" s="103"/>
+      <c r="E32" s="103"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
-      <c r="J32" s="102" t="s">
+      <c r="J32" s="103" t="s">
         <v>56</v>
       </c>
-      <c r="K32" s="102"/>
-      <c r="L32" s="103"/>
+      <c r="K32" s="103"/>
+      <c r="L32" s="104"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="76"/>
-      <c r="B33" s="77"/>
-      <c r="C33" s="77"/>
-      <c r="D33" s="77"/>
+      <c r="A33" s="77"/>
+      <c r="B33" s="78"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="78"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
-      <c r="J33" s="99">
+      <c r="J33" s="100">
         <f ca="1">_xlfn.IFNA(OFFSET(Adatok!$A$91,MATCH('Gyorsító sáv'!$A33,Fastlaneshops,0)-1,1,1,COUNT(OFFSET(Adatok!$A$91,MATCH('Gyorsító sáv'!$A33,Fastlaneshops,0)-1,1,,1))),0)</f>
         <v>0</v>
       </c>
-      <c r="K33" s="99"/>
-      <c r="L33" s="100"/>
+      <c r="K33" s="100"/>
+      <c r="L33" s="101"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="76" t="s">
-        <v>108</v>
-      </c>
-      <c r="B34" s="77"/>
-      <c r="C34" s="77"/>
-      <c r="D34" s="77"/>
+      <c r="A34" s="77" t="s">
+        <v>102</v>
+      </c>
+      <c r="B34" s="78"/>
+      <c r="C34" s="78"/>
+      <c r="D34" s="78"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
-      <c r="J34" s="99">
+      <c r="J34" s="100">
         <f ca="1">_xlfn.IFNA(OFFSET(Adatok!$A$91,MATCH('Gyorsító sáv'!$A34,Fastlaneshops,0)-1,1,1,COUNT(OFFSET(Adatok!$A$91,MATCH('Gyorsító sáv'!$A34,Fastlaneshops,0)-1,1,,1))),0)</f>
         <v>0</v>
       </c>
-      <c r="K34" s="99"/>
-      <c r="L34" s="100"/>
+      <c r="K34" s="100"/>
+      <c r="L34" s="101"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="76" t="s">
-        <v>108</v>
-      </c>
-      <c r="B35" s="77"/>
-      <c r="C35" s="77"/>
-      <c r="D35" s="77"/>
+      <c r="A35" s="77" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" s="78"/>
+      <c r="C35" s="78"/>
+      <c r="D35" s="78"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
-      <c r="J35" s="99">
+      <c r="J35" s="100">
         <f ca="1">_xlfn.IFNA(OFFSET(Adatok!$A$91,MATCH('Gyorsító sáv'!$A35,Fastlaneshops,0)-1,1,1,COUNT(OFFSET(Adatok!$A$91,MATCH('Gyorsító sáv'!$A35,Fastlaneshops,0)-1,1,,1))),0)</f>
         <v>0</v>
       </c>
-      <c r="K35" s="99"/>
-      <c r="L35" s="100"/>
+      <c r="K35" s="100"/>
+      <c r="L35" s="101"/>
       <c r="O35" s="55"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="76" t="s">
-        <v>108</v>
-      </c>
-      <c r="B36" s="77"/>
-      <c r="C36" s="77"/>
-      <c r="D36" s="77"/>
+      <c r="A36" s="77" t="s">
+        <v>102</v>
+      </c>
+      <c r="B36" s="78"/>
+      <c r="C36" s="78"/>
+      <c r="D36" s="78"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
-      <c r="J36" s="99">
+      <c r="J36" s="100">
         <f ca="1">_xlfn.IFNA(OFFSET(Adatok!$A$91,MATCH('Gyorsító sáv'!$A36,Fastlaneshops,0)-1,1,1,COUNT(OFFSET(Adatok!$A$91,MATCH('Gyorsító sáv'!$A36,Fastlaneshops,0)-1,1,,1))),0)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="99"/>
-      <c r="L36" s="100"/>
+      <c r="K36" s="100"/>
+      <c r="L36" s="101"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="76"/>
-      <c r="B37" s="77"/>
-      <c r="C37" s="77"/>
-      <c r="D37" s="77"/>
+      <c r="A37" s="77"/>
+      <c r="B37" s="78"/>
+      <c r="C37" s="78"/>
+      <c r="D37" s="78"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
-      <c r="J37" s="99">
+      <c r="J37" s="100">
         <f ca="1">_xlfn.IFNA(OFFSET(Adatok!$A$91,MATCH('Gyorsító sáv'!$A37,Fastlaneshops,0)-1,1,1,COUNT(OFFSET(Adatok!$A$91,MATCH('Gyorsító sáv'!$A37,Fastlaneshops,0)-1,1,,1))),0)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="99"/>
-      <c r="L37" s="100"/>
+      <c r="K37" s="100"/>
+      <c r="L37" s="101"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="76" t="s">
-        <v>108</v>
-      </c>
-      <c r="B38" s="77"/>
-      <c r="C38" s="77"/>
-      <c r="D38" s="77"/>
+      <c r="A38" s="77" t="s">
+        <v>102</v>
+      </c>
+      <c r="B38" s="78"/>
+      <c r="C38" s="78"/>
+      <c r="D38" s="78"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
-      <c r="J38" s="99">
+      <c r="J38" s="100">
         <f ca="1">_xlfn.IFNA(OFFSET(Adatok!$A$91,MATCH('Gyorsító sáv'!$A38,Fastlaneshops,0)-1,1,1,COUNT(OFFSET(Adatok!$A$91,MATCH('Gyorsító sáv'!$A38,Fastlaneshops,0)-1,1,,1))),0)</f>
         <v>0</v>
       </c>
-      <c r="K38" s="99"/>
-      <c r="L38" s="100"/>
+      <c r="K38" s="100"/>
+      <c r="L38" s="101"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="76" t="s">
-        <v>108</v>
-      </c>
-      <c r="B39" s="77"/>
-      <c r="C39" s="77"/>
-      <c r="D39" s="77"/>
+      <c r="A39" s="77" t="s">
+        <v>102</v>
+      </c>
+      <c r="B39" s="78"/>
+      <c r="C39" s="78"/>
+      <c r="D39" s="78"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
-      <c r="J39" s="99">
+      <c r="J39" s="100">
         <f ca="1">_xlfn.IFNA(OFFSET(Adatok!$A$91,MATCH('Gyorsító sáv'!$A39,Fastlaneshops,0)-1,1,1,COUNT(OFFSET(Adatok!$A$91,MATCH('Gyorsító sáv'!$A39,Fastlaneshops,0)-1,1,,1))),0)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="99"/>
-      <c r="L39" s="100"/>
+      <c r="K39" s="100"/>
+      <c r="L39" s="101"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="76" t="s">
-        <v>108</v>
-      </c>
-      <c r="B40" s="77"/>
-      <c r="C40" s="77"/>
-      <c r="D40" s="77"/>
+      <c r="A40" s="77" t="s">
+        <v>102</v>
+      </c>
+      <c r="B40" s="78"/>
+      <c r="C40" s="78"/>
+      <c r="D40" s="78"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
-      <c r="J40" s="99">
+      <c r="J40" s="100">
         <f ca="1">_xlfn.IFNA(OFFSET(Adatok!$A$91,MATCH('Gyorsító sáv'!$A40,Fastlaneshops,0)-1,1,1,COUNT(OFFSET(Adatok!$A$91,MATCH('Gyorsító sáv'!$A40,Fastlaneshops,0)-1,1,,1))),0)</f>
         <v>0</v>
       </c>
-      <c r="K40" s="99"/>
-      <c r="L40" s="100"/>
+      <c r="K40" s="100"/>
+      <c r="L40" s="101"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="76" t="s">
-        <v>108</v>
-      </c>
-      <c r="B41" s="77"/>
-      <c r="C41" s="77"/>
-      <c r="D41" s="77"/>
+      <c r="A41" s="77" t="s">
+        <v>102</v>
+      </c>
+      <c r="B41" s="78"/>
+      <c r="C41" s="78"/>
+      <c r="D41" s="78"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
-      <c r="J41" s="99">
+      <c r="J41" s="100">
         <f ca="1">_xlfn.IFNA(OFFSET(Adatok!$A$91,MATCH('Gyorsító sáv'!$A41,Fastlaneshops,0)-1,1,1,COUNT(OFFSET(Adatok!$A$91,MATCH('Gyorsító sáv'!$A41,Fastlaneshops,0)-1,1,,1))),0)</f>
         <v>0</v>
       </c>
-      <c r="K41" s="99"/>
-      <c r="L41" s="100"/>
+      <c r="K41" s="100"/>
+      <c r="L41" s="101"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="76" t="s">
-        <v>108</v>
-      </c>
-      <c r="B42" s="77"/>
-      <c r="C42" s="77"/>
-      <c r="D42" s="77"/>
+      <c r="A42" s="77" t="s">
+        <v>102</v>
+      </c>
+      <c r="B42" s="78"/>
+      <c r="C42" s="78"/>
+      <c r="D42" s="78"/>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
-      <c r="J42" s="99">
+      <c r="J42" s="100">
         <f ca="1">_xlfn.IFNA(OFFSET(Adatok!$A$91,MATCH('Gyorsító sáv'!$A42,Fastlaneshops,0)-1,1,1,COUNT(OFFSET(Adatok!$A$91,MATCH('Gyorsító sáv'!$A42,Fastlaneshops,0)-1,1,,1))),0)</f>
         <v>0</v>
       </c>
-      <c r="K42" s="99"/>
-      <c r="L42" s="100"/>
+      <c r="K42" s="100"/>
+      <c r="L42" s="101"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="76" t="s">
-        <v>108</v>
-      </c>
-      <c r="B43" s="77"/>
-      <c r="C43" s="77"/>
-      <c r="D43" s="77"/>
+      <c r="A43" s="77" t="s">
+        <v>102</v>
+      </c>
+      <c r="B43" s="78"/>
+      <c r="C43" s="78"/>
+      <c r="D43" s="78"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
-      <c r="J43" s="99">
+      <c r="J43" s="100">
         <f ca="1">_xlfn.IFNA(OFFSET(Adatok!$A$91,MATCH('Gyorsító sáv'!$A43,Fastlaneshops,0)-1,1,1,COUNT(OFFSET(Adatok!$A$91,MATCH('Gyorsító sáv'!$A43,Fastlaneshops,0)-1,1,,1))),0)</f>
         <v>0</v>
       </c>
-      <c r="K43" s="99"/>
-      <c r="L43" s="100"/>
+      <c r="K43" s="100"/>
+      <c r="L43" s="101"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="76"/>
-      <c r="B44" s="77"/>
-      <c r="C44" s="77"/>
-      <c r="D44" s="77"/>
+      <c r="A44" s="77"/>
+      <c r="B44" s="78"/>
+      <c r="C44" s="78"/>
+      <c r="D44" s="78"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
-      <c r="J44" s="99">
+      <c r="J44" s="100">
         <f ca="1">_xlfn.IFNA(OFFSET(Adatok!$A$91,MATCH('Gyorsító sáv'!$A44,Fastlaneshops,0)-1,1,1,COUNT(OFFSET(Adatok!$A$91,MATCH('Gyorsító sáv'!$A44,Fastlaneshops,0)-1,1,,1))),0)</f>
         <v>0</v>
       </c>
-      <c r="K44" s="99"/>
-      <c r="L44" s="100"/>
+      <c r="K44" s="100"/>
+      <c r="L44" s="101"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="76" t="s">
-        <v>108</v>
-      </c>
-      <c r="B45" s="77"/>
-      <c r="C45" s="77"/>
-      <c r="D45" s="77"/>
+      <c r="A45" s="77" t="s">
+        <v>102</v>
+      </c>
+      <c r="B45" s="78"/>
+      <c r="C45" s="78"/>
+      <c r="D45" s="78"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
-      <c r="J45" s="99">
+      <c r="J45" s="100">
         <f ca="1">_xlfn.IFNA(OFFSET(Adatok!$A$91,MATCH('Gyorsító sáv'!$A45,Fastlaneshops,0)-1,1,1,COUNT(OFFSET(Adatok!$A$91,MATCH('Gyorsító sáv'!$A45,Fastlaneshops,0)-1,1,,1))),0)</f>
         <v>0</v>
       </c>
-      <c r="K45" s="99"/>
-      <c r="L45" s="100"/>
+      <c r="K45" s="100"/>
+      <c r="L45" s="101"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" s="76" t="s">
-        <v>108</v>
-      </c>
-      <c r="B46" s="77"/>
-      <c r="C46" s="77"/>
-      <c r="D46" s="77"/>
+      <c r="A46" s="77" t="s">
+        <v>102</v>
+      </c>
+      <c r="B46" s="78"/>
+      <c r="C46" s="78"/>
+      <c r="D46" s="78"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
-      <c r="J46" s="99">
+      <c r="J46" s="100">
         <f ca="1">_xlfn.IFNA(OFFSET(Adatok!$A$91,MATCH('Gyorsító sáv'!$A46,Fastlaneshops,0)-1,1,1,COUNT(OFFSET(Adatok!$A$91,MATCH('Gyorsító sáv'!$A46,Fastlaneshops,0)-1,1,,1))),0)</f>
         <v>0</v>
       </c>
-      <c r="K46" s="99"/>
-      <c r="L46" s="100"/>
+      <c r="K46" s="100"/>
+      <c r="L46" s="101"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" s="76" t="s">
-        <v>108</v>
-      </c>
-      <c r="B47" s="77"/>
-      <c r="C47" s="77"/>
-      <c r="D47" s="77"/>
+      <c r="A47" s="77" t="s">
+        <v>102</v>
+      </c>
+      <c r="B47" s="78"/>
+      <c r="C47" s="78"/>
+      <c r="D47" s="78"/>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
-      <c r="J47" s="99">
+      <c r="J47" s="100">
         <f ca="1">_xlfn.IFNA(OFFSET(Adatok!$A$91,MATCH('Gyorsító sáv'!$A47,Fastlaneshops,0)-1,1,1,COUNT(OFFSET(Adatok!$A$91,MATCH('Gyorsító sáv'!$A47,Fastlaneshops,0)-1,1,,1))),0)</f>
         <v>0</v>
       </c>
-      <c r="K47" s="99"/>
-      <c r="L47" s="100"/>
+      <c r="K47" s="100"/>
+      <c r="L47" s="101"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="76" t="s">
-        <v>108</v>
-      </c>
-      <c r="B48" s="77"/>
-      <c r="C48" s="77"/>
-      <c r="D48" s="77"/>
+      <c r="A48" s="77" t="s">
+        <v>102</v>
+      </c>
+      <c r="B48" s="78"/>
+      <c r="C48" s="78"/>
+      <c r="D48" s="78"/>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
-      <c r="J48" s="99">
+      <c r="J48" s="100">
         <f ca="1">_xlfn.IFNA(OFFSET(Adatok!$A$91,MATCH('Gyorsító sáv'!$A48,Fastlaneshops,0)-1,1,1,COUNT(OFFSET(Adatok!$A$91,MATCH('Gyorsító sáv'!$A48,Fastlaneshops,0)-1,1,,1))),0)</f>
         <v>0</v>
       </c>
-      <c r="K48" s="99"/>
-      <c r="L48" s="100"/>
+      <c r="K48" s="100"/>
+      <c r="L48" s="101"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="76" t="s">
-        <v>108</v>
-      </c>
-      <c r="B49" s="77"/>
-      <c r="C49" s="77"/>
-      <c r="D49" s="77"/>
+      <c r="A49" s="77" t="s">
+        <v>102</v>
+      </c>
+      <c r="B49" s="78"/>
+      <c r="C49" s="78"/>
+      <c r="D49" s="78"/>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
-      <c r="J49" s="99">
+      <c r="J49" s="100">
         <f ca="1">_xlfn.IFNA(OFFSET(Adatok!$A$91,MATCH('Gyorsító sáv'!$A49,Fastlaneshops,0)-1,1,1,COUNT(OFFSET(Adatok!$A$91,MATCH('Gyorsító sáv'!$A49,Fastlaneshops,0)-1,1,,1))),0)</f>
         <v>0</v>
       </c>
-      <c r="K49" s="99"/>
-      <c r="L49" s="100"/>
+      <c r="K49" s="100"/>
+      <c r="L49" s="101"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="76" t="s">
-        <v>108</v>
-      </c>
-      <c r="B50" s="77"/>
-      <c r="C50" s="77"/>
-      <c r="D50" s="77"/>
+      <c r="A50" s="77" t="s">
+        <v>102</v>
+      </c>
+      <c r="B50" s="78"/>
+      <c r="C50" s="78"/>
+      <c r="D50" s="78"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
-      <c r="J50" s="99">
+      <c r="J50" s="100">
         <f ca="1">_xlfn.IFNA(OFFSET(Adatok!$A$91,MATCH('Gyorsító sáv'!$A50,Fastlaneshops,0)-1,1,1,COUNT(OFFSET(Adatok!$A$91,MATCH('Gyorsító sáv'!$A50,Fastlaneshops,0)-1,1,,1))),0)</f>
         <v>0</v>
       </c>
-      <c r="K50" s="99"/>
-      <c r="L50" s="100"/>
+      <c r="K50" s="100"/>
+      <c r="L50" s="101"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="76" t="s">
-        <v>108</v>
-      </c>
-      <c r="B51" s="77"/>
-      <c r="C51" s="77"/>
-      <c r="D51" s="77"/>
+      <c r="A51" s="77" t="s">
+        <v>102</v>
+      </c>
+      <c r="B51" s="78"/>
+      <c r="C51" s="78"/>
+      <c r="D51" s="78"/>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
-      <c r="J51" s="99">
+      <c r="J51" s="100">
         <f ca="1">_xlfn.IFNA(OFFSET(Adatok!$A$91,MATCH('Gyorsító sáv'!$A51,Fastlaneshops,0)-1,1,1,COUNT(OFFSET(Adatok!$A$91,MATCH('Gyorsító sáv'!$A51,Fastlaneshops,0)-1,1,,1))),0)</f>
         <v>0</v>
       </c>
-      <c r="K51" s="99"/>
-      <c r="L51" s="100"/>
+      <c r="K51" s="100"/>
+      <c r="L51" s="101"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="76" t="s">
-        <v>108</v>
-      </c>
-      <c r="B52" s="77"/>
-      <c r="C52" s="77"/>
-      <c r="D52" s="77"/>
+      <c r="A52" s="77" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" s="78"/>
+      <c r="C52" s="78"/>
+      <c r="D52" s="78"/>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
-      <c r="J52" s="99">
+      <c r="J52" s="100">
         <f ca="1">_xlfn.IFNA(OFFSET(Adatok!$A$91,MATCH('Gyorsító sáv'!$A52,Fastlaneshops,0)-1,1,1,COUNT(OFFSET(Adatok!$A$91,MATCH('Gyorsító sáv'!$A52,Fastlaneshops,0)-1,1,,1))),0)</f>
         <v>0</v>
       </c>
-      <c r="K52" s="99"/>
-      <c r="L52" s="100"/>
+      <c r="K52" s="100"/>
+      <c r="L52" s="101"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="76" t="s">
-        <v>108</v>
-      </c>
-      <c r="B53" s="77"/>
-      <c r="C53" s="77"/>
-      <c r="D53" s="77"/>
+      <c r="A53" s="77" t="s">
+        <v>102</v>
+      </c>
+      <c r="B53" s="78"/>
+      <c r="C53" s="78"/>
+      <c r="D53" s="78"/>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
-      <c r="J53" s="99">
+      <c r="J53" s="100">
         <f ca="1">_xlfn.IFNA(OFFSET(Adatok!$A$91,MATCH('Gyorsító sáv'!$A53,Fastlaneshops,0)-1,1,1,COUNT(OFFSET(Adatok!$A$91,MATCH('Gyorsító sáv'!$A53,Fastlaneshops,0)-1,1,,1))),0)</f>
         <v>0</v>
       </c>
-      <c r="K53" s="99"/>
-      <c r="L53" s="100"/>
+      <c r="K53" s="100"/>
+      <c r="L53" s="101"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="76"/>
-      <c r="B54" s="77"/>
-      <c r="C54" s="77"/>
-      <c r="D54" s="77"/>
+      <c r="A54" s="77"/>
+      <c r="B54" s="78"/>
+      <c r="C54" s="78"/>
+      <c r="D54" s="78"/>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
-      <c r="J54" s="99">
+      <c r="J54" s="100">
         <f ca="1">_xlfn.IFNA(OFFSET(Adatok!$A$91,MATCH('Gyorsító sáv'!$A54,Fastlaneshops,0)-1,1,1,COUNT(OFFSET(Adatok!$A$91,MATCH('Gyorsító sáv'!$A54,Fastlaneshops,0)-1,1,,1))),0)</f>
         <v>0</v>
       </c>
-      <c r="K54" s="99"/>
-      <c r="L54" s="100"/>
+      <c r="K54" s="100"/>
+      <c r="L54" s="101"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="4oYOXtn/SkEEpxnbBuFvp5wC4bmDI6DebCcM6a9JKOk7ZXmdIhz279LIdU/mdbbg4Nsqb2In7x64ZLEYsaGTeA==" saltValue="nPQFHNezCWqqhDxB+8sTFQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
@@ -4345,10 +4354,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{680D8BBE-78D4-45C1-987E-F9DC6D224387}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:W106"/>
+  <dimension ref="A1:AD106"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D91" sqref="D91"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4391,10 +4400,10 @@
         <v>8</v>
       </c>
       <c r="F1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" t="s">
         <v>68</v>
-      </c>
-      <c r="G1" t="s">
-        <v>69</v>
       </c>
       <c r="H1" t="s">
         <v>13</v>
@@ -4415,28 +4424,28 @@
         <v>18</v>
       </c>
       <c r="N1" t="s">
+        <v>70</v>
+      </c>
+      <c r="O1" t="s">
         <v>71</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>72</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>73</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>74</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
+        <v>69</v>
+      </c>
+      <c r="T1" t="s">
         <v>75</v>
       </c>
-      <c r="S1" t="s">
-        <v>70</v>
-      </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>76</v>
-      </c>
-      <c r="U1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -4444,7 +4453,7 @@
         <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>163</v>
       </c>
       <c r="C2" s="34">
         <v>9500</v>
@@ -4509,7 +4518,7 @@
         <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C3" s="34">
         <v>4600</v>
@@ -4574,7 +4583,7 @@
         <v>66</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>164</v>
       </c>
       <c r="C4" s="34">
         <v>13200</v>
@@ -4636,10 +4645,10 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C5" s="34">
         <v>4900</v>
@@ -4701,10 +4710,10 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>159</v>
       </c>
       <c r="C6" s="34">
         <v>1600</v>
@@ -4766,10 +4775,10 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C7" s="34">
         <v>7500</v>
@@ -4831,10 +4840,10 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>162</v>
       </c>
       <c r="C8" s="34">
         <v>2000</v>
@@ -4896,10 +4905,10 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B9" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C9" s="34">
         <v>3100</v>
@@ -4961,10 +4970,10 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>161</v>
       </c>
       <c r="C10" s="34">
         <v>3000</v>
@@ -5026,10 +5035,10 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B11" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C11" s="34">
         <v>2500</v>
@@ -5091,10 +5100,10 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B12" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C12" s="34">
         <v>3300</v>
@@ -5156,10 +5165,10 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B13" t="s">
-        <v>97</v>
+        <v>160</v>
       </c>
       <c r="C13" s="34">
         <v>2500</v>
@@ -5221,7 +5230,7 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="K15" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -5229,23 +5238,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="K17">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C18" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G18" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H18" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="I18" t="s">
         <v>26</v>
@@ -5254,16 +5263,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B19" s="34"/>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="H19">
         <v>17000</v>
@@ -5275,15 +5284,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="H20">
         <v>4000</v>
@@ -5295,9 +5304,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -5306,9 +5315,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C22">
         <v>3</v>
@@ -5317,40 +5326,40 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="I24" s="58" t="e">
         <f ca="1">OFFSET(Adatok!$H$26,MATCH(Mókuskerék!$A11,Adatok!$H$26:$H$43,0)-1,1,1,COUNT(OFFSET(Adatok!$H$26,MATCH(Mókuskerék!$A11,Adatok!$H$26:$H$43,0)-1,1,,15)))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B25" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C25" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D25" s="54" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E25" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G25" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="60" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B26" s="49">
         <v>500</v>
@@ -5400,22 +5409,70 @@
         <f>IF(COLUMNS($J$25:P$25)&lt;=$G26,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H26)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H26)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:P$25))),"")</f>
         <v/>
       </c>
+      <c r="P26" t="str">
+        <f>IF(COLUMNS($J$25:Q$25)&lt;=$G26,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H26)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H26)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:Q$25))),"")</f>
+        <v/>
+      </c>
       <c r="Q26" t="str">
-        <f>IF(COLUMNS($J$25:Q$25)&lt;=$G26,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H26)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H26)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:Q$25))),"")</f>
+        <f>IF(COLUMNS($J$25:R$25)&lt;=$G26,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H26)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H26)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:R$25))),"")</f>
         <v/>
       </c>
       <c r="R26" t="str">
-        <f>IF(COLUMNS($J$25:R$25)&lt;=$G26,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H26)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H26)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:R$25))),"")</f>
+        <f>IF(COLUMNS($J$25:S$25)&lt;=$G26,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H26)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H26)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:S$25))),"")</f>
         <v/>
       </c>
       <c r="S26" t="str">
-        <f>IF(COLUMNS($J$25:S$25)&lt;=$G26,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H26)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H26)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:S$25))),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+        <f>IF(COLUMNS($J$25:T$25)&lt;=$G26,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H26)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H26)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:T$25))),"")</f>
+        <v/>
+      </c>
+      <c r="T26" t="str">
+        <f>IF(COLUMNS($J$25:U$25)&lt;=$G26,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H26)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H26)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:U$25))),"")</f>
+        <v/>
+      </c>
+      <c r="U26" t="str">
+        <f>IF(COLUMNS($J$25:V$25)&lt;=$G26,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H26)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H26)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:V$25))),"")</f>
+        <v/>
+      </c>
+      <c r="V26" t="str">
+        <f>IF(COLUMNS($J$25:W$25)&lt;=$G26,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H26)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H26)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:W$25))),"")</f>
+        <v/>
+      </c>
+      <c r="W26" t="str">
+        <f>IF(COLUMNS($J$25:X$25)&lt;=$G26,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H26)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H26)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:X$25))),"")</f>
+        <v/>
+      </c>
+      <c r="X26" t="str">
+        <f>IF(COLUMNS($J$25:Y$25)&lt;=$G26,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H26)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H26)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:Y$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Y26" t="str">
+        <f>IF(COLUMNS($J$25:Z$25)&lt;=$G26,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H26)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H26)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:Z$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Z26" t="str">
+        <f>IF(COLUMNS($J$25:AA$25)&lt;=$G26,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H26)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H26)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:AA$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AA26" t="str">
+        <f>IF(COLUMNS($J$25:AB$25)&lt;=$G26,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H26)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H26)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:AB$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AB26" t="str">
+        <f>IF(COLUMNS($J$25:AC$25)&lt;=$G26,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H26)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H26)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:AC$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AC26" t="str">
+        <f>IF(COLUMNS($J$25:AD$25)&lt;=$G26,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H26)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H26)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:AD$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AD26" t="str">
+        <f>IF(COLUMNS($J$25:AE$25)&lt;=$G26,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H26)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H26)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:AE$25))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="59" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B27" s="46">
         <v>3000</v>
@@ -5466,7 +5523,7 @@
         <v/>
       </c>
       <c r="P27" t="str">
-        <f>IF(COLUMNS($J$25:Q$25)&lt;=$G27,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H27)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H27)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:Q$25))),"")</f>
+        <f>IF(COLUMNS($J$25:Q$25)&lt;=$G27,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H27)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H27)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:Q$25))),"")</f>
         <v/>
       </c>
       <c r="Q27" t="str">
@@ -5474,17 +5531,61 @@
         <v/>
       </c>
       <c r="R27" t="str">
-        <f>IF(COLUMNS($J$25:R$25)&lt;=$G27,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H27)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H27)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:R$25))),"")</f>
+        <f>IF(COLUMNS($J$25:S$25)&lt;=$G27,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H27)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H27)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:S$25))),"")</f>
         <v/>
       </c>
       <c r="S27" t="str">
-        <f>IF(COLUMNS($J$25:S$25)&lt;=$G27,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H27)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H27)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:S$25))),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+        <f>IF(COLUMNS($J$25:T$25)&lt;=$G27,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H27)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H27)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:T$25))),"")</f>
+        <v/>
+      </c>
+      <c r="T27" t="str">
+        <f>IF(COLUMNS($J$25:U$25)&lt;=$G27,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H27)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H27)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:U$25))),"")</f>
+        <v/>
+      </c>
+      <c r="U27" t="str">
+        <f>IF(COLUMNS($J$25:V$25)&lt;=$G27,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H27)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H27)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:V$25))),"")</f>
+        <v/>
+      </c>
+      <c r="V27" t="str">
+        <f>IF(COLUMNS($J$25:W$25)&lt;=$G27,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H27)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H27)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:W$25))),"")</f>
+        <v/>
+      </c>
+      <c r="W27" t="str">
+        <f>IF(COLUMNS($J$25:X$25)&lt;=$G27,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H27)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H27)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:X$25))),"")</f>
+        <v/>
+      </c>
+      <c r="X27" t="str">
+        <f>IF(COLUMNS($J$25:Y$25)&lt;=$G27,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H27)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H27)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:Y$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Y27" t="str">
+        <f>IF(COLUMNS($J$25:Z$25)&lt;=$G27,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H27)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H27)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:Z$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Z27" t="str">
+        <f>IF(COLUMNS($J$25:AA$25)&lt;=$G27,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H27)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H27)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:AA$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AA27" t="str">
+        <f>IF(COLUMNS($J$25:AB$25)&lt;=$G27,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H27)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H27)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:AB$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AB27" t="str">
+        <f>IF(COLUMNS($J$25:AC$25)&lt;=$G27,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H27)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H27)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:AC$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AC27" t="str">
+        <f>IF(COLUMNS($J$25:AD$25)&lt;=$G27,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H27)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H27)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:AD$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AD27" t="str">
+        <f>IF(COLUMNS($J$25:AE$25)&lt;=$G27,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H27)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H27)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:AE$25))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="59" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B28" s="46">
         <v>5000</v>
@@ -5535,7 +5636,7 @@
         <v/>
       </c>
       <c r="P28" t="str">
-        <f>IF(COLUMNS($J$25:Q$25)&lt;=$G28,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H28)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H28)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:Q$25))),"")</f>
+        <f>IF(COLUMNS($J$25:Q$25)&lt;=$G28,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H28)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H28)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:Q$25))),"")</f>
         <v/>
       </c>
       <c r="Q28" t="str">
@@ -5543,17 +5644,61 @@
         <v/>
       </c>
       <c r="R28" t="str">
-        <f>IF(COLUMNS($J$25:R$25)&lt;=$G28,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H28)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H28)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:R$25))),"")</f>
+        <f>IF(COLUMNS($J$25:S$25)&lt;=$G28,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H28)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H28)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:S$25))),"")</f>
         <v/>
       </c>
       <c r="S28" t="str">
-        <f>IF(COLUMNS($J$25:S$25)&lt;=$G28,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H28)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H28)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:S$25))),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+        <f>IF(COLUMNS($J$25:T$25)&lt;=$G28,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H28)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H28)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:T$25))),"")</f>
+        <v/>
+      </c>
+      <c r="T28" t="str">
+        <f>IF(COLUMNS($J$25:U$25)&lt;=$G28,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H28)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H28)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:U$25))),"")</f>
+        <v/>
+      </c>
+      <c r="U28" t="str">
+        <f>IF(COLUMNS($J$25:V$25)&lt;=$G28,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H28)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H28)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:V$25))),"")</f>
+        <v/>
+      </c>
+      <c r="V28" t="str">
+        <f>IF(COLUMNS($J$25:W$25)&lt;=$G28,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H28)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H28)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:W$25))),"")</f>
+        <v/>
+      </c>
+      <c r="W28" t="str">
+        <f>IF(COLUMNS($J$25:X$25)&lt;=$G28,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H28)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H28)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:X$25))),"")</f>
+        <v/>
+      </c>
+      <c r="X28" t="str">
+        <f>IF(COLUMNS($J$25:Y$25)&lt;=$G28,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H28)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H28)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:Y$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Y28" t="str">
+        <f>IF(COLUMNS($J$25:Z$25)&lt;=$G28,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H28)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H28)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:Z$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Z28" t="str">
+        <f>IF(COLUMNS($J$25:AA$25)&lt;=$G28,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H28)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H28)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:AA$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AA28" t="str">
+        <f>IF(COLUMNS($J$25:AB$25)&lt;=$G28,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H28)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H28)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:AB$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AB28" t="str">
+        <f>IF(COLUMNS($J$25:AC$25)&lt;=$G28,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H28)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H28)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:AC$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AC28" t="str">
+        <f>IF(COLUMNS($J$25:AD$25)&lt;=$G28,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H28)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H28)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:AD$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AD28" t="str">
+        <f>IF(COLUMNS($J$25:AE$25)&lt;=$G28,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H28)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H28)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:AE$25))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" s="46" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B29" s="46">
         <v>20000</v>
@@ -5604,7 +5749,7 @@
         <v/>
       </c>
       <c r="P29" t="str">
-        <f>IF(COLUMNS($J$25:Q$25)&lt;=$G29,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H29)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H29)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:Q$25))),"")</f>
+        <f>IF(COLUMNS($J$25:Q$25)&lt;=$G29,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H29)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H29)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:Q$25))),"")</f>
         <v/>
       </c>
       <c r="Q29" t="str">
@@ -5612,17 +5757,61 @@
         <v/>
       </c>
       <c r="R29" t="str">
-        <f>IF(COLUMNS($J$25:R$25)&lt;=$G29,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H29)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H29)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:R$25))),"")</f>
+        <f>IF(COLUMNS($J$25:S$25)&lt;=$G29,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H29)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H29)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:S$25))),"")</f>
         <v/>
       </c>
       <c r="S29" t="str">
-        <f>IF(COLUMNS($J$25:S$25)&lt;=$G29,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H29)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H29)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:S$25))),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+        <f>IF(COLUMNS($J$25:T$25)&lt;=$G29,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H29)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H29)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:T$25))),"")</f>
+        <v/>
+      </c>
+      <c r="T29" t="str">
+        <f>IF(COLUMNS($J$25:U$25)&lt;=$G29,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H29)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H29)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:U$25))),"")</f>
+        <v/>
+      </c>
+      <c r="U29" t="str">
+        <f>IF(COLUMNS($J$25:V$25)&lt;=$G29,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H29)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H29)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:V$25))),"")</f>
+        <v/>
+      </c>
+      <c r="V29" t="str">
+        <f>IF(COLUMNS($J$25:W$25)&lt;=$G29,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H29)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H29)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:W$25))),"")</f>
+        <v/>
+      </c>
+      <c r="W29" t="str">
+        <f>IF(COLUMNS($J$25:X$25)&lt;=$G29,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H29)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H29)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:X$25))),"")</f>
+        <v/>
+      </c>
+      <c r="X29" t="str">
+        <f>IF(COLUMNS($J$25:Y$25)&lt;=$G29,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H29)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H29)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:Y$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Y29" t="str">
+        <f>IF(COLUMNS($J$25:Z$25)&lt;=$G29,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H29)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H29)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:Z$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Z29" t="str">
+        <f>IF(COLUMNS($J$25:AA$25)&lt;=$G29,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H29)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H29)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:AA$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AA29" t="str">
+        <f>IF(COLUMNS($J$25:AB$25)&lt;=$G29,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H29)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H29)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:AB$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AB29" t="str">
+        <f>IF(COLUMNS($J$25:AC$25)&lt;=$G29,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H29)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H29)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:AC$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AC29" t="str">
+        <f>IF(COLUMNS($J$25:AD$25)&lt;=$G29,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H29)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H29)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:AD$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AD29" t="str">
+        <f>IF(COLUMNS($J$25:AE$25)&lt;=$G29,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H29)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H29)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:AE$25))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="59" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B30" s="46">
         <v>20000</v>
@@ -5673,7 +5862,7 @@
         <v/>
       </c>
       <c r="P30" t="str">
-        <f>IF(COLUMNS($J$25:Q$25)&lt;=$G30,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H30)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H30)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:Q$25))),"")</f>
+        <f>IF(COLUMNS($J$25:Q$25)&lt;=$G30,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H30)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H30)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:Q$25))),"")</f>
         <v/>
       </c>
       <c r="Q30" t="str">
@@ -5681,17 +5870,61 @@
         <v/>
       </c>
       <c r="R30" t="str">
-        <f>IF(COLUMNS($J$25:R$25)&lt;=$G30,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H30)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H30)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:R$25))),"")</f>
+        <f>IF(COLUMNS($J$25:S$25)&lt;=$G30,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H30)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H30)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:S$25))),"")</f>
         <v/>
       </c>
       <c r="S30" t="str">
-        <f>IF(COLUMNS($J$25:S$25)&lt;=$G30,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H30)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H30)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:S$25))),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+        <f>IF(COLUMNS($J$25:T$25)&lt;=$G30,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H30)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H30)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:T$25))),"")</f>
+        <v/>
+      </c>
+      <c r="T30" t="str">
+        <f>IF(COLUMNS($J$25:U$25)&lt;=$G30,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H30)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H30)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:U$25))),"")</f>
+        <v/>
+      </c>
+      <c r="U30" t="str">
+        <f>IF(COLUMNS($J$25:V$25)&lt;=$G30,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H30)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H30)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:V$25))),"")</f>
+        <v/>
+      </c>
+      <c r="V30" t="str">
+        <f>IF(COLUMNS($J$25:W$25)&lt;=$G30,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H30)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H30)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:W$25))),"")</f>
+        <v/>
+      </c>
+      <c r="W30" t="str">
+        <f>IF(COLUMNS($J$25:X$25)&lt;=$G30,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H30)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H30)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:X$25))),"")</f>
+        <v/>
+      </c>
+      <c r="X30" t="str">
+        <f>IF(COLUMNS($J$25:Y$25)&lt;=$G30,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H30)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H30)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:Y$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Y30" t="str">
+        <f>IF(COLUMNS($J$25:Z$25)&lt;=$G30,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H30)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H30)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:Z$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Z30" t="str">
+        <f>IF(COLUMNS($J$25:AA$25)&lt;=$G30,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H30)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H30)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:AA$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AA30" t="str">
+        <f>IF(COLUMNS($J$25:AB$25)&lt;=$G30,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H30)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H30)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:AB$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AB30" t="str">
+        <f>IF(COLUMNS($J$25:AC$25)&lt;=$G30,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H30)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H30)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:AC$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AC30" t="str">
+        <f>IF(COLUMNS($J$25:AD$25)&lt;=$G30,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H30)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H30)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:AD$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AD30" t="str">
+        <f>IF(COLUMNS($J$25:AE$25)&lt;=$G30,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H30)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H30)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:AE$25))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="59" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B31" s="46">
         <v>25000</v>
@@ -5742,7 +5975,7 @@
         <v/>
       </c>
       <c r="P31" t="str">
-        <f>IF(COLUMNS($J$25:Q$25)&lt;=$G31,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H31)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H31)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:Q$25))),"")</f>
+        <f>IF(COLUMNS($J$25:Q$25)&lt;=$G31,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H31)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H31)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:Q$25))),"")</f>
         <v/>
       </c>
       <c r="Q31" t="str">
@@ -5750,17 +5983,61 @@
         <v/>
       </c>
       <c r="R31" t="str">
-        <f>IF(COLUMNS($J$25:R$25)&lt;=$G31,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H31)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H31)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:R$25))),"")</f>
+        <f>IF(COLUMNS($J$25:S$25)&lt;=$G31,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H31)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H31)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:S$25))),"")</f>
         <v/>
       </c>
       <c r="S31" t="str">
-        <f>IF(COLUMNS($J$25:S$25)&lt;=$G31,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H31)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H31)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:S$25))),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+        <f>IF(COLUMNS($J$25:T$25)&lt;=$G31,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H31)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H31)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:T$25))),"")</f>
+        <v/>
+      </c>
+      <c r="T31" t="str">
+        <f>IF(COLUMNS($J$25:U$25)&lt;=$G31,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H31)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H31)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:U$25))),"")</f>
+        <v/>
+      </c>
+      <c r="U31" t="str">
+        <f>IF(COLUMNS($J$25:V$25)&lt;=$G31,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H31)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H31)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:V$25))),"")</f>
+        <v/>
+      </c>
+      <c r="V31" t="str">
+        <f>IF(COLUMNS($J$25:W$25)&lt;=$G31,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H31)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H31)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:W$25))),"")</f>
+        <v/>
+      </c>
+      <c r="W31" t="str">
+        <f>IF(COLUMNS($J$25:X$25)&lt;=$G31,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H31)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H31)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:X$25))),"")</f>
+        <v/>
+      </c>
+      <c r="X31" t="str">
+        <f>IF(COLUMNS($J$25:Y$25)&lt;=$G31,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H31)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H31)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:Y$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Y31" t="str">
+        <f>IF(COLUMNS($J$25:Z$25)&lt;=$G31,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H31)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H31)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:Z$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Z31" t="str">
+        <f>IF(COLUMNS($J$25:AA$25)&lt;=$G31,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H31)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H31)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:AA$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AA31" t="str">
+        <f>IF(COLUMNS($J$25:AB$25)&lt;=$G31,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H31)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H31)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:AB$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AB31" t="str">
+        <f>IF(COLUMNS($J$25:AC$25)&lt;=$G31,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H31)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H31)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:AC$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AC31" t="str">
+        <f>IF(COLUMNS($J$25:AD$25)&lt;=$G31,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H31)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H31)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:AD$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AD31" t="str">
+        <f>IF(COLUMNS($J$25:AE$25)&lt;=$G31,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H31)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H31)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:AE$25))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" s="46" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B32" s="46">
         <v>30000</v>
@@ -5776,7 +6053,7 @@
       </c>
       <c r="G32">
         <f>COUNTIF(Adatok[Ingatlanok],H32)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H32" s="57" t="str">
         <f>INDEX(Adatok[Ingatlanok],MATCH(0,INDEX(COUNTIF($H$25:H31,Adatok[Ingatlanok]),),0))</f>
@@ -5798,9 +6075,9 @@
         <f>IF(COLUMNS($J$25:M$25)&lt;=$G32,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H32)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H32)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:M$25))),"")</f>
         <v>60000</v>
       </c>
-      <c r="M32" t="str">
+      <c r="M32">
         <f>IF(COLUMNS($J$25:N$25)&lt;=$G32,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H32)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H32)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:N$25))),"")</f>
-        <v/>
+        <v>55000</v>
       </c>
       <c r="N32" t="str">
         <f>IF(COLUMNS($J$25:O$25)&lt;=$G32,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H32)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H32)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:O$25))),"")</f>
@@ -5811,7 +6088,7 @@
         <v/>
       </c>
       <c r="P32" t="str">
-        <f>IF(COLUMNS($J$25:Q$25)&lt;=$G32,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H32)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H32)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:Q$25))),"")</f>
+        <f>IF(COLUMNS($J$25:Q$25)&lt;=$G32,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H32)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H32)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:Q$25))),"")</f>
         <v/>
       </c>
       <c r="Q32" t="str">
@@ -5819,17 +6096,61 @@
         <v/>
       </c>
       <c r="R32" t="str">
-        <f>IF(COLUMNS($J$25:R$25)&lt;=$G32,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H32)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H32)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:R$25))),"")</f>
+        <f>IF(COLUMNS($J$25:S$25)&lt;=$G32,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H32)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H32)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:S$25))),"")</f>
         <v/>
       </c>
       <c r="S32" t="str">
-        <f>IF(COLUMNS($J$25:S$25)&lt;=$G32,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H32)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H32)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:S$25))),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+        <f>IF(COLUMNS($J$25:T$25)&lt;=$G32,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H32)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H32)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:T$25))),"")</f>
+        <v/>
+      </c>
+      <c r="T32" t="str">
+        <f>IF(COLUMNS($J$25:U$25)&lt;=$G32,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H32)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H32)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:U$25))),"")</f>
+        <v/>
+      </c>
+      <c r="U32" t="str">
+        <f>IF(COLUMNS($J$25:V$25)&lt;=$G32,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H32)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H32)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:V$25))),"")</f>
+        <v/>
+      </c>
+      <c r="V32" t="str">
+        <f>IF(COLUMNS($J$25:W$25)&lt;=$G32,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H32)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H32)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:W$25))),"")</f>
+        <v/>
+      </c>
+      <c r="W32" t="str">
+        <f>IF(COLUMNS($J$25:X$25)&lt;=$G32,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H32)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H32)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:X$25))),"")</f>
+        <v/>
+      </c>
+      <c r="X32" t="str">
+        <f>IF(COLUMNS($J$25:Y$25)&lt;=$G32,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H32)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H32)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:Y$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Y32" t="str">
+        <f>IF(COLUMNS($J$25:Z$25)&lt;=$G32,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H32)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H32)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:Z$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Z32" t="str">
+        <f>IF(COLUMNS($J$25:AA$25)&lt;=$G32,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H32)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H32)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:AA$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AA32" t="str">
+        <f>IF(COLUMNS($J$25:AB$25)&lt;=$G32,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H32)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H32)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:AB$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AB32" t="str">
+        <f>IF(COLUMNS($J$25:AC$25)&lt;=$G32,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H32)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H32)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:AC$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AC32" t="str">
+        <f>IF(COLUMNS($J$25:AD$25)&lt;=$G32,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H32)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H32)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:AD$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AD32" t="str">
+        <f>IF(COLUMNS($J$25:AE$25)&lt;=$G32,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H32)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H32)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:AE$25))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33" s="46" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B33" s="46">
         <v>30000</v>
@@ -5880,7 +6201,7 @@
         <v/>
       </c>
       <c r="P33" t="str">
-        <f>IF(COLUMNS($J$25:Q$25)&lt;=$G33,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H33)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H33)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:Q$25))),"")</f>
+        <f>IF(COLUMNS($J$25:Q$25)&lt;=$G33,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H33)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H33)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:Q$25))),"")</f>
         <v/>
       </c>
       <c r="Q33" t="str">
@@ -5888,17 +6209,61 @@
         <v/>
       </c>
       <c r="R33" t="str">
-        <f>IF(COLUMNS($J$25:R$25)&lt;=$G33,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H33)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H33)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:R$25))),"")</f>
+        <f>IF(COLUMNS($J$25:S$25)&lt;=$G33,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H33)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H33)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:S$25))),"")</f>
         <v/>
       </c>
       <c r="S33" t="str">
-        <f>IF(COLUMNS($J$25:S$25)&lt;=$G33,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H33)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H33)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:S$25))),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+        <f>IF(COLUMNS($J$25:T$25)&lt;=$G33,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H33)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H33)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:T$25))),"")</f>
+        <v/>
+      </c>
+      <c r="T33" t="str">
+        <f>IF(COLUMNS($J$25:U$25)&lt;=$G33,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H33)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H33)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:U$25))),"")</f>
+        <v/>
+      </c>
+      <c r="U33" t="str">
+        <f>IF(COLUMNS($J$25:V$25)&lt;=$G33,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H33)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H33)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:V$25))),"")</f>
+        <v/>
+      </c>
+      <c r="V33" t="str">
+        <f>IF(COLUMNS($J$25:W$25)&lt;=$G33,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H33)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H33)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:W$25))),"")</f>
+        <v/>
+      </c>
+      <c r="W33" t="str">
+        <f>IF(COLUMNS($J$25:X$25)&lt;=$G33,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H33)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H33)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:X$25))),"")</f>
+        <v/>
+      </c>
+      <c r="X33" t="str">
+        <f>IF(COLUMNS($J$25:Y$25)&lt;=$G33,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H33)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H33)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:Y$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Y33" t="str">
+        <f>IF(COLUMNS($J$25:Z$25)&lt;=$G33,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H33)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H33)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:Z$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Z33" t="str">
+        <f>IF(COLUMNS($J$25:AA$25)&lt;=$G33,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H33)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H33)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:AA$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AA33" t="str">
+        <f>IF(COLUMNS($J$25:AB$25)&lt;=$G33,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H33)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H33)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:AB$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AB33" t="str">
+        <f>IF(COLUMNS($J$25:AC$25)&lt;=$G33,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H33)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H33)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:AC$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AC33" t="str">
+        <f>IF(COLUMNS($J$25:AD$25)&lt;=$G33,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H33)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H33)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:AD$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AD33" t="str">
+        <f>IF(COLUMNS($J$25:AE$25)&lt;=$G33,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H33)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H33)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:AE$25))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34" s="59" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B34" s="46">
         <v>35000</v>
@@ -5949,7 +6314,7 @@
         <v/>
       </c>
       <c r="P34" t="str">
-        <f>IF(COLUMNS($J$25:Q$25)&lt;=$G34,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H34)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H34)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:Q$25))),"")</f>
+        <f>IF(COLUMNS($J$25:Q$25)&lt;=$G34,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H34)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H34)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:Q$25))),"")</f>
         <v/>
       </c>
       <c r="Q34" t="str">
@@ -5957,17 +6322,61 @@
         <v/>
       </c>
       <c r="R34" t="str">
-        <f>IF(COLUMNS($J$25:R$25)&lt;=$G34,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H34)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H34)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:R$25))),"")</f>
+        <f>IF(COLUMNS($J$25:S$25)&lt;=$G34,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H34)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H34)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:S$25))),"")</f>
         <v/>
       </c>
       <c r="S34" t="str">
-        <f>IF(COLUMNS($J$25:S$25)&lt;=$G34,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H34)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H34)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:S$25))),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+        <f>IF(COLUMNS($J$25:T$25)&lt;=$G34,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H34)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H34)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:T$25))),"")</f>
+        <v/>
+      </c>
+      <c r="T34" t="str">
+        <f>IF(COLUMNS($J$25:U$25)&lt;=$G34,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H34)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H34)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:U$25))),"")</f>
+        <v/>
+      </c>
+      <c r="U34" t="str">
+        <f>IF(COLUMNS($J$25:V$25)&lt;=$G34,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H34)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H34)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:V$25))),"")</f>
+        <v/>
+      </c>
+      <c r="V34" t="str">
+        <f>IF(COLUMNS($J$25:W$25)&lt;=$G34,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H34)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H34)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:W$25))),"")</f>
+        <v/>
+      </c>
+      <c r="W34" t="str">
+        <f>IF(COLUMNS($J$25:X$25)&lt;=$G34,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H34)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H34)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:X$25))),"")</f>
+        <v/>
+      </c>
+      <c r="X34" t="str">
+        <f>IF(COLUMNS($J$25:Y$25)&lt;=$G34,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H34)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H34)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:Y$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Y34" t="str">
+        <f>IF(COLUMNS($J$25:Z$25)&lt;=$G34,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H34)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H34)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:Z$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Z34" t="str">
+        <f>IF(COLUMNS($J$25:AA$25)&lt;=$G34,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H34)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H34)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:AA$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AA34" t="str">
+        <f>IF(COLUMNS($J$25:AB$25)&lt;=$G34,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H34)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H34)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:AB$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AB34" t="str">
+        <f>IF(COLUMNS($J$25:AC$25)&lt;=$G34,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H34)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H34)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:AC$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AC34" t="str">
+        <f>IF(COLUMNS($J$25:AD$25)&lt;=$G34,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H34)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H34)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:AD$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AD34" t="str">
+        <f>IF(COLUMNS($J$25:AE$25)&lt;=$G34,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H34)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H34)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:AE$25))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35" s="59" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B35" s="46">
         <v>35000</v>
@@ -5983,7 +6392,7 @@
       </c>
       <c r="G35">
         <f>COUNTIF(Adatok[Ingatlanok],H35)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H35" s="57" t="str">
         <f>INDEX(Adatok[Ingatlanok],MATCH(0,INDEX(COUNTIF($H$25:H34,Adatok[Ingatlanok]),),0))</f>
@@ -6018,7 +6427,7 @@
         <v>67000</v>
       </c>
       <c r="P35">
-        <f>IF(COLUMNS($J$25:Q$25)&lt;=$G35,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H35)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H35)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:Q$25))),"")</f>
+        <f>IF(COLUMNS($J$25:Q$25)&lt;=$G35,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H35)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H35)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:Q$25))),"")</f>
         <v>70000</v>
       </c>
       <c r="Q35">
@@ -6026,17 +6435,61 @@
         <v>70000</v>
       </c>
       <c r="R35">
-        <f>IF(COLUMNS($J$25:R$25)&lt;=$G35,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H35)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H35)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:R$25))),"")</f>
-        <v>70000</v>
-      </c>
-      <c r="S35">
         <f>IF(COLUMNS($J$25:S$25)&lt;=$G35,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H35)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H35)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:S$25))),"")</f>
         <v>75000</v>
       </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S35">
+        <f>IF(COLUMNS($J$25:T$25)&lt;=$G35,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H35)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H35)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:T$25))),"")</f>
+        <v>115000</v>
+      </c>
+      <c r="T35">
+        <f>IF(COLUMNS($J$25:U$25)&lt;=$G35,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H35)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H35)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:U$25))),"")</f>
+        <v>125000</v>
+      </c>
+      <c r="U35">
+        <f>IF(COLUMNS($J$25:V$25)&lt;=$G35,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H35)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H35)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:V$25))),"")</f>
+        <v>50000</v>
+      </c>
+      <c r="V35" t="str">
+        <f>IF(COLUMNS($J$25:W$25)&lt;=$G35,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H35)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H35)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:W$25))),"")</f>
+        <v/>
+      </c>
+      <c r="W35" t="str">
+        <f>IF(COLUMNS($J$25:X$25)&lt;=$G35,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H35)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H35)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:X$25))),"")</f>
+        <v/>
+      </c>
+      <c r="X35" t="str">
+        <f>IF(COLUMNS($J$25:Y$25)&lt;=$G35,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H35)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H35)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:Y$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Y35" t="str">
+        <f>IF(COLUMNS($J$25:Z$25)&lt;=$G35,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H35)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H35)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:Z$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Z35" t="str">
+        <f>IF(COLUMNS($J$25:AA$25)&lt;=$G35,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H35)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H35)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:AA$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AA35" t="str">
+        <f>IF(COLUMNS($J$25:AB$25)&lt;=$G35,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H35)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H35)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:AB$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AB35" t="str">
+        <f>IF(COLUMNS($J$25:AC$25)&lt;=$G35,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H35)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H35)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:AC$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AC35" t="str">
+        <f>IF(COLUMNS($J$25:AD$25)&lt;=$G35,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H35)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H35)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:AD$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AD35" t="str">
+        <f>IF(COLUMNS($J$25:AE$25)&lt;=$G35,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H35)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H35)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:AE$25))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" s="59" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B36" s="46">
         <v>40000</v>
@@ -6087,7 +6540,7 @@
         <v/>
       </c>
       <c r="P36" t="str">
-        <f>IF(COLUMNS($J$25:Q$25)&lt;=$G36,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H36)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H36)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:Q$25))),"")</f>
+        <f>IF(COLUMNS($J$25:Q$25)&lt;=$G36,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H36)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H36)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:Q$25))),"")</f>
         <v/>
       </c>
       <c r="Q36" t="str">
@@ -6095,17 +6548,61 @@
         <v/>
       </c>
       <c r="R36" t="str">
-        <f>IF(COLUMNS($J$25:R$25)&lt;=$G36,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H36)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H36)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:R$25))),"")</f>
+        <f>IF(COLUMNS($J$25:S$25)&lt;=$G36,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H36)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H36)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:S$25))),"")</f>
         <v/>
       </c>
       <c r="S36" t="str">
-        <f>IF(COLUMNS($J$25:S$25)&lt;=$G36,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H36)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H36)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:S$25))),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+        <f>IF(COLUMNS($J$25:T$25)&lt;=$G36,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H36)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H36)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:T$25))),"")</f>
+        <v/>
+      </c>
+      <c r="T36" t="str">
+        <f>IF(COLUMNS($J$25:U$25)&lt;=$G36,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H36)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H36)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:U$25))),"")</f>
+        <v/>
+      </c>
+      <c r="U36" t="str">
+        <f>IF(COLUMNS($J$25:V$25)&lt;=$G36,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H36)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H36)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:V$25))),"")</f>
+        <v/>
+      </c>
+      <c r="V36" t="str">
+        <f>IF(COLUMNS($J$25:W$25)&lt;=$G36,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H36)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H36)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:W$25))),"")</f>
+        <v/>
+      </c>
+      <c r="W36" t="str">
+        <f>IF(COLUMNS($J$25:X$25)&lt;=$G36,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H36)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H36)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:X$25))),"")</f>
+        <v/>
+      </c>
+      <c r="X36" t="str">
+        <f>IF(COLUMNS($J$25:Y$25)&lt;=$G36,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H36)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H36)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:Y$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Y36" t="str">
+        <f>IF(COLUMNS($J$25:Z$25)&lt;=$G36,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H36)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H36)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:Z$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Z36" t="str">
+        <f>IF(COLUMNS($J$25:AA$25)&lt;=$G36,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H36)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H36)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:AA$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AA36" t="str">
+        <f>IF(COLUMNS($J$25:AB$25)&lt;=$G36,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H36)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H36)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:AB$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AB36" t="str">
+        <f>IF(COLUMNS($J$25:AC$25)&lt;=$G36,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H36)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H36)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:AC$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AC36" t="str">
+        <f>IF(COLUMNS($J$25:AD$25)&lt;=$G36,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H36)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H36)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:AD$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AD36" t="str">
+        <f>IF(COLUMNS($J$25:AE$25)&lt;=$G36,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H36)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H36)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:AE$25))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37" s="59" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B37" s="46">
         <v>40000</v>
@@ -6156,7 +6653,7 @@
         <v/>
       </c>
       <c r="P37" t="str">
-        <f>IF(COLUMNS($J$25:Q$25)&lt;=$G37,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H37)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H37)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:Q$25))),"")</f>
+        <f>IF(COLUMNS($J$25:Q$25)&lt;=$G37,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H37)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H37)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:Q$25))),"")</f>
         <v/>
       </c>
       <c r="Q37" t="str">
@@ -6164,17 +6661,61 @@
         <v/>
       </c>
       <c r="R37" t="str">
-        <f>IF(COLUMNS($J$25:R$25)&lt;=$G37,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H37)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H37)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:R$25))),"")</f>
+        <f>IF(COLUMNS($J$25:S$25)&lt;=$G37,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H37)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H37)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:S$25))),"")</f>
         <v/>
       </c>
       <c r="S37" t="str">
-        <f>IF(COLUMNS($J$25:S$25)&lt;=$G37,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H37)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H37)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:S$25))),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+        <f>IF(COLUMNS($J$25:T$25)&lt;=$G37,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H37)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H37)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:T$25))),"")</f>
+        <v/>
+      </c>
+      <c r="T37" t="str">
+        <f>IF(COLUMNS($J$25:U$25)&lt;=$G37,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H37)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H37)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:U$25))),"")</f>
+        <v/>
+      </c>
+      <c r="U37" t="str">
+        <f>IF(COLUMNS($J$25:V$25)&lt;=$G37,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H37)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H37)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:V$25))),"")</f>
+        <v/>
+      </c>
+      <c r="V37" t="str">
+        <f>IF(COLUMNS($J$25:W$25)&lt;=$G37,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H37)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H37)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:W$25))),"")</f>
+        <v/>
+      </c>
+      <c r="W37" t="str">
+        <f>IF(COLUMNS($J$25:X$25)&lt;=$G37,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H37)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H37)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:X$25))),"")</f>
+        <v/>
+      </c>
+      <c r="X37" t="str">
+        <f>IF(COLUMNS($J$25:Y$25)&lt;=$G37,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H37)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H37)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:Y$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Y37" t="str">
+        <f>IF(COLUMNS($J$25:Z$25)&lt;=$G37,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H37)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H37)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:Z$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Z37" t="str">
+        <f>IF(COLUMNS($J$25:AA$25)&lt;=$G37,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H37)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H37)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:AA$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AA37" t="str">
+        <f>IF(COLUMNS($J$25:AB$25)&lt;=$G37,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H37)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H37)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:AB$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AB37" t="str">
+        <f>IF(COLUMNS($J$25:AC$25)&lt;=$G37,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H37)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H37)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:AC$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AC37" t="str">
+        <f>IF(COLUMNS($J$25:AD$25)&lt;=$G37,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H37)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H37)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:AD$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AD37" t="str">
+        <f>IF(COLUMNS($J$25:AE$25)&lt;=$G37,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H37)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H37)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:AE$25))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38" s="46" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B38" s="46">
         <v>45000</v>
@@ -6225,7 +6766,7 @@
         <v/>
       </c>
       <c r="P38" t="str">
-        <f>IF(COLUMNS($J$25:Q$25)&lt;=$G38,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H38)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H38)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:Q$25))),"")</f>
+        <f>IF(COLUMNS($J$25:Q$25)&lt;=$G38,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H38)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H38)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:Q$25))),"")</f>
         <v/>
       </c>
       <c r="Q38" t="str">
@@ -6233,17 +6774,61 @@
         <v/>
       </c>
       <c r="R38" t="str">
-        <f>IF(COLUMNS($J$25:R$25)&lt;=$G38,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H38)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H38)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:R$25))),"")</f>
+        <f>IF(COLUMNS($J$25:S$25)&lt;=$G38,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H38)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H38)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:S$25))),"")</f>
         <v/>
       </c>
       <c r="S38" t="str">
-        <f>IF(COLUMNS($J$25:S$25)&lt;=$G38,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H38)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H38)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:S$25))),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+        <f>IF(COLUMNS($J$25:T$25)&lt;=$G38,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H38)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H38)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:T$25))),"")</f>
+        <v/>
+      </c>
+      <c r="T38" t="str">
+        <f>IF(COLUMNS($J$25:U$25)&lt;=$G38,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H38)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H38)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:U$25))),"")</f>
+        <v/>
+      </c>
+      <c r="U38" t="str">
+        <f>IF(COLUMNS($J$25:V$25)&lt;=$G38,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H38)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H38)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:V$25))),"")</f>
+        <v/>
+      </c>
+      <c r="V38" t="str">
+        <f>IF(COLUMNS($J$25:W$25)&lt;=$G38,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H38)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H38)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:W$25))),"")</f>
+        <v/>
+      </c>
+      <c r="W38" t="str">
+        <f>IF(COLUMNS($J$25:X$25)&lt;=$G38,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H38)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H38)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:X$25))),"")</f>
+        <v/>
+      </c>
+      <c r="X38" t="str">
+        <f>IF(COLUMNS($J$25:Y$25)&lt;=$G38,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H38)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H38)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:Y$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Y38" t="str">
+        <f>IF(COLUMNS($J$25:Z$25)&lt;=$G38,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H38)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H38)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:Z$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Z38" t="str">
+        <f>IF(COLUMNS($J$25:AA$25)&lt;=$G38,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H38)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H38)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:AA$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AA38" t="str">
+        <f>IF(COLUMNS($J$25:AB$25)&lt;=$G38,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H38)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H38)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:AB$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AB38" t="str">
+        <f>IF(COLUMNS($J$25:AC$25)&lt;=$G38,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H38)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H38)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:AC$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AC38" t="str">
+        <f>IF(COLUMNS($J$25:AD$25)&lt;=$G38,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H38)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H38)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:AD$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AD38" t="str">
+        <f>IF(COLUMNS($J$25:AE$25)&lt;=$G38,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H38)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H38)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:AE$25))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A39" s="59" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B39" s="46">
         <v>45000</v>
@@ -6294,7 +6879,7 @@
         <v/>
       </c>
       <c r="P39" t="str">
-        <f>IF(COLUMNS($J$25:Q$25)&lt;=$G39,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H39)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H39)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:Q$25))),"")</f>
+        <f>IF(COLUMNS($J$25:Q$25)&lt;=$G39,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H39)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H39)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:Q$25))),"")</f>
         <v/>
       </c>
       <c r="Q39" t="str">
@@ -6302,17 +6887,61 @@
         <v/>
       </c>
       <c r="R39" t="str">
-        <f>IF(COLUMNS($J$25:R$25)&lt;=$G39,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H39)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H39)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:R$25))),"")</f>
+        <f>IF(COLUMNS($J$25:S$25)&lt;=$G39,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H39)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H39)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:S$25))),"")</f>
         <v/>
       </c>
       <c r="S39" t="str">
-        <f>IF(COLUMNS($J$25:S$25)&lt;=$G39,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H39)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H39)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:S$25))),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+        <f>IF(COLUMNS($J$25:T$25)&lt;=$G39,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H39)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H39)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:T$25))),"")</f>
+        <v/>
+      </c>
+      <c r="T39" t="str">
+        <f>IF(COLUMNS($J$25:U$25)&lt;=$G39,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H39)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H39)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:U$25))),"")</f>
+        <v/>
+      </c>
+      <c r="U39" t="str">
+        <f>IF(COLUMNS($J$25:V$25)&lt;=$G39,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H39)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H39)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:V$25))),"")</f>
+        <v/>
+      </c>
+      <c r="V39" t="str">
+        <f>IF(COLUMNS($J$25:W$25)&lt;=$G39,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H39)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H39)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:W$25))),"")</f>
+        <v/>
+      </c>
+      <c r="W39" t="str">
+        <f>IF(COLUMNS($J$25:X$25)&lt;=$G39,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H39)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H39)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:X$25))),"")</f>
+        <v/>
+      </c>
+      <c r="X39" t="str">
+        <f>IF(COLUMNS($J$25:Y$25)&lt;=$G39,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H39)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H39)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:Y$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Y39" t="str">
+        <f>IF(COLUMNS($J$25:Z$25)&lt;=$G39,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H39)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H39)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:Z$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Z39" t="str">
+        <f>IF(COLUMNS($J$25:AA$25)&lt;=$G39,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H39)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H39)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:AA$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AA39" t="str">
+        <f>IF(COLUMNS($J$25:AB$25)&lt;=$G39,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H39)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H39)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:AB$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AB39" t="str">
+        <f>IF(COLUMNS($J$25:AC$25)&lt;=$G39,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H39)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H39)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:AC$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AC39" t="str">
+        <f>IF(COLUMNS($J$25:AD$25)&lt;=$G39,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H39)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H39)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:AD$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AD39" t="str">
+        <f>IF(COLUMNS($J$25:AE$25)&lt;=$G39,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H39)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H39)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:AE$25))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A40" s="46" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B40" s="46">
         <v>50000</v>
@@ -6363,13 +6992,69 @@
         <v/>
       </c>
       <c r="P40" t="str">
-        <f>IF(COLUMNS($J$25:Q$25)&lt;=$G40,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H40)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H40)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:Q$25))),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+        <f>IF(COLUMNS($J$25:Q$25)&lt;=$G40,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H40)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H40)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:Q$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Q40" t="str">
+        <f>IF(COLUMNS($J$25:R$25)&lt;=$G40,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H40)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H40)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:R$25))),"")</f>
+        <v/>
+      </c>
+      <c r="R40" t="str">
+        <f>IF(COLUMNS($J$25:S$25)&lt;=$G40,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H40)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H40)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:S$25))),"")</f>
+        <v/>
+      </c>
+      <c r="S40" t="str">
+        <f>IF(COLUMNS($J$25:T$25)&lt;=$G40,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H40)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H40)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:T$25))),"")</f>
+        <v/>
+      </c>
+      <c r="T40" t="str">
+        <f>IF(COLUMNS($J$25:U$25)&lt;=$G40,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H40)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H40)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:U$25))),"")</f>
+        <v/>
+      </c>
+      <c r="U40" t="str">
+        <f>IF(COLUMNS($J$25:V$25)&lt;=$G40,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H40)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H40)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:V$25))),"")</f>
+        <v/>
+      </c>
+      <c r="V40" t="str">
+        <f>IF(COLUMNS($J$25:W$25)&lt;=$G40,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H40)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H40)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:W$25))),"")</f>
+        <v/>
+      </c>
+      <c r="W40" t="str">
+        <f>IF(COLUMNS($J$25:X$25)&lt;=$G40,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H40)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H40)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:X$25))),"")</f>
+        <v/>
+      </c>
+      <c r="X40" t="str">
+        <f>IF(COLUMNS($J$25:Y$25)&lt;=$G40,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H40)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H40)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:Y$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Y40" t="str">
+        <f>IF(COLUMNS($J$25:Z$25)&lt;=$G40,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H40)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H40)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:Z$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Z40" t="str">
+        <f>IF(COLUMNS($J$25:AA$25)&lt;=$G40,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H40)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H40)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:AA$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AA40" t="str">
+        <f>IF(COLUMNS($J$25:AB$25)&lt;=$G40,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H40)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H40)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:AB$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AB40" t="str">
+        <f>IF(COLUMNS($J$25:AC$25)&lt;=$G40,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H40)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H40)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:AC$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AC40" t="str">
+        <f>IF(COLUMNS($J$25:AD$25)&lt;=$G40,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H40)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H40)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:AD$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AD40" t="str">
+        <f>IF(COLUMNS($J$25:AE$25)&lt;=$G40,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H40)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H40)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:AE$25))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A41" s="48" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B41" s="46">
         <v>50000</v>
@@ -6420,13 +7105,69 @@
         <v/>
       </c>
       <c r="P41" t="str">
-        <f>IF(COLUMNS($J$25:Q$25)&lt;=$G41,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H41)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H41)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:Q$25))),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+        <f>IF(COLUMNS($J$25:Q$25)&lt;=$G41,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H41)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H41)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:Q$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Q41" t="str">
+        <f>IF(COLUMNS($J$25:R$25)&lt;=$G41,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H41)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H41)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:R$25))),"")</f>
+        <v/>
+      </c>
+      <c r="R41" t="str">
+        <f>IF(COLUMNS($J$25:S$25)&lt;=$G41,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H41)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H41)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:S$25))),"")</f>
+        <v/>
+      </c>
+      <c r="S41" t="str">
+        <f>IF(COLUMNS($J$25:T$25)&lt;=$G41,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H41)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H41)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:T$25))),"")</f>
+        <v/>
+      </c>
+      <c r="T41" t="str">
+        <f>IF(COLUMNS($J$25:U$25)&lt;=$G41,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H41)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H41)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:U$25))),"")</f>
+        <v/>
+      </c>
+      <c r="U41" t="str">
+        <f>IF(COLUMNS($J$25:V$25)&lt;=$G41,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H41)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H41)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:V$25))),"")</f>
+        <v/>
+      </c>
+      <c r="V41" t="str">
+        <f>IF(COLUMNS($J$25:W$25)&lt;=$G41,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H41)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H41)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:W$25))),"")</f>
+        <v/>
+      </c>
+      <c r="W41" t="str">
+        <f>IF(COLUMNS($J$25:X$25)&lt;=$G41,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H41)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H41)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:X$25))),"")</f>
+        <v/>
+      </c>
+      <c r="X41" t="str">
+        <f>IF(COLUMNS($J$25:Y$25)&lt;=$G41,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H41)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H41)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:Y$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Y41" t="str">
+        <f>IF(COLUMNS($J$25:Z$25)&lt;=$G41,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H41)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H41)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:Z$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Z41" t="str">
+        <f>IF(COLUMNS($J$25:AA$25)&lt;=$G41,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H41)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H41)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:AA$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AA41" t="str">
+        <f>IF(COLUMNS($J$25:AB$25)&lt;=$G41,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H41)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H41)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:AB$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AB41" t="str">
+        <f>IF(COLUMNS($J$25:AC$25)&lt;=$G41,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H41)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H41)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:AC$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AC41" t="str">
+        <f>IF(COLUMNS($J$25:AD$25)&lt;=$G41,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H41)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H41)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:AD$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AD41" t="str">
+        <f>IF(COLUMNS($J$25:AE$25)&lt;=$G41,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H41)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H41)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:AE$25))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A42" s="48" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B42" s="46">
         <v>50000</v>
@@ -6477,13 +7218,69 @@
         <v/>
       </c>
       <c r="P42" t="str">
-        <f>IF(COLUMNS($J$25:Q$25)&lt;=$G42,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H42)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H42)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:Q$25))),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+        <f>IF(COLUMNS($J$25:Q$25)&lt;=$G42,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H42)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H42)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:Q$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Q42" t="str">
+        <f>IF(COLUMNS($J$25:R$25)&lt;=$G42,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H42)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H42)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:R$25))),"")</f>
+        <v/>
+      </c>
+      <c r="R42" t="str">
+        <f>IF(COLUMNS($J$25:S$25)&lt;=$G42,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H42)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H42)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:S$25))),"")</f>
+        <v/>
+      </c>
+      <c r="S42" t="str">
+        <f>IF(COLUMNS($J$25:T$25)&lt;=$G42,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H42)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H42)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:T$25))),"")</f>
+        <v/>
+      </c>
+      <c r="T42" t="str">
+        <f>IF(COLUMNS($J$25:U$25)&lt;=$G42,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H42)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H42)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:U$25))),"")</f>
+        <v/>
+      </c>
+      <c r="U42" t="str">
+        <f>IF(COLUMNS($J$25:V$25)&lt;=$G42,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H42)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H42)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:V$25))),"")</f>
+        <v/>
+      </c>
+      <c r="V42" t="str">
+        <f>IF(COLUMNS($J$25:W$25)&lt;=$G42,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H42)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H42)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:W$25))),"")</f>
+        <v/>
+      </c>
+      <c r="W42" t="str">
+        <f>IF(COLUMNS($J$25:X$25)&lt;=$G42,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H42)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H42)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:X$25))),"")</f>
+        <v/>
+      </c>
+      <c r="X42" t="str">
+        <f>IF(COLUMNS($J$25:Y$25)&lt;=$G42,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H42)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H42)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:Y$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Y42" t="str">
+        <f>IF(COLUMNS($J$25:Z$25)&lt;=$G42,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H42)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H42)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:Z$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Z42" t="str">
+        <f>IF(COLUMNS($J$25:AA$25)&lt;=$G42,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H42)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H42)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:AA$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AA42" t="str">
+        <f>IF(COLUMNS($J$25:AB$25)&lt;=$G42,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H42)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H42)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:AB$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AB42" t="str">
+        <f>IF(COLUMNS($J$25:AC$25)&lt;=$G42,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H42)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H42)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:AC$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AC42" t="str">
+        <f>IF(COLUMNS($J$25:AD$25)&lt;=$G42,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H42)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H42)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:AD$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AD42" t="str">
+        <f>IF(COLUMNS($J$25:AE$25)&lt;=$G42,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H42)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H42)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:AE$25))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A43" s="48" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B43" s="46">
         <v>50000</v>
@@ -6537,10 +7334,66 @@
         <f>IF(COLUMNS($J$25:Q$25)&lt;=$G43,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H43)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H43)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:Q$25))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q43" t="str">
+        <f>IF(COLUMNS($J$25:R$25)&lt;=$G43,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H43)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H43)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:R$25))),"")</f>
+        <v/>
+      </c>
+      <c r="R43" t="str">
+        <f>IF(COLUMNS($J$25:S$25)&lt;=$G43,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H43)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H43)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:S$25))),"")</f>
+        <v/>
+      </c>
+      <c r="S43" t="str">
+        <f>IF(COLUMNS($J$25:T$25)&lt;=$G43,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H43)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H43)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:T$25))),"")</f>
+        <v/>
+      </c>
+      <c r="T43" t="str">
+        <f>IF(COLUMNS($J$25:U$25)&lt;=$G43,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H43)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H43)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:U$25))),"")</f>
+        <v/>
+      </c>
+      <c r="U43" t="str">
+        <f>IF(COLUMNS($J$25:V$25)&lt;=$G43,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H43)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H43)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:V$25))),"")</f>
+        <v/>
+      </c>
+      <c r="V43" t="str">
+        <f>IF(COLUMNS($J$25:W$25)&lt;=$G43,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H43)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H43)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:W$25))),"")</f>
+        <v/>
+      </c>
+      <c r="W43" t="str">
+        <f>IF(COLUMNS($J$25:X$25)&lt;=$G43,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H43)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H43)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:X$25))),"")</f>
+        <v/>
+      </c>
+      <c r="X43" t="str">
+        <f>IF(COLUMNS($J$25:Y$25)&lt;=$G43,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H43)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H43)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:Y$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Y43" t="str">
+        <f>IF(COLUMNS($J$25:Z$25)&lt;=$G43,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H43)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H43)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:Z$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Z43" t="str">
+        <f>IF(COLUMNS($J$25:AA$25)&lt;=$G43,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H43)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H43)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:AA$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AA43" t="str">
+        <f>IF(COLUMNS($J$25:AB$25)&lt;=$G43,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H43)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H43)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:AB$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AB43" t="str">
+        <f>IF(COLUMNS($J$25:AC$25)&lt;=$G43,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H43)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H43)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:AC$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AC43" t="str">
+        <f>IF(COLUMNS($J$25:AD$25)&lt;=$G43,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H43)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H43)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:AD$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AD43" t="str">
+        <f>IF(COLUMNS($J$25:AE$25)&lt;=$G43,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H43)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H43)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:AE$25))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44" s="59" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B44" s="46">
         <v>50000</v>
@@ -6584,13 +7437,69 @@
         <v/>
       </c>
       <c r="P44" t="str">
-        <f>IF(COLUMNS($J$25:Q$25)&lt;=$G44,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H44)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H44)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:Q$25))),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+        <f>IF(COLUMNS($J$25:Q$25)&lt;=$G44,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H44)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H44)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:Q$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Q44" t="str">
+        <f>IF(COLUMNS($J$25:R$25)&lt;=$G44,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H44)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H44)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:R$25))),"")</f>
+        <v/>
+      </c>
+      <c r="R44" t="str">
+        <f>IF(COLUMNS($J$25:S$25)&lt;=$G44,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H44)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H44)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:S$25))),"")</f>
+        <v/>
+      </c>
+      <c r="S44" t="str">
+        <f>IF(COLUMNS($J$25:T$25)&lt;=$G44,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H44)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H44)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:T$25))),"")</f>
+        <v/>
+      </c>
+      <c r="T44" t="str">
+        <f>IF(COLUMNS($J$25:U$25)&lt;=$G44,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H44)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H44)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:U$25))),"")</f>
+        <v/>
+      </c>
+      <c r="U44" t="str">
+        <f>IF(COLUMNS($J$25:V$25)&lt;=$G44,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H44)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H44)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:V$25))),"")</f>
+        <v/>
+      </c>
+      <c r="V44" t="str">
+        <f>IF(COLUMNS($J$25:W$25)&lt;=$G44,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H44)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H44)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:W$25))),"")</f>
+        <v/>
+      </c>
+      <c r="W44" t="str">
+        <f>IF(COLUMNS($J$25:X$25)&lt;=$G44,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H44)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H44)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:X$25))),"")</f>
+        <v/>
+      </c>
+      <c r="X44" t="str">
+        <f>IF(COLUMNS($J$25:Y$25)&lt;=$G44,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H44)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H44)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:Y$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Y44" t="str">
+        <f>IF(COLUMNS($J$25:Z$25)&lt;=$G44,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H44)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H44)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:Z$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Z44" t="str">
+        <f>IF(COLUMNS($J$25:AA$25)&lt;=$G44,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H44)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H44)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:AA$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AA44" t="str">
+        <f>IF(COLUMNS($J$25:AB$25)&lt;=$G44,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H44)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H44)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:AB$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AB44" t="str">
+        <f>IF(COLUMNS($J$25:AC$25)&lt;=$G44,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H44)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H44)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:AC$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AC44" t="str">
+        <f>IF(COLUMNS($J$25:AD$25)&lt;=$G44,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H44)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H44)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:AD$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AD44" t="str">
+        <f>IF(COLUMNS($J$25:AE$25)&lt;=$G44,INDEX(Adatok[[Ár]:[Ár]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H44)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H44)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:AE$25))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45" s="48" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B45" s="47">
         <v>50000</v>
@@ -6638,9 +7547,9 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A46" s="47" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B46" s="47">
         <v>60000</v>
@@ -6655,9 +7564,9 @@
         <v>300</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A47" s="47" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B47" s="47">
         <v>60000</v>
@@ -6672,9 +7581,9 @@
         <v>400</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A48" s="48" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B48" s="47">
         <v>60000</v>
@@ -6689,9 +7598,9 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A49" s="47" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B49" s="47">
         <v>65000</v>
@@ -6706,9 +7615,9 @@
         <v>150</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A50" s="47" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B50" s="47">
         <v>65000</v>
@@ -6723,9 +7632,9 @@
         <v>300</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A51" s="48" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B51" s="47">
         <v>65000</v>
@@ -6740,9 +7649,9 @@
         <v>160</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A52" s="47" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B52" s="47">
         <v>67000</v>
@@ -6757,9 +7666,9 @@
         <v>400</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A53" s="47" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B53" s="47">
         <v>70000</v>
@@ -6774,9 +7683,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A54" s="47" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B54" s="47">
         <v>70000</v>
@@ -6791,9 +7700,9 @@
         <v>300</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A55" s="47" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B55" s="47">
         <v>70000</v>
@@ -6812,9 +7721,9 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A56" s="47" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B56" s="47">
         <v>75000</v>
@@ -6829,9 +7738,9 @@
         <v>300</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A57" s="47" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B57" s="47">
         <v>80000</v>
@@ -6885,10 +7794,66 @@
         <f>IF(COLUMNS($J$25:Q$25)&lt;=$G26,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H26)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H26)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:Q$25))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q57" t="str">
+        <f>IF(COLUMNS($J$25:R$25)&lt;=$G26,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H26)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H26)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:R$25))),"")</f>
+        <v/>
+      </c>
+      <c r="R57" t="str">
+        <f>IF(COLUMNS($J$25:S$25)&lt;=$G26,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H26)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H26)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:S$25))),"")</f>
+        <v/>
+      </c>
+      <c r="S57" t="str">
+        <f>IF(COLUMNS($J$25:T$25)&lt;=$G26,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H26)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H26)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:T$25))),"")</f>
+        <v/>
+      </c>
+      <c r="T57" t="str">
+        <f>IF(COLUMNS($J$25:U$25)&lt;=$G26,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H26)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H26)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:U$25))),"")</f>
+        <v/>
+      </c>
+      <c r="U57" t="str">
+        <f>IF(COLUMNS($J$25:V$25)&lt;=$G26,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H26)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H26)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:V$25))),"")</f>
+        <v/>
+      </c>
+      <c r="V57" t="str">
+        <f>IF(COLUMNS($J$25:W$25)&lt;=$G26,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H26)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H26)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:W$25))),"")</f>
+        <v/>
+      </c>
+      <c r="W57" t="str">
+        <f>IF(COLUMNS($J$25:X$25)&lt;=$G26,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H26)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H26)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:X$25))),"")</f>
+        <v/>
+      </c>
+      <c r="X57" t="str">
+        <f>IF(COLUMNS($J$25:Y$25)&lt;=$G26,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H26)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H26)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:Y$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Y57" t="str">
+        <f>IF(COLUMNS($J$25:Z$25)&lt;=$G26,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H26)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H26)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:Z$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Z57" t="str">
+        <f>IF(COLUMNS($J$25:AA$25)&lt;=$G26,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H26)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H26)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:AA$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AA57" t="str">
+        <f>IF(COLUMNS($J$25:AB$25)&lt;=$G26,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H26)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H26)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:AB$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AB57" t="str">
+        <f>IF(COLUMNS($J$25:AC$25)&lt;=$G26,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H26)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H26)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:AC$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AC57" t="str">
+        <f>IF(COLUMNS($J$25:AD$25)&lt;=$G26,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H26)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H26)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:AD$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AD57" t="str">
+        <f>IF(COLUMNS($J$25:AE$25)&lt;=$G26,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H26)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H26)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:AE$25))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A58" s="47" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B58" s="47">
         <v>80000</v>
@@ -6942,10 +7907,66 @@
         <f>IF(COLUMNS($J$25:Q$25)&lt;=$G27,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H27)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H27)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:Q$25))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q58" t="str">
+        <f>IF(COLUMNS($J$25:R$25)&lt;=$G27,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H27)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H27)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:R$25))),"")</f>
+        <v/>
+      </c>
+      <c r="R58" t="str">
+        <f>IF(COLUMNS($J$25:S$25)&lt;=$G27,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H27)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H27)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:S$25))),"")</f>
+        <v/>
+      </c>
+      <c r="S58" t="str">
+        <f>IF(COLUMNS($J$25:T$25)&lt;=$G27,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H27)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H27)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:T$25))),"")</f>
+        <v/>
+      </c>
+      <c r="T58" t="str">
+        <f>IF(COLUMNS($J$25:U$25)&lt;=$G27,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H27)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H27)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:U$25))),"")</f>
+        <v/>
+      </c>
+      <c r="U58" t="str">
+        <f>IF(COLUMNS($J$25:V$25)&lt;=$G27,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H27)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H27)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:V$25))),"")</f>
+        <v/>
+      </c>
+      <c r="V58" t="str">
+        <f>IF(COLUMNS($J$25:W$25)&lt;=$G27,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H27)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H27)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:W$25))),"")</f>
+        <v/>
+      </c>
+      <c r="W58" t="str">
+        <f>IF(COLUMNS($J$25:X$25)&lt;=$G27,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H27)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H27)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:X$25))),"")</f>
+        <v/>
+      </c>
+      <c r="X58" t="str">
+        <f>IF(COLUMNS($J$25:Y$25)&lt;=$G27,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H27)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H27)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:Y$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Y58" t="str">
+        <f>IF(COLUMNS($J$25:Z$25)&lt;=$G27,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H27)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H27)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:Z$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Z58" t="str">
+        <f>IF(COLUMNS($J$25:AA$25)&lt;=$G27,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H27)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H27)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:AA$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AA58" t="str">
+        <f>IF(COLUMNS($J$25:AB$25)&lt;=$G27,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H27)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H27)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:AB$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AB58" t="str">
+        <f>IF(COLUMNS($J$25:AC$25)&lt;=$G27,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H27)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H27)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:AC$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AC58" t="str">
+        <f>IF(COLUMNS($J$25:AD$25)&lt;=$G27,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H27)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H27)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:AD$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AD58" t="str">
+        <f>IF(COLUMNS($J$25:AE$25)&lt;=$G27,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H27)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H27)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:AE$25))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A59" s="47" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B59" s="47">
         <v>90000</v>
@@ -6999,10 +8020,66 @@
         <f>IF(COLUMNS($J$25:Q$25)&lt;=$G28,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H28)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H28)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:Q$25))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q59" t="str">
+        <f>IF(COLUMNS($J$25:R$25)&lt;=$G28,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H28)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H28)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:R$25))),"")</f>
+        <v/>
+      </c>
+      <c r="R59" t="str">
+        <f>IF(COLUMNS($J$25:S$25)&lt;=$G28,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H28)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H28)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:S$25))),"")</f>
+        <v/>
+      </c>
+      <c r="S59" t="str">
+        <f>IF(COLUMNS($J$25:T$25)&lt;=$G28,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H28)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H28)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:T$25))),"")</f>
+        <v/>
+      </c>
+      <c r="T59" t="str">
+        <f>IF(COLUMNS($J$25:U$25)&lt;=$G28,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H28)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H28)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:U$25))),"")</f>
+        <v/>
+      </c>
+      <c r="U59" t="str">
+        <f>IF(COLUMNS($J$25:V$25)&lt;=$G28,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H28)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H28)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:V$25))),"")</f>
+        <v/>
+      </c>
+      <c r="V59" t="str">
+        <f>IF(COLUMNS($J$25:W$25)&lt;=$G28,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H28)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H28)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:W$25))),"")</f>
+        <v/>
+      </c>
+      <c r="W59" t="str">
+        <f>IF(COLUMNS($J$25:X$25)&lt;=$G28,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H28)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H28)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:X$25))),"")</f>
+        <v/>
+      </c>
+      <c r="X59" t="str">
+        <f>IF(COLUMNS($J$25:Y$25)&lt;=$G28,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H28)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H28)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:Y$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Y59" t="str">
+        <f>IF(COLUMNS($J$25:Z$25)&lt;=$G28,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H28)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H28)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:Z$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Z59" t="str">
+        <f>IF(COLUMNS($J$25:AA$25)&lt;=$G28,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H28)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H28)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:AA$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AA59" t="str">
+        <f>IF(COLUMNS($J$25:AB$25)&lt;=$G28,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H28)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H28)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:AB$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AB59" t="str">
+        <f>IF(COLUMNS($J$25:AC$25)&lt;=$G28,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H28)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H28)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:AC$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AC59" t="str">
+        <f>IF(COLUMNS($J$25:AD$25)&lt;=$G28,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H28)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H28)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:AD$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AD59" t="str">
+        <f>IF(COLUMNS($J$25:AE$25)&lt;=$G28,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H28)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H28)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:AE$25))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A60" s="47" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B60" s="47">
         <v>100000</v>
@@ -7056,10 +8133,66 @@
         <f>IF(COLUMNS($J$25:Q$25)&lt;=$G29,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H29)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H29)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:Q$25))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q60" t="str">
+        <f>IF(COLUMNS($J$25:R$25)&lt;=$G29,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H29)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H29)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:R$25))),"")</f>
+        <v/>
+      </c>
+      <c r="R60" t="str">
+        <f>IF(COLUMNS($J$25:S$25)&lt;=$G29,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H29)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H29)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:S$25))),"")</f>
+        <v/>
+      </c>
+      <c r="S60" t="str">
+        <f>IF(COLUMNS($J$25:T$25)&lt;=$G29,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H29)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H29)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:T$25))),"")</f>
+        <v/>
+      </c>
+      <c r="T60" t="str">
+        <f>IF(COLUMNS($J$25:U$25)&lt;=$G29,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H29)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H29)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:U$25))),"")</f>
+        <v/>
+      </c>
+      <c r="U60" t="str">
+        <f>IF(COLUMNS($J$25:V$25)&lt;=$G29,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H29)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H29)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:V$25))),"")</f>
+        <v/>
+      </c>
+      <c r="V60" t="str">
+        <f>IF(COLUMNS($J$25:W$25)&lt;=$G29,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H29)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H29)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:W$25))),"")</f>
+        <v/>
+      </c>
+      <c r="W60" t="str">
+        <f>IF(COLUMNS($J$25:X$25)&lt;=$G29,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H29)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H29)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:X$25))),"")</f>
+        <v/>
+      </c>
+      <c r="X60" t="str">
+        <f>IF(COLUMNS($J$25:Y$25)&lt;=$G29,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H29)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H29)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:Y$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Y60" t="str">
+        <f>IF(COLUMNS($J$25:Z$25)&lt;=$G29,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H29)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H29)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:Z$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Z60" t="str">
+        <f>IF(COLUMNS($J$25:AA$25)&lt;=$G29,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H29)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H29)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:AA$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AA60" t="str">
+        <f>IF(COLUMNS($J$25:AB$25)&lt;=$G29,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H29)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H29)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:AB$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AB60" t="str">
+        <f>IF(COLUMNS($J$25:AC$25)&lt;=$G29,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H29)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H29)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:AC$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AC60" t="str">
+        <f>IF(COLUMNS($J$25:AD$25)&lt;=$G29,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H29)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H29)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:AD$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AD60" t="str">
+        <f>IF(COLUMNS($J$25:AE$25)&lt;=$G29,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H29)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H29)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:AE$25))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A61" s="47" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B61" s="47">
         <v>100000</v>
@@ -7113,10 +8246,66 @@
         <f>IF(COLUMNS($J$25:Q$25)&lt;=$G30,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H30)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H30)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:Q$25))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q61" t="str">
+        <f>IF(COLUMNS($J$25:R$25)&lt;=$G30,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H30)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H30)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:R$25))),"")</f>
+        <v/>
+      </c>
+      <c r="R61" t="str">
+        <f>IF(COLUMNS($J$25:S$25)&lt;=$G30,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H30)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H30)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:S$25))),"")</f>
+        <v/>
+      </c>
+      <c r="S61" t="str">
+        <f>IF(COLUMNS($J$25:T$25)&lt;=$G30,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H30)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H30)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:T$25))),"")</f>
+        <v/>
+      </c>
+      <c r="T61" t="str">
+        <f>IF(COLUMNS($J$25:U$25)&lt;=$G30,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H30)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H30)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:U$25))),"")</f>
+        <v/>
+      </c>
+      <c r="U61" t="str">
+        <f>IF(COLUMNS($J$25:V$25)&lt;=$G30,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H30)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H30)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:V$25))),"")</f>
+        <v/>
+      </c>
+      <c r="V61" t="str">
+        <f>IF(COLUMNS($J$25:W$25)&lt;=$G30,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H30)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H30)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:W$25))),"")</f>
+        <v/>
+      </c>
+      <c r="W61" t="str">
+        <f>IF(COLUMNS($J$25:X$25)&lt;=$G30,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H30)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H30)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:X$25))),"")</f>
+        <v/>
+      </c>
+      <c r="X61" t="str">
+        <f>IF(COLUMNS($J$25:Y$25)&lt;=$G30,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H30)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H30)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:Y$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Y61" t="str">
+        <f>IF(COLUMNS($J$25:Z$25)&lt;=$G30,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H30)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H30)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:Z$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Z61" t="str">
+        <f>IF(COLUMNS($J$25:AA$25)&lt;=$G30,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H30)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H30)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:AA$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AA61" t="str">
+        <f>IF(COLUMNS($J$25:AB$25)&lt;=$G30,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H30)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H30)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:AB$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AB61" t="str">
+        <f>IF(COLUMNS($J$25:AC$25)&lt;=$G30,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H30)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H30)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:AC$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AC61" t="str">
+        <f>IF(COLUMNS($J$25:AD$25)&lt;=$G30,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H30)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H30)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:AD$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AD61" t="str">
+        <f>IF(COLUMNS($J$25:AE$25)&lt;=$G30,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H30)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H30)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:AE$25))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A62" s="47" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B62" s="47">
         <v>115000</v>
@@ -7170,10 +8359,66 @@
         <f>IF(COLUMNS($J$25:Q$25)&lt;=$G31,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H31)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H31)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:Q$25))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q62" t="str">
+        <f>IF(COLUMNS($J$25:R$25)&lt;=$G31,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H31)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H31)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:R$25))),"")</f>
+        <v/>
+      </c>
+      <c r="R62" t="str">
+        <f>IF(COLUMNS($J$25:S$25)&lt;=$G31,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H31)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H31)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:S$25))),"")</f>
+        <v/>
+      </c>
+      <c r="S62" t="str">
+        <f>IF(COLUMNS($J$25:T$25)&lt;=$G31,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H31)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H31)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:T$25))),"")</f>
+        <v/>
+      </c>
+      <c r="T62" t="str">
+        <f>IF(COLUMNS($J$25:U$25)&lt;=$G31,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H31)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H31)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:U$25))),"")</f>
+        <v/>
+      </c>
+      <c r="U62" t="str">
+        <f>IF(COLUMNS($J$25:V$25)&lt;=$G31,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H31)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H31)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:V$25))),"")</f>
+        <v/>
+      </c>
+      <c r="V62" t="str">
+        <f>IF(COLUMNS($J$25:W$25)&lt;=$G31,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H31)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H31)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:W$25))),"")</f>
+        <v/>
+      </c>
+      <c r="W62" t="str">
+        <f>IF(COLUMNS($J$25:X$25)&lt;=$G31,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H31)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H31)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:X$25))),"")</f>
+        <v/>
+      </c>
+      <c r="X62" t="str">
+        <f>IF(COLUMNS($J$25:Y$25)&lt;=$G31,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H31)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H31)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:Y$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Y62" t="str">
+        <f>IF(COLUMNS($J$25:Z$25)&lt;=$G31,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H31)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H31)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:Z$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Z62" t="str">
+        <f>IF(COLUMNS($J$25:AA$25)&lt;=$G31,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H31)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H31)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:AA$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AA62" t="str">
+        <f>IF(COLUMNS($J$25:AB$25)&lt;=$G31,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H31)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H31)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:AB$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AB62" t="str">
+        <f>IF(COLUMNS($J$25:AC$25)&lt;=$G31,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H31)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H31)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:AC$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AC62" t="str">
+        <f>IF(COLUMNS($J$25:AD$25)&lt;=$G31,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H31)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H31)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:AD$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AD62" t="str">
+        <f>IF(COLUMNS($J$25:AE$25)&lt;=$G31,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H31)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H31)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:AE$25))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A63" s="47" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B63" s="47">
         <v>125000</v>
@@ -7189,7 +8434,7 @@
       </c>
       <c r="G63">
         <f>COUNTIF(Adatok[Ingatlanok],H63)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H63" s="57" t="str">
         <f>INDEX(Adatok[Ingatlanok],MATCH(0,INDEX(COUNTIF($H$56:H62,Adatok[Ingatlanok]),),0))</f>
@@ -7211,9 +8456,9 @@
         <f>IF(COLUMNS($J$25:M$25)&lt;=$G32,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H32)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H32)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:M$25))),"")</f>
         <v>-100</v>
       </c>
-      <c r="M63" t="str">
+      <c r="M63">
         <f>IF(COLUMNS($J$25:N$25)&lt;=$G32,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H32)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H32)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:N$25))),"")</f>
-        <v/>
+        <v>160</v>
       </c>
       <c r="N63" t="str">
         <f>IF(COLUMNS($J$25:O$25)&lt;=$G32,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H32)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H32)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:O$25))),"")</f>
@@ -7227,10 +8472,66 @@
         <f>IF(COLUMNS($J$25:Q$25)&lt;=$G32,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H32)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H32)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:Q$25))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q63" t="str">
+        <f>IF(COLUMNS($J$25:R$25)&lt;=$G32,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H32)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H32)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:R$25))),"")</f>
+        <v/>
+      </c>
+      <c r="R63" t="str">
+        <f>IF(COLUMNS($J$25:S$25)&lt;=$G32,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H32)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H32)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:S$25))),"")</f>
+        <v/>
+      </c>
+      <c r="S63" t="str">
+        <f>IF(COLUMNS($J$25:T$25)&lt;=$G32,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H32)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H32)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:T$25))),"")</f>
+        <v/>
+      </c>
+      <c r="T63" t="str">
+        <f>IF(COLUMNS($J$25:U$25)&lt;=$G32,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H32)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H32)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:U$25))),"")</f>
+        <v/>
+      </c>
+      <c r="U63" t="str">
+        <f>IF(COLUMNS($J$25:V$25)&lt;=$G32,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H32)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H32)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:V$25))),"")</f>
+        <v/>
+      </c>
+      <c r="V63" t="str">
+        <f>IF(COLUMNS($J$25:W$25)&lt;=$G32,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H32)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H32)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:W$25))),"")</f>
+        <v/>
+      </c>
+      <c r="W63" t="str">
+        <f>IF(COLUMNS($J$25:X$25)&lt;=$G32,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H32)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H32)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:X$25))),"")</f>
+        <v/>
+      </c>
+      <c r="X63" t="str">
+        <f>IF(COLUMNS($J$25:Y$25)&lt;=$G32,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H32)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H32)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:Y$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Y63" t="str">
+        <f>IF(COLUMNS($J$25:Z$25)&lt;=$G32,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H32)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H32)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:Z$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Z63" t="str">
+        <f>IF(COLUMNS($J$25:AA$25)&lt;=$G32,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H32)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H32)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:AA$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AA63" t="str">
+        <f>IF(COLUMNS($J$25:AB$25)&lt;=$G32,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H32)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H32)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:AB$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AB63" t="str">
+        <f>IF(COLUMNS($J$25:AC$25)&lt;=$G32,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H32)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H32)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:AC$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AC63" t="str">
+        <f>IF(COLUMNS($J$25:AD$25)&lt;=$G32,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H32)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H32)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:AD$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AD63" t="str">
+        <f>IF(COLUMNS($J$25:AE$25)&lt;=$G32,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H32)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H32)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:AE$25))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A64" s="47" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B64" s="47">
         <v>125000</v>
@@ -7284,10 +8585,66 @@
         <f>IF(COLUMNS($J$25:Q$25)&lt;=$G33,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H33)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H33)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:Q$25))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Q64" t="str">
+        <f>IF(COLUMNS($J$25:R$25)&lt;=$G33,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H33)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H33)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:R$25))),"")</f>
+        <v/>
+      </c>
+      <c r="R64" t="str">
+        <f>IF(COLUMNS($J$25:S$25)&lt;=$G33,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H33)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H33)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:S$25))),"")</f>
+        <v/>
+      </c>
+      <c r="S64" t="str">
+        <f>IF(COLUMNS($J$25:T$25)&lt;=$G33,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H33)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H33)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:T$25))),"")</f>
+        <v/>
+      </c>
+      <c r="T64" t="str">
+        <f>IF(COLUMNS($J$25:U$25)&lt;=$G33,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H33)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H33)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:U$25))),"")</f>
+        <v/>
+      </c>
+      <c r="U64" t="str">
+        <f>IF(COLUMNS($J$25:V$25)&lt;=$G33,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H33)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H33)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:V$25))),"")</f>
+        <v/>
+      </c>
+      <c r="V64" t="str">
+        <f>IF(COLUMNS($J$25:W$25)&lt;=$G33,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H33)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H33)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:W$25))),"")</f>
+        <v/>
+      </c>
+      <c r="W64" t="str">
+        <f>IF(COLUMNS($J$25:X$25)&lt;=$G33,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H33)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H33)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:X$25))),"")</f>
+        <v/>
+      </c>
+      <c r="X64" t="str">
+        <f>IF(COLUMNS($J$25:Y$25)&lt;=$G33,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H33)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H33)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:Y$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Y64" t="str">
+        <f>IF(COLUMNS($J$25:Z$25)&lt;=$G33,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H33)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H33)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:Z$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Z64" t="str">
+        <f>IF(COLUMNS($J$25:AA$25)&lt;=$G33,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H33)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H33)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:AA$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AA64" t="str">
+        <f>IF(COLUMNS($J$25:AB$25)&lt;=$G33,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H33)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H33)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:AB$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AB64" t="str">
+        <f>IF(COLUMNS($J$25:AC$25)&lt;=$G33,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H33)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H33)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:AC$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AC64" t="str">
+        <f>IF(COLUMNS($J$25:AD$25)&lt;=$G33,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H33)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H33)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:AD$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AD64" t="str">
+        <f>IF(COLUMNS($J$25:AE$25)&lt;=$G33,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H33)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H33)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:AE$25))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A65" s="56" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B65" s="56">
         <v>125000</v>
@@ -7341,10 +8698,66 @@
         <f>IF(COLUMNS($J$25:Q$25)&lt;=$G34,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H34)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H34)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:Q$25))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Q65" t="str">
+        <f>IF(COLUMNS($J$25:R$25)&lt;=$G34,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H34)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H34)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:R$25))),"")</f>
+        <v/>
+      </c>
+      <c r="R65" t="str">
+        <f>IF(COLUMNS($J$25:S$25)&lt;=$G34,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H34)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H34)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:S$25))),"")</f>
+        <v/>
+      </c>
+      <c r="S65" t="str">
+        <f>IF(COLUMNS($J$25:T$25)&lt;=$G34,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H34)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H34)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:T$25))),"")</f>
+        <v/>
+      </c>
+      <c r="T65" t="str">
+        <f>IF(COLUMNS($J$25:U$25)&lt;=$G34,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H34)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H34)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:U$25))),"")</f>
+        <v/>
+      </c>
+      <c r="U65" t="str">
+        <f>IF(COLUMNS($J$25:V$25)&lt;=$G34,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H34)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H34)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:V$25))),"")</f>
+        <v/>
+      </c>
+      <c r="V65" t="str">
+        <f>IF(COLUMNS($J$25:W$25)&lt;=$G34,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H34)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H34)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:W$25))),"")</f>
+        <v/>
+      </c>
+      <c r="W65" t="str">
+        <f>IF(COLUMNS($J$25:X$25)&lt;=$G34,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H34)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H34)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:X$25))),"")</f>
+        <v/>
+      </c>
+      <c r="X65" t="str">
+        <f>IF(COLUMNS($J$25:Y$25)&lt;=$G34,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H34)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H34)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:Y$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Y65" t="str">
+        <f>IF(COLUMNS($J$25:Z$25)&lt;=$G34,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H34)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H34)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:Z$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Z65" t="str">
+        <f>IF(COLUMNS($J$25:AA$25)&lt;=$G34,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H34)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H34)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:AA$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AA65" t="str">
+        <f>IF(COLUMNS($J$25:AB$25)&lt;=$G34,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H34)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H34)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:AB$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AB65" t="str">
+        <f>IF(COLUMNS($J$25:AC$25)&lt;=$G34,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H34)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H34)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:AC$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AC65" t="str">
+        <f>IF(COLUMNS($J$25:AD$25)&lt;=$G34,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H34)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H34)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:AD$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AD65" t="str">
+        <f>IF(COLUMNS($J$25:AE$25)&lt;=$G34,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H34)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H34)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:AE$25))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A66" s="56" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B66" s="56">
         <v>140000</v>
@@ -7360,7 +8773,7 @@
       </c>
       <c r="G66">
         <f>COUNTIF(Adatok[Ingatlanok],H66)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H66" s="57" t="str">
         <f>INDEX(Adatok[Ingatlanok],MATCH(0,INDEX(COUNTIF($H$56:H65,Adatok[Ingatlanok]),),0))</f>
@@ -7398,10 +8811,66 @@
         <f>IF(COLUMNS($J$25:Q$25)&lt;=$G35,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H35)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H35)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:Q$25))),"")</f>
         <v>300</v>
       </c>
-    </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Q66">
+        <f>IF(COLUMNS($J$25:R$25)&lt;=$G35,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H35)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H35)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:R$25))),"")</f>
+        <v>500</v>
+      </c>
+      <c r="R66">
+        <f>IF(COLUMNS($J$25:S$25)&lt;=$G35,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H35)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H35)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:S$25))),"")</f>
+        <v>300</v>
+      </c>
+      <c r="S66">
+        <f>IF(COLUMNS($J$25:T$25)&lt;=$G35,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H35)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H35)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:T$25))),"")</f>
+        <v>-100</v>
+      </c>
+      <c r="T66">
+        <f>IF(COLUMNS($J$25:U$25)&lt;=$G35,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H35)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H35)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:U$25))),"")</f>
+        <v>-100</v>
+      </c>
+      <c r="U66">
+        <f>IF(COLUMNS($J$25:V$25)&lt;=$G35,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H35)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H35)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:V$25))),"")</f>
+        <v>100</v>
+      </c>
+      <c r="V66" t="str">
+        <f>IF(COLUMNS($J$25:W$25)&lt;=$G35,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H35)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H35)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:W$25))),"")</f>
+        <v/>
+      </c>
+      <c r="W66" t="str">
+        <f>IF(COLUMNS($J$25:X$25)&lt;=$G35,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H35)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H35)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:X$25))),"")</f>
+        <v/>
+      </c>
+      <c r="X66" t="str">
+        <f>IF(COLUMNS($J$25:Y$25)&lt;=$G35,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H35)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H35)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:Y$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Y66" t="str">
+        <f>IF(COLUMNS($J$25:Z$25)&lt;=$G35,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H35)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H35)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:Z$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Z66" t="str">
+        <f>IF(COLUMNS($J$25:AA$25)&lt;=$G35,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H35)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H35)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:AA$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AA66" t="str">
+        <f>IF(COLUMNS($J$25:AB$25)&lt;=$G35,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H35)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H35)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:AB$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AB66" t="str">
+        <f>IF(COLUMNS($J$25:AC$25)&lt;=$G35,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H35)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H35)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:AC$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AC66" t="str">
+        <f>IF(COLUMNS($J$25:AD$25)&lt;=$G35,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H35)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H35)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:AD$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AD66" t="str">
+        <f>IF(COLUMNS($J$25:AE$25)&lt;=$G35,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H35)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H35)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:AE$25))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A67" s="56" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B67" s="56">
         <v>150000</v>
@@ -7455,10 +8924,66 @@
         <f>IF(COLUMNS($J$25:Q$25)&lt;=$G36,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H36)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H36)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:Q$25))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Q67" t="str">
+        <f>IF(COLUMNS($J$25:R$25)&lt;=$G36,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H36)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H36)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:R$25))),"")</f>
+        <v/>
+      </c>
+      <c r="R67" t="str">
+        <f>IF(COLUMNS($J$25:S$25)&lt;=$G36,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H36)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H36)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:S$25))),"")</f>
+        <v/>
+      </c>
+      <c r="S67" t="str">
+        <f>IF(COLUMNS($J$25:T$25)&lt;=$G36,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H36)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H36)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:T$25))),"")</f>
+        <v/>
+      </c>
+      <c r="T67" t="str">
+        <f>IF(COLUMNS($J$25:U$25)&lt;=$G36,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H36)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H36)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:U$25))),"")</f>
+        <v/>
+      </c>
+      <c r="U67" t="str">
+        <f>IF(COLUMNS($J$25:V$25)&lt;=$G36,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H36)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H36)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:V$25))),"")</f>
+        <v/>
+      </c>
+      <c r="V67" t="str">
+        <f>IF(COLUMNS($J$25:W$25)&lt;=$G36,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H36)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H36)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:W$25))),"")</f>
+        <v/>
+      </c>
+      <c r="W67" t="str">
+        <f>IF(COLUMNS($J$25:X$25)&lt;=$G36,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H36)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H36)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:X$25))),"")</f>
+        <v/>
+      </c>
+      <c r="X67" t="str">
+        <f>IF(COLUMNS($J$25:Y$25)&lt;=$G36,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H36)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H36)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:Y$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Y67" t="str">
+        <f>IF(COLUMNS($J$25:Z$25)&lt;=$G36,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H36)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H36)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:Z$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Z67" t="str">
+        <f>IF(COLUMNS($J$25:AA$25)&lt;=$G36,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H36)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H36)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:AA$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AA67" t="str">
+        <f>IF(COLUMNS($J$25:AB$25)&lt;=$G36,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H36)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H36)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:AB$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AB67" t="str">
+        <f>IF(COLUMNS($J$25:AC$25)&lt;=$G36,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H36)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H36)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:AC$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AC67" t="str">
+        <f>IF(COLUMNS($J$25:AD$25)&lt;=$G36,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H36)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H36)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:AD$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AD67" t="str">
+        <f>IF(COLUMNS($J$25:AE$25)&lt;=$G36,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H36)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H36)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:AE$25))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A68" s="56" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B68" s="56">
         <v>150000</v>
@@ -7512,10 +9037,66 @@
         <f>IF(COLUMNS($J$25:Q$25)&lt;=$G37,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H37)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H37)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:Q$25))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Q68" t="str">
+        <f>IF(COLUMNS($J$25:R$25)&lt;=$G37,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H37)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H37)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:R$25))),"")</f>
+        <v/>
+      </c>
+      <c r="R68" t="str">
+        <f>IF(COLUMNS($J$25:S$25)&lt;=$G37,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H37)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H37)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:S$25))),"")</f>
+        <v/>
+      </c>
+      <c r="S68" t="str">
+        <f>IF(COLUMNS($J$25:T$25)&lt;=$G37,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H37)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H37)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:T$25))),"")</f>
+        <v/>
+      </c>
+      <c r="T68" t="str">
+        <f>IF(COLUMNS($J$25:U$25)&lt;=$G37,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H37)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H37)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:U$25))),"")</f>
+        <v/>
+      </c>
+      <c r="U68" t="str">
+        <f>IF(COLUMNS($J$25:V$25)&lt;=$G37,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H37)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H37)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:V$25))),"")</f>
+        <v/>
+      </c>
+      <c r="V68" t="str">
+        <f>IF(COLUMNS($J$25:W$25)&lt;=$G37,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H37)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H37)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:W$25))),"")</f>
+        <v/>
+      </c>
+      <c r="W68" t="str">
+        <f>IF(COLUMNS($J$25:X$25)&lt;=$G37,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H37)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H37)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:X$25))),"")</f>
+        <v/>
+      </c>
+      <c r="X68" t="str">
+        <f>IF(COLUMNS($J$25:Y$25)&lt;=$G37,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H37)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H37)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:Y$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Y68" t="str">
+        <f>IF(COLUMNS($J$25:Z$25)&lt;=$G37,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H37)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H37)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:Z$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Z68" t="str">
+        <f>IF(COLUMNS($J$25:AA$25)&lt;=$G37,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H37)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H37)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:AA$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AA68" t="str">
+        <f>IF(COLUMNS($J$25:AB$25)&lt;=$G37,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H37)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H37)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:AB$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AB68" t="str">
+        <f>IF(COLUMNS($J$25:AC$25)&lt;=$G37,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H37)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H37)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:AC$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AC68" t="str">
+        <f>IF(COLUMNS($J$25:AD$25)&lt;=$G37,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H37)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H37)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:AD$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AD68" t="str">
+        <f>IF(COLUMNS($J$25:AE$25)&lt;=$G37,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H37)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H37)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:AE$25))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A69" s="56" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B69" s="56">
         <v>160000</v>
@@ -7569,10 +9150,66 @@
         <f>IF(COLUMNS($J$25:Q$25)&lt;=$G38,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H38)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H38)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:Q$25))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Q69" t="str">
+        <f>IF(COLUMNS($J$25:R$25)&lt;=$G38,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H38)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H38)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:R$25))),"")</f>
+        <v/>
+      </c>
+      <c r="R69" t="str">
+        <f>IF(COLUMNS($J$25:S$25)&lt;=$G38,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H38)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H38)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:S$25))),"")</f>
+        <v/>
+      </c>
+      <c r="S69" t="str">
+        <f>IF(COLUMNS($J$25:T$25)&lt;=$G38,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H38)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H38)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:T$25))),"")</f>
+        <v/>
+      </c>
+      <c r="T69" t="str">
+        <f>IF(COLUMNS($J$25:U$25)&lt;=$G38,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H38)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H38)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:U$25))),"")</f>
+        <v/>
+      </c>
+      <c r="U69" t="str">
+        <f>IF(COLUMNS($J$25:V$25)&lt;=$G38,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H38)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H38)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:V$25))),"")</f>
+        <v/>
+      </c>
+      <c r="V69" t="str">
+        <f>IF(COLUMNS($J$25:W$25)&lt;=$G38,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H38)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H38)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:W$25))),"")</f>
+        <v/>
+      </c>
+      <c r="W69" t="str">
+        <f>IF(COLUMNS($J$25:X$25)&lt;=$G38,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H38)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H38)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:X$25))),"")</f>
+        <v/>
+      </c>
+      <c r="X69" t="str">
+        <f>IF(COLUMNS($J$25:Y$25)&lt;=$G38,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H38)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H38)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:Y$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Y69" t="str">
+        <f>IF(COLUMNS($J$25:Z$25)&lt;=$G38,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H38)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H38)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:Z$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Z69" t="str">
+        <f>IF(COLUMNS($J$25:AA$25)&lt;=$G38,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H38)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H38)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:AA$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AA69" t="str">
+        <f>IF(COLUMNS($J$25:AB$25)&lt;=$G38,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H38)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H38)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:AB$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AB69" t="str">
+        <f>IF(COLUMNS($J$25:AC$25)&lt;=$G38,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H38)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H38)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:AC$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AC69" t="str">
+        <f>IF(COLUMNS($J$25:AD$25)&lt;=$G38,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H38)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H38)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:AD$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AD69" t="str">
+        <f>IF(COLUMNS($J$25:AE$25)&lt;=$G38,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H38)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H38)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:AE$25))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A70" s="56" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B70" s="47">
         <v>200000</v>
@@ -7626,10 +9263,66 @@
         <f>IF(COLUMNS($J$25:Q$25)&lt;=$G39,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H39)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H39)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:Q$25))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Q70" t="str">
+        <f>IF(COLUMNS($J$25:R$25)&lt;=$G39,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H39)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H39)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:R$25))),"")</f>
+        <v/>
+      </c>
+      <c r="R70" t="str">
+        <f>IF(COLUMNS($J$25:S$25)&lt;=$G39,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H39)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H39)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:S$25))),"")</f>
+        <v/>
+      </c>
+      <c r="S70" t="str">
+        <f>IF(COLUMNS($J$25:T$25)&lt;=$G39,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H39)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H39)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:T$25))),"")</f>
+        <v/>
+      </c>
+      <c r="T70" t="str">
+        <f>IF(COLUMNS($J$25:U$25)&lt;=$G39,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H39)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H39)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:U$25))),"")</f>
+        <v/>
+      </c>
+      <c r="U70" t="str">
+        <f>IF(COLUMNS($J$25:V$25)&lt;=$G39,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H39)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H39)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:V$25))),"")</f>
+        <v/>
+      </c>
+      <c r="V70" t="str">
+        <f>IF(COLUMNS($J$25:W$25)&lt;=$G39,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H39)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H39)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:W$25))),"")</f>
+        <v/>
+      </c>
+      <c r="W70" t="str">
+        <f>IF(COLUMNS($J$25:X$25)&lt;=$G39,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H39)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H39)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:X$25))),"")</f>
+        <v/>
+      </c>
+      <c r="X70" t="str">
+        <f>IF(COLUMNS($J$25:Y$25)&lt;=$G39,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H39)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H39)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:Y$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Y70" t="str">
+        <f>IF(COLUMNS($J$25:Z$25)&lt;=$G39,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H39)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H39)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:Z$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Z70" t="str">
+        <f>IF(COLUMNS($J$25:AA$25)&lt;=$G39,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H39)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H39)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:AA$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AA70" t="str">
+        <f>IF(COLUMNS($J$25:AB$25)&lt;=$G39,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H39)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H39)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:AB$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AB70" t="str">
+        <f>IF(COLUMNS($J$25:AC$25)&lt;=$G39,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H39)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H39)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:AC$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AC70" t="str">
+        <f>IF(COLUMNS($J$25:AD$25)&lt;=$G39,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H39)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H39)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:AD$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AD70" t="str">
+        <f>IF(COLUMNS($J$25:AE$25)&lt;=$G39,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H39)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H39)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:AE$25))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A71" s="56" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B71" s="56">
         <v>200000</v>
@@ -7683,10 +9376,66 @@
         <f>IF(COLUMNS($J$25:Q$25)&lt;=$G40,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H40)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H40)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:Q$25))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Q71" t="str">
+        <f>IF(COLUMNS($J$25:R$25)&lt;=$G40,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H40)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H40)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:R$25))),"")</f>
+        <v/>
+      </c>
+      <c r="R71" t="str">
+        <f>IF(COLUMNS($J$25:S$25)&lt;=$G40,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H40)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H40)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:S$25))),"")</f>
+        <v/>
+      </c>
+      <c r="S71" t="str">
+        <f>IF(COLUMNS($J$25:T$25)&lt;=$G40,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H40)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H40)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:T$25))),"")</f>
+        <v/>
+      </c>
+      <c r="T71" t="str">
+        <f>IF(COLUMNS($J$25:U$25)&lt;=$G40,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H40)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H40)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:U$25))),"")</f>
+        <v/>
+      </c>
+      <c r="U71" t="str">
+        <f>IF(COLUMNS($J$25:V$25)&lt;=$G40,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H40)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H40)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:V$25))),"")</f>
+        <v/>
+      </c>
+      <c r="V71" t="str">
+        <f>IF(COLUMNS($J$25:W$25)&lt;=$G40,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H40)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H40)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:W$25))),"")</f>
+        <v/>
+      </c>
+      <c r="W71" t="str">
+        <f>IF(COLUMNS($J$25:X$25)&lt;=$G40,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H40)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H40)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:X$25))),"")</f>
+        <v/>
+      </c>
+      <c r="X71" t="str">
+        <f>IF(COLUMNS($J$25:Y$25)&lt;=$G40,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H40)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H40)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:Y$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Y71" t="str">
+        <f>IF(COLUMNS($J$25:Z$25)&lt;=$G40,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H40)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H40)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:Z$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Z71" t="str">
+        <f>IF(COLUMNS($J$25:AA$25)&lt;=$G40,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H40)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H40)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:AA$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AA71" t="str">
+        <f>IF(COLUMNS($J$25:AB$25)&lt;=$G40,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H40)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H40)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:AB$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AB71" t="str">
+        <f>IF(COLUMNS($J$25:AC$25)&lt;=$G40,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H40)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H40)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:AC$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AC71" t="str">
+        <f>IF(COLUMNS($J$25:AD$25)&lt;=$G40,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H40)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H40)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:AD$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AD71" t="str">
+        <f>IF(COLUMNS($J$25:AE$25)&lt;=$G40,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H40)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H40)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:AE$25))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A72" s="61" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B72" s="61">
         <v>220000</v>
@@ -7740,10 +9489,66 @@
         <f>IF(COLUMNS($J$25:Q$25)&lt;=$G41,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H41)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H41)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:Q$25))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Q72" t="str">
+        <f>IF(COLUMNS($J$25:R$25)&lt;=$G41,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H41)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H41)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:R$25))),"")</f>
+        <v/>
+      </c>
+      <c r="R72" t="str">
+        <f>IF(COLUMNS($J$25:S$25)&lt;=$G41,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H41)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H41)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:S$25))),"")</f>
+        <v/>
+      </c>
+      <c r="S72" t="str">
+        <f>IF(COLUMNS($J$25:T$25)&lt;=$G41,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H41)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H41)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:T$25))),"")</f>
+        <v/>
+      </c>
+      <c r="T72" t="str">
+        <f>IF(COLUMNS($J$25:U$25)&lt;=$G41,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H41)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H41)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:U$25))),"")</f>
+        <v/>
+      </c>
+      <c r="U72" t="str">
+        <f>IF(COLUMNS($J$25:V$25)&lt;=$G41,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H41)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H41)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:V$25))),"")</f>
+        <v/>
+      </c>
+      <c r="V72" t="str">
+        <f>IF(COLUMNS($J$25:W$25)&lt;=$G41,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H41)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H41)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:W$25))),"")</f>
+        <v/>
+      </c>
+      <c r="W72" t="str">
+        <f>IF(COLUMNS($J$25:X$25)&lt;=$G41,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H41)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H41)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:X$25))),"")</f>
+        <v/>
+      </c>
+      <c r="X72" t="str">
+        <f>IF(COLUMNS($J$25:Y$25)&lt;=$G41,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H41)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H41)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:Y$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Y72" t="str">
+        <f>IF(COLUMNS($J$25:Z$25)&lt;=$G41,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H41)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H41)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:Z$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Z72" t="str">
+        <f>IF(COLUMNS($J$25:AA$25)&lt;=$G41,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H41)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H41)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:AA$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AA72" t="str">
+        <f>IF(COLUMNS($J$25:AB$25)&lt;=$G41,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H41)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H41)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:AB$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AB72" t="str">
+        <f>IF(COLUMNS($J$25:AC$25)&lt;=$G41,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H41)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H41)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:AC$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AC72" t="str">
+        <f>IF(COLUMNS($J$25:AD$25)&lt;=$G41,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H41)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H41)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:AD$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AD72" t="str">
+        <f>IF(COLUMNS($J$25:AE$25)&lt;=$G41,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H41)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H41)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:AE$25))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A73" s="56" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B73" s="56">
         <v>240000</v>
@@ -7797,10 +9602,66 @@
         <f>IF(COLUMNS($J$25:Q$25)&lt;=$G42,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H42)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H42)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:Q$25))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Q73" t="str">
+        <f>IF(COLUMNS($J$25:R$25)&lt;=$G42,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H42)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H42)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:R$25))),"")</f>
+        <v/>
+      </c>
+      <c r="R73" t="str">
+        <f>IF(COLUMNS($J$25:S$25)&lt;=$G42,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H42)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H42)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:S$25))),"")</f>
+        <v/>
+      </c>
+      <c r="S73" t="str">
+        <f>IF(COLUMNS($J$25:T$25)&lt;=$G42,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H42)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H42)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:T$25))),"")</f>
+        <v/>
+      </c>
+      <c r="T73" t="str">
+        <f>IF(COLUMNS($J$25:U$25)&lt;=$G42,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H42)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H42)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:U$25))),"")</f>
+        <v/>
+      </c>
+      <c r="U73" t="str">
+        <f>IF(COLUMNS($J$25:V$25)&lt;=$G42,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H42)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H42)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:V$25))),"")</f>
+        <v/>
+      </c>
+      <c r="V73" t="str">
+        <f>IF(COLUMNS($J$25:W$25)&lt;=$G42,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H42)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H42)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:W$25))),"")</f>
+        <v/>
+      </c>
+      <c r="W73" t="str">
+        <f>IF(COLUMNS($J$25:X$25)&lt;=$G42,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H42)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H42)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:X$25))),"")</f>
+        <v/>
+      </c>
+      <c r="X73" t="str">
+        <f>IF(COLUMNS($J$25:Y$25)&lt;=$G42,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H42)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H42)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:Y$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Y73" t="str">
+        <f>IF(COLUMNS($J$25:Z$25)&lt;=$G42,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H42)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H42)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:Z$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Z73" t="str">
+        <f>IF(COLUMNS($J$25:AA$25)&lt;=$G42,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H42)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H42)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:AA$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AA73" t="str">
+        <f>IF(COLUMNS($J$25:AB$25)&lt;=$G42,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H42)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H42)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:AB$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AB73" t="str">
+        <f>IF(COLUMNS($J$25:AC$25)&lt;=$G42,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H42)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H42)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:AC$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AC73" t="str">
+        <f>IF(COLUMNS($J$25:AD$25)&lt;=$G42,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H42)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H42)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:AD$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AD73" t="str">
+        <f>IF(COLUMNS($J$25:AE$25)&lt;=$G42,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H42)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H42)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:AE$25))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A74" s="56" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B74" s="56">
         <v>350000</v>
@@ -7854,10 +9715,66 @@
         <f>IF(COLUMNS($J$25:Q$25)&lt;=$G43,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H43)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H43)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:Q$25))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Q74" t="str">
+        <f>IF(COLUMNS($J$25:R$25)&lt;=$G43,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H43)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H43)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:R$25))),"")</f>
+        <v/>
+      </c>
+      <c r="R74" t="str">
+        <f>IF(COLUMNS($J$25:S$25)&lt;=$G43,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H43)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H43)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:S$25))),"")</f>
+        <v/>
+      </c>
+      <c r="S74" t="str">
+        <f>IF(COLUMNS($J$25:T$25)&lt;=$G43,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H43)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H43)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:T$25))),"")</f>
+        <v/>
+      </c>
+      <c r="T74" t="str">
+        <f>IF(COLUMNS($J$25:U$25)&lt;=$G43,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H43)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H43)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:U$25))),"")</f>
+        <v/>
+      </c>
+      <c r="U74" t="str">
+        <f>IF(COLUMNS($J$25:V$25)&lt;=$G43,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H43)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H43)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:V$25))),"")</f>
+        <v/>
+      </c>
+      <c r="V74" t="str">
+        <f>IF(COLUMNS($J$25:W$25)&lt;=$G43,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H43)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H43)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:W$25))),"")</f>
+        <v/>
+      </c>
+      <c r="W74" t="str">
+        <f>IF(COLUMNS($J$25:X$25)&lt;=$G43,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H43)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H43)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:X$25))),"")</f>
+        <v/>
+      </c>
+      <c r="X74" t="str">
+        <f>IF(COLUMNS($J$25:Y$25)&lt;=$G43,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H43)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H43)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:Y$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Y74" t="str">
+        <f>IF(COLUMNS($J$25:Z$25)&lt;=$G43,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H43)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H43)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:Z$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Z74" t="str">
+        <f>IF(COLUMNS($J$25:AA$25)&lt;=$G43,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H43)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H43)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:AA$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AA74" t="str">
+        <f>IF(COLUMNS($J$25:AB$25)&lt;=$G43,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H43)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H43)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:AB$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AB74" t="str">
+        <f>IF(COLUMNS($J$25:AC$25)&lt;=$G43,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H43)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H43)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:AC$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AC74" t="str">
+        <f>IF(COLUMNS($J$25:AD$25)&lt;=$G43,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H43)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H43)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:AD$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AD74" t="str">
+        <f>IF(COLUMNS($J$25:AE$25)&lt;=$G43,INDEX(Adatok[[Cashflow]:[Cashflow]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H43)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H43)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:AE$25))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A75" s="56" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B75" s="56">
         <v>350000</v>
@@ -7872,9 +9789,9 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A76" s="56" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B76" s="56">
         <v>500000</v>
@@ -7889,9 +9806,9 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A77" s="56" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B77" s="56">
         <v>550000</v>
@@ -7906,9 +9823,9 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A78" s="56" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B78" s="56">
         <v>575000</v>
@@ -7927,9 +9844,9 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A79" s="56" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B79" s="56">
         <v>1200000</v>
@@ -7944,7 +9861,22 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A80" s="62" t="s">
+        <v>139</v>
+      </c>
+      <c r="B80" s="56">
+        <v>55000</v>
+      </c>
+      <c r="C80" s="56">
+        <v>50000</v>
+      </c>
+      <c r="D80" s="56">
+        <v>5000</v>
+      </c>
+      <c r="E80" s="56">
+        <v>160</v>
+      </c>
       <c r="G80">
         <f>COUNTIF(Adatok[Ingatlanok],H80)</f>
         <v>1</v>
@@ -8013,8 +9945,51 @@
         <f>IF(COLUMNS($J$25:X$25)&lt;=$G26,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H26)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H26)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:X$25))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X80" t="str">
+        <f>IF(COLUMNS($J$25:Y$25)&lt;=$G26,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H26)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H26)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:Y$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Y80" t="str">
+        <f>IF(COLUMNS($J$25:Z$25)&lt;=$G26,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H26)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H26)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:Z$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Z80" t="str">
+        <f>IF(COLUMNS($J$25:AA$25)&lt;=$G26,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H26)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H26)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:AA$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AA80" t="str">
+        <f>IF(COLUMNS($J$25:AB$25)&lt;=$G26,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H26)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H26)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:AB$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AB80" t="str">
+        <f>IF(COLUMNS($J$25:AC$25)&lt;=$G26,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H26)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H26)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:AC$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AC80" t="str">
+        <f>IF(COLUMNS($J$25:AD$25)&lt;=$G26,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H26)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H26)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:AD$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AD80" t="str">
+        <f>IF(COLUMNS($J$25:AE$25)&lt;=$G26,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H26)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H26)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:AE$25))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A81" s="62" t="s">
+        <v>136</v>
+      </c>
+      <c r="B81" s="56">
+        <v>50000</v>
+      </c>
+      <c r="C81" s="56">
+        <v>47000</v>
+      </c>
+      <c r="D81" s="56">
+        <v>3000</v>
+      </c>
+      <c r="E81" s="56">
+        <v>100</v>
+      </c>
       <c r="G81">
         <f>COUNTIF(Adatok[Ingatlanok],H81)</f>
         <v>1</v>
@@ -8083,8 +10058,36 @@
         <f>IF(COLUMNS($J$25:X$25)&lt;=$G27,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H27)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H27)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:X$25))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X81" t="str">
+        <f>IF(COLUMNS($J$25:Y$25)&lt;=$G27,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H27)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H27)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:Y$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Y81" t="str">
+        <f>IF(COLUMNS($J$25:Z$25)&lt;=$G27,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H27)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H27)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:Z$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Z81" t="str">
+        <f>IF(COLUMNS($J$25:AA$25)&lt;=$G27,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H27)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H27)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:AA$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AA81" t="str">
+        <f>IF(COLUMNS($J$25:AB$25)&lt;=$G27,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H27)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H27)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:AB$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AB81" t="str">
+        <f>IF(COLUMNS($J$25:AC$25)&lt;=$G27,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H27)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H27)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:AC$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AC81" t="str">
+        <f>IF(COLUMNS($J$25:AD$25)&lt;=$G27,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H27)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H27)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:AD$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AD81" t="str">
+        <f>IF(COLUMNS($J$25:AE$25)&lt;=$G27,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H27)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H27)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:AE$25))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:30" x14ac:dyDescent="0.25">
       <c r="G82">
         <f>COUNTIF(Adatok[Ingatlanok],H82)</f>
         <v>1</v>
@@ -8153,8 +10156,36 @@
         <f>IF(COLUMNS($J$25:X$25)&lt;=$G28,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H28)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H28)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:X$25))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X82" t="str">
+        <f>IF(COLUMNS($J$25:Y$25)&lt;=$G28,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H28)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H28)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:Y$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Y82" t="str">
+        <f>IF(COLUMNS($J$25:Z$25)&lt;=$G28,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H28)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H28)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:Z$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Z82" t="str">
+        <f>IF(COLUMNS($J$25:AA$25)&lt;=$G28,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H28)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H28)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:AA$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AA82" t="str">
+        <f>IF(COLUMNS($J$25:AB$25)&lt;=$G28,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H28)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H28)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:AB$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AB82" t="str">
+        <f>IF(COLUMNS($J$25:AC$25)&lt;=$G28,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H28)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H28)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:AC$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AC82" t="str">
+        <f>IF(COLUMNS($J$25:AD$25)&lt;=$G28,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H28)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H28)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:AD$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AD82" t="str">
+        <f>IF(COLUMNS($J$25:AE$25)&lt;=$G28,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H28)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H28)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:AE$25))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:30" x14ac:dyDescent="0.25">
       <c r="G83">
         <f>COUNTIF(Adatok[Ingatlanok],H83)</f>
         <v>1</v>
@@ -8223,8 +10254,36 @@
         <f>IF(COLUMNS($J$25:X$25)&lt;=$G29,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H29)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H29)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:X$25))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X83" t="str">
+        <f>IF(COLUMNS($J$25:Y$25)&lt;=$G29,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H29)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H29)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:Y$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Y83" t="str">
+        <f>IF(COLUMNS($J$25:Z$25)&lt;=$G29,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H29)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H29)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:Z$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Z83" t="str">
+        <f>IF(COLUMNS($J$25:AA$25)&lt;=$G29,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H29)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H29)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:AA$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AA83" t="str">
+        <f>IF(COLUMNS($J$25:AB$25)&lt;=$G29,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H29)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H29)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:AB$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AB83" t="str">
+        <f>IF(COLUMNS($J$25:AC$25)&lt;=$G29,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H29)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H29)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:AC$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AC83" t="str">
+        <f>IF(COLUMNS($J$25:AD$25)&lt;=$G29,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H29)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H29)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:AD$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AD83" t="str">
+        <f>IF(COLUMNS($J$25:AE$25)&lt;=$G29,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H29)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H29)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:AE$25))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:30" x14ac:dyDescent="0.25">
       <c r="G84">
         <f>COUNTIF(Adatok[Ingatlanok],H84)</f>
         <v>4</v>
@@ -8293,8 +10352,36 @@
         <f>IF(COLUMNS($J$25:X$25)&lt;=$G30,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H30)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H30)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:X$25))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X84" t="str">
+        <f>IF(COLUMNS($J$25:Y$25)&lt;=$G30,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H30)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H30)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:Y$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Y84" t="str">
+        <f>IF(COLUMNS($J$25:Z$25)&lt;=$G30,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H30)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H30)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:Z$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Z84" t="str">
+        <f>IF(COLUMNS($J$25:AA$25)&lt;=$G30,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H30)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H30)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:AA$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AA84" t="str">
+        <f>IF(COLUMNS($J$25:AB$25)&lt;=$G30,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H30)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H30)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:AB$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AB84" t="str">
+        <f>IF(COLUMNS($J$25:AC$25)&lt;=$G30,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H30)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H30)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:AC$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AC84" t="str">
+        <f>IF(COLUMNS($J$25:AD$25)&lt;=$G30,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H30)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H30)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:AD$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AD84" t="str">
+        <f>IF(COLUMNS($J$25:AE$25)&lt;=$G30,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H30)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H30)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:AE$25))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:30" x14ac:dyDescent="0.25">
       <c r="G85">
         <f>COUNTIF(Adatok[Ingatlanok],H85)</f>
         <v>3</v>
@@ -8363,11 +10450,39 @@
         <f>IF(COLUMNS($J$25:X$25)&lt;=$G31,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H31)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H31)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:X$25))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X85" t="str">
+        <f>IF(COLUMNS($J$25:Y$25)&lt;=$G31,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H31)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H31)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:Y$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Y85" t="str">
+        <f>IF(COLUMNS($J$25:Z$25)&lt;=$G31,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H31)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H31)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:Z$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Z85" t="str">
+        <f>IF(COLUMNS($J$25:AA$25)&lt;=$G31,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H31)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H31)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:AA$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AA85" t="str">
+        <f>IF(COLUMNS($J$25:AB$25)&lt;=$G31,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H31)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H31)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:AB$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AB85" t="str">
+        <f>IF(COLUMNS($J$25:AC$25)&lt;=$G31,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H31)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H31)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:AC$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AC85" t="str">
+        <f>IF(COLUMNS($J$25:AD$25)&lt;=$G31,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H31)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H31)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:AD$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AD85" t="str">
+        <f>IF(COLUMNS($J$25:AE$25)&lt;=$G31,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H31)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H31)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:AE$25))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:30" x14ac:dyDescent="0.25">
       <c r="G86">
         <f>COUNTIF(Adatok[Ingatlanok],H86)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H86" s="57" t="str">
         <f>INDEX(Adatok[Ingatlanok],MATCH(0,INDEX(COUNTIF($H$79:H85,Adatok[Ingatlanok]),),0))</f>
@@ -8389,9 +10504,9 @@
         <f>IF(COLUMNS($J$25:M$25)&lt;=$G32,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H32)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H32)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:M$25))),"")</f>
         <v>5000</v>
       </c>
-      <c r="M86" t="str">
+      <c r="M86">
         <f>IF(COLUMNS($J$25:N$25)&lt;=$G32,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H32)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H32)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:N$25))),"")</f>
-        <v/>
+        <v>5000</v>
       </c>
       <c r="N86" t="str">
         <f>IF(COLUMNS($J$25:O$25)&lt;=$G32,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H32)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H32)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:O$25))),"")</f>
@@ -8433,8 +10548,36 @@
         <f>IF(COLUMNS($J$25:X$25)&lt;=$G32,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H32)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H32)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:X$25))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X86" t="str">
+        <f>IF(COLUMNS($J$25:Y$25)&lt;=$G32,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H32)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H32)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:Y$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Y86" t="str">
+        <f>IF(COLUMNS($J$25:Z$25)&lt;=$G32,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H32)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H32)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:Z$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Z86" t="str">
+        <f>IF(COLUMNS($J$25:AA$25)&lt;=$G32,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H32)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H32)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:AA$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AA86" t="str">
+        <f>IF(COLUMNS($J$25:AB$25)&lt;=$G32,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H32)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H32)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:AB$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AB86" t="str">
+        <f>IF(COLUMNS($J$25:AC$25)&lt;=$G32,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H32)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H32)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:AC$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AC86" t="str">
+        <f>IF(COLUMNS($J$25:AD$25)&lt;=$G32,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H32)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H32)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:AD$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AD86" t="str">
+        <f>IF(COLUMNS($J$25:AE$25)&lt;=$G32,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H32)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H32)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:AE$25))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:30" x14ac:dyDescent="0.25">
       <c r="G87">
         <f>COUNTIF(Adatok[Ingatlanok],H87)</f>
         <v>5</v>
@@ -8503,8 +10646,36 @@
         <f>IF(COLUMNS($J$25:X$25)&lt;=$G33,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H33)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H33)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:X$25))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X87" t="str">
+        <f>IF(COLUMNS($J$25:Y$25)&lt;=$G33,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H33)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H33)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:Y$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Y87" t="str">
+        <f>IF(COLUMNS($J$25:Z$25)&lt;=$G33,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H33)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H33)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:Z$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Z87" t="str">
+        <f>IF(COLUMNS($J$25:AA$25)&lt;=$G33,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H33)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H33)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:AA$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AA87" t="str">
+        <f>IF(COLUMNS($J$25:AB$25)&lt;=$G33,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H33)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H33)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:AB$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AB87" t="str">
+        <f>IF(COLUMNS($J$25:AC$25)&lt;=$G33,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H33)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H33)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:AC$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AC87" t="str">
+        <f>IF(COLUMNS($J$25:AD$25)&lt;=$G33,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H33)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H33)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:AD$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AD87" t="str">
+        <f>IF(COLUMNS($J$25:AE$25)&lt;=$G33,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H33)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H33)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:AE$25))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:30" x14ac:dyDescent="0.25">
       <c r="G88">
         <f>COUNTIF(Adatok[Ingatlanok],H88)</f>
         <v>1</v>
@@ -8573,11 +10744,39 @@
         <f>IF(COLUMNS($J$25:X$25)&lt;=$G34,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H34)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H34)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:X$25))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X88" t="str">
+        <f>IF(COLUMNS($J$25:Y$25)&lt;=$G34,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H34)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H34)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:Y$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Y88" t="str">
+        <f>IF(COLUMNS($J$25:Z$25)&lt;=$G34,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H34)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H34)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:Z$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Z88" t="str">
+        <f>IF(COLUMNS($J$25:AA$25)&lt;=$G34,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H34)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H34)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:AA$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AA88" t="str">
+        <f>IF(COLUMNS($J$25:AB$25)&lt;=$G34,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H34)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H34)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:AB$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AB88" t="str">
+        <f>IF(COLUMNS($J$25:AC$25)&lt;=$G34,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H34)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H34)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:AC$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AC88" t="str">
+        <f>IF(COLUMNS($J$25:AD$25)&lt;=$G34,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H34)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H34)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:AD$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AD88" t="str">
+        <f>IF(COLUMNS($J$25:AE$25)&lt;=$G34,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H34)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H34)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:AE$25))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:30" x14ac:dyDescent="0.25">
       <c r="G89">
         <f>COUNTIF(Adatok[Ingatlanok],H89)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H89" s="57" t="str">
         <f>INDEX(Adatok[Ingatlanok],MATCH(0,INDEX(COUNTIF($H$79:H88,Adatok[Ingatlanok]),),0))</f>
@@ -8631,9 +10830,9 @@
         <f>IF(COLUMNS($J$25:U$25)&lt;=$G35,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H35)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H35)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:U$25))),"")</f>
         <v>20000</v>
       </c>
-      <c r="U89" t="str">
+      <c r="U89">
         <f>IF(COLUMNS($J$25:V$25)&lt;=$G35,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H35)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H35)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:V$25))),"")</f>
-        <v/>
+        <v>3000</v>
       </c>
       <c r="V89" t="str">
         <f>IF(COLUMNS($J$25:W$25)&lt;=$G35,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H35)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H35)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:W$25))),"")</f>
@@ -8643,13 +10842,41 @@
         <f>IF(COLUMNS($J$25:X$25)&lt;=$G35,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H35)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H35)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:X$25))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X89" t="str">
+        <f>IF(COLUMNS($J$25:Y$25)&lt;=$G35,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H35)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H35)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:Y$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Y89" t="str">
+        <f>IF(COLUMNS($J$25:Z$25)&lt;=$G35,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H35)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H35)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:Z$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Z89" t="str">
+        <f>IF(COLUMNS($J$25:AA$25)&lt;=$G35,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H35)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H35)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:AA$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AA89" t="str">
+        <f>IF(COLUMNS($J$25:AB$25)&lt;=$G35,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H35)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H35)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:AB$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AB89" t="str">
+        <f>IF(COLUMNS($J$25:AC$25)&lt;=$G35,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H35)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H35)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:AC$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AC89" t="str">
+        <f>IF(COLUMNS($J$25:AD$25)&lt;=$G35,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H35)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H35)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:AD$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AD89" t="str">
+        <f>IF(COLUMNS($J$25:AE$25)&lt;=$G35,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H35)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H35)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:AE$25))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B90" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G90">
         <f>COUNTIF(Adatok[Ingatlanok],H90)</f>
@@ -8719,10 +10946,38 @@
         <f>IF(COLUMNS($J$25:X$25)&lt;=$G36,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H36)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H36)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:X$25))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X90" t="str">
+        <f>IF(COLUMNS($J$25:Y$25)&lt;=$G36,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H36)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H36)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:Y$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Y90" t="str">
+        <f>IF(COLUMNS($J$25:Z$25)&lt;=$G36,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H36)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H36)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:Z$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Z90" t="str">
+        <f>IF(COLUMNS($J$25:AA$25)&lt;=$G36,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H36)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H36)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:AA$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AA90" t="str">
+        <f>IF(COLUMNS($J$25:AB$25)&lt;=$G36,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H36)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H36)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:AB$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AB90" t="str">
+        <f>IF(COLUMNS($J$25:AC$25)&lt;=$G36,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H36)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H36)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:AC$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AC90" t="str">
+        <f>IF(COLUMNS($J$25:AD$25)&lt;=$G36,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H36)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H36)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:AD$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AD90" t="str">
+        <f>IF(COLUMNS($J$25:AE$25)&lt;=$G36,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H36)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H36)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:AE$25))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B91">
         <v>10000</v>
@@ -8803,10 +11058,38 @@
         <f>IF(COLUMNS($J$25:X$25)&lt;=$G37,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H37)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H37)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:X$25))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X91" t="str">
+        <f>IF(COLUMNS($J$25:Y$25)&lt;=$G37,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H37)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H37)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:Y$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Y91" t="str">
+        <f>IF(COLUMNS($J$25:Z$25)&lt;=$G37,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H37)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H37)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:Z$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Z91" t="str">
+        <f>IF(COLUMNS($J$25:AA$25)&lt;=$G37,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H37)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H37)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:AA$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AA91" t="str">
+        <f>IF(COLUMNS($J$25:AB$25)&lt;=$G37,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H37)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H37)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:AB$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AB91" t="str">
+        <f>IF(COLUMNS($J$25:AC$25)&lt;=$G37,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H37)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H37)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:AC$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AC91" t="str">
+        <f>IF(COLUMNS($J$25:AD$25)&lt;=$G37,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H37)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H37)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:AD$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AD91" t="str">
+        <f>IF(COLUMNS($J$25:AE$25)&lt;=$G37,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H37)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H37)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:AE$25))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B92">
         <v>10000</v>
@@ -8879,10 +11162,38 @@
         <f>IF(COLUMNS($J$25:X$25)&lt;=$G38,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H38)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H38)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:X$25))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X92" t="str">
+        <f>IF(COLUMNS($J$25:Y$25)&lt;=$G38,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H38)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H38)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:Y$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Y92" t="str">
+        <f>IF(COLUMNS($J$25:Z$25)&lt;=$G38,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H38)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H38)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:Z$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Z92" t="str">
+        <f>IF(COLUMNS($J$25:AA$25)&lt;=$G38,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H38)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H38)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:AA$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AA92" t="str">
+        <f>IF(COLUMNS($J$25:AB$25)&lt;=$G38,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H38)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H38)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:AB$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AB92" t="str">
+        <f>IF(COLUMNS($J$25:AC$25)&lt;=$G38,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H38)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H38)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:AC$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AC92" t="str">
+        <f>IF(COLUMNS($J$25:AD$25)&lt;=$G38,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H38)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H38)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:AD$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AD92" t="str">
+        <f>IF(COLUMNS($J$25:AE$25)&lt;=$G38,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H38)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H38)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:AE$25))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B93">
         <v>6000</v>
@@ -8955,10 +11266,38 @@
         <f>IF(COLUMNS($J$25:X$25)&lt;=$G39,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H39)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H39)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:X$25))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X93" t="str">
+        <f>IF(COLUMNS($J$25:Y$25)&lt;=$G39,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H39)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H39)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:Y$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Y93" t="str">
+        <f>IF(COLUMNS($J$25:Z$25)&lt;=$G39,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H39)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H39)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:Z$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Z93" t="str">
+        <f>IF(COLUMNS($J$25:AA$25)&lt;=$G39,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H39)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H39)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:AA$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AA93" t="str">
+        <f>IF(COLUMNS($J$25:AB$25)&lt;=$G39,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H39)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H39)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:AB$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AB93" t="str">
+        <f>IF(COLUMNS($J$25:AC$25)&lt;=$G39,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H39)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H39)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:AC$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AC93" t="str">
+        <f>IF(COLUMNS($J$25:AD$25)&lt;=$G39,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H39)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H39)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:AD$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AD93" t="str">
+        <f>IF(COLUMNS($J$25:AE$25)&lt;=$G39,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H39)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H39)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:AE$25))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B94">
         <v>75000</v>
@@ -9031,10 +11370,38 @@
         <f>IF(COLUMNS($J$25:X$25)&lt;=$G40,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H40)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H40)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:X$25))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X94" t="str">
+        <f>IF(COLUMNS($J$25:Y$25)&lt;=$G40,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H40)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H40)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:Y$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Y94" t="str">
+        <f>IF(COLUMNS($J$25:Z$25)&lt;=$G40,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H40)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H40)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:Z$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Z94" t="str">
+        <f>IF(COLUMNS($J$25:AA$25)&lt;=$G40,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H40)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H40)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:AA$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AA94" t="str">
+        <f>IF(COLUMNS($J$25:AB$25)&lt;=$G40,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H40)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H40)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:AB$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AB94" t="str">
+        <f>IF(COLUMNS($J$25:AC$25)&lt;=$G40,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H40)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H40)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:AC$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AC94" t="str">
+        <f>IF(COLUMNS($J$25:AD$25)&lt;=$G40,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H40)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H40)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:AD$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AD94" t="str">
+        <f>IF(COLUMNS($J$25:AE$25)&lt;=$G40,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H40)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H40)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:AE$25))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B95">
         <v>8000</v>
@@ -9107,10 +11474,38 @@
         <f>IF(COLUMNS($J$25:X$25)&lt;=$G41,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H41)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H41)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:X$25))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X95" t="str">
+        <f>IF(COLUMNS($J$25:Y$25)&lt;=$G41,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H41)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H41)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:Y$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Y95" t="str">
+        <f>IF(COLUMNS($J$25:Z$25)&lt;=$G41,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H41)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H41)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:Z$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Z95" t="str">
+        <f>IF(COLUMNS($J$25:AA$25)&lt;=$G41,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H41)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H41)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:AA$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AA95" t="str">
+        <f>IF(COLUMNS($J$25:AB$25)&lt;=$G41,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H41)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H41)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:AB$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AB95" t="str">
+        <f>IF(COLUMNS($J$25:AC$25)&lt;=$G41,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H41)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H41)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:AC$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AC95" t="str">
+        <f>IF(COLUMNS($J$25:AD$25)&lt;=$G41,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H41)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H41)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:AD$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AD95" t="str">
+        <f>IF(COLUMNS($J$25:AE$25)&lt;=$G41,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H41)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H41)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:AE$25))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B96">
         <v>8000</v>
@@ -9183,10 +11578,38 @@
         <f>IF(COLUMNS($J$25:X$25)&lt;=$G42,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H42)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H42)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:X$25))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X96" t="str">
+        <f>IF(COLUMNS($J$25:Y$25)&lt;=$G42,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H42)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H42)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:Y$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Y96" t="str">
+        <f>IF(COLUMNS($J$25:Z$25)&lt;=$G42,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H42)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H42)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:Z$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Z96" t="str">
+        <f>IF(COLUMNS($J$25:AA$25)&lt;=$G42,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H42)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H42)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:AA$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AA96" t="str">
+        <f>IF(COLUMNS($J$25:AB$25)&lt;=$G42,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H42)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H42)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:AB$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AB96" t="str">
+        <f>IF(COLUMNS($J$25:AC$25)&lt;=$G42,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H42)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H42)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:AC$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AC96" t="str">
+        <f>IF(COLUMNS($J$25:AD$25)&lt;=$G42,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H42)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H42)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:AD$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AD96" t="str">
+        <f>IF(COLUMNS($J$25:AE$25)&lt;=$G42,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H42)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H42)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:AE$25))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B97">
         <v>7000</v>
@@ -9259,74 +11682,102 @@
         <f>IF(COLUMNS($J$25:X$25)&lt;=$G43,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H43)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H43)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:X$25))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X97" t="str">
+        <f>IF(COLUMNS($J$25:Y$25)&lt;=$G43,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H43)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H43)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:Y$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Y97" t="str">
+        <f>IF(COLUMNS($J$25:Z$25)&lt;=$G43,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H43)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H43)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:Z$25))),"")</f>
+        <v/>
+      </c>
+      <c r="Z97" t="str">
+        <f>IF(COLUMNS($J$25:AA$25)&lt;=$G43,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H43)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H43)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Letét, jelzálog]])),COLUMNS($J$25:AA$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AA97" t="str">
+        <f>IF(COLUMNS($J$25:AB$25)&lt;=$G43,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H43)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H43)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Előleg]])),COLUMNS($J$25:AB$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AB97" t="str">
+        <f>IF(COLUMNS($J$25:AC$25)&lt;=$G43,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H43)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H43)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Cashflow]])),COLUMNS($J$25:AC$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AC97" t="str">
+        <f>IF(COLUMNS($J$25:AD$25)&lt;=$G43,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H43)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H43)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ingatlanok]])),COLUMNS($J$25:AD$25))),"")</f>
+        <v/>
+      </c>
+      <c r="AD97" t="str">
+        <f>IF(COLUMNS($J$25:AE$25)&lt;=$G43,INDEX(Adatok[[Előleg]:[Előleg]],_xlfn.AGGREGATE(15,3,(Adatok[[Ingatlanok]:[Ingatlanok]]=$H43)/(Adatok[[Ingatlanok]:[Ingatlanok]]=$H43)*(ROW(Adatok[[Ingatlanok]:[Ingatlanok]])-ROW(Adatok[[#Headers],[Ár]])),COLUMNS($J$25:AE$25))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B98">
         <v>6000</v>
       </c>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B99">
         <v>3000</v>
       </c>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B100">
         <v>50000</v>
       </c>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B101">
         <v>14000</v>
       </c>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B102">
         <v>9500</v>
       </c>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B103">
         <v>5000</v>
       </c>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B104">
         <v>10000</v>
       </c>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B105">
         <v>5000</v>
       </c>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B106">
         <v>25000</v>
